--- a/rapor dosyaları/Malzeme Talep ListesiV1 .xlsx
+++ b/rapor dosyaları/Malzeme Talep ListesiV1 .xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samet\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samet\OneDrive\Belgeler\GitHub\rapor dosyaları\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB9F9C8-649F-4F82-BBD9-249F841B186D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E21BC4-7789-45F1-82A5-8AC7C0147ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,9 +114,6 @@
     <t>leopard 4s 5200 mah batarya lipo</t>
   </si>
   <si>
-    <t>https://www.f1depo.com/urun/4s-5200mah-70c-lipo-batarya-14-8v-pil</t>
-  </si>
-  <si>
     <t>lora sx1276 868mhz iletişim modülü</t>
   </si>
   <si>
@@ -148,12 +145,6 @@
   </si>
   <si>
     <t>900kv motor</t>
-  </si>
-  <si>
-    <t>2s 4s  50a esc</t>
-  </si>
-  <si>
-    <t>https://www.robotistan.com/50-a-2s-4s-hobbywing-skywalker-esc-5v-5a-bec</t>
   </si>
   <si>
     <t>pixhawk px4 full set</t>
@@ -191,6 +182,15 @@
   </si>
   <si>
     <t>Konya Gıda ve Tarım Üniversitesi Kapsul Kongrul Takımı Malzeme Talep Listesi</t>
+  </si>
+  <si>
+    <t>2s 6s  60a esc 5v bec</t>
+  </si>
+  <si>
+    <t>https://www.promodelhobby.com/urun/emax-simon-series-60a-ubec-esc-2s-6s</t>
+  </si>
+  <si>
+    <t>https://www.f1depo.com/urun/5s-7000mah-40c-lipo-batarya-18-5v-pil</t>
   </si>
 </sst>
 </file>
@@ -433,8 +433,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -443,16 +453,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Köprü" xfId="1" builtinId="8"/>
@@ -672,7 +672,7 @@
   <dimension ref="A1:Y999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -688,13 +688,13 @@
   <sheetData>
     <row r="1" spans="1:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -739,13 +739,13 @@
       <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>19</v>
+      <c r="B3" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="C3" s="9">
         <v>3</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="17" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="11">
@@ -786,7 +786,7 @@
       <c r="C5" s="9">
         <v>3</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="17" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="11">
@@ -807,7 +807,7 @@
       <c r="C6" s="9">
         <v>14</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="16" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="12">
@@ -822,19 +822,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="9">
         <v>5</v>
       </c>
-      <c r="D7" s="26" t="s">
-        <v>16</v>
+      <c r="D7" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="E7" s="12">
         <v>143.22999999999999</v>
       </c>
       <c r="F7" s="12">
-        <f>E7*C7</f>
+        <f t="shared" ref="F7:F16" si="1">E7*C7</f>
         <v>716.15</v>
       </c>
     </row>
@@ -843,19 +843,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="9">
         <v>10</v>
       </c>
-      <c r="D8" s="26" t="s">
-        <v>17</v>
+      <c r="D8" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="E8" s="12">
         <v>225.98</v>
       </c>
       <c r="F8" s="12">
-        <f>E8*C8</f>
+        <f t="shared" si="1"/>
         <v>2259.7999999999997</v>
       </c>
     </row>
@@ -863,20 +863,20 @@
       <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="29" t="s">
-        <v>20</v>
+      <c r="B9" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="C9" s="9">
         <v>10</v>
       </c>
-      <c r="D9" s="26" t="s">
-        <v>21</v>
+      <c r="D9" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="E9" s="12">
         <v>92</v>
       </c>
       <c r="F9" s="12">
-        <f>E9*C9</f>
+        <f t="shared" si="1"/>
         <v>920</v>
       </c>
     </row>
@@ -884,20 +884,20 @@
       <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="29" t="s">
-        <v>22</v>
+      <c r="B10" s="19" t="s">
+        <v>21</v>
       </c>
       <c r="C10" s="9">
         <v>2</v>
       </c>
-      <c r="D10" s="26" t="s">
-        <v>23</v>
+      <c r="D10" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="E10" s="12">
         <v>58.66</v>
       </c>
       <c r="F10" s="12">
-        <f>E10*C10</f>
+        <f t="shared" si="1"/>
         <v>117.32</v>
       </c>
     </row>
@@ -909,37 +909,37 @@
         <v>13</v>
       </c>
       <c r="C11" s="9">
-        <v>2</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>14</v>
+        <v>1</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="E11" s="12">
-        <v>1362</v>
+        <v>1770</v>
       </c>
       <c r="F11" s="12">
-        <f>E11*C11</f>
-        <v>2724</v>
+        <f t="shared" si="1"/>
+        <v>1770</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>10</v>
       </c>
-      <c r="B12" s="29" t="s">
-        <v>25</v>
+      <c r="B12" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="C12" s="9">
         <v>3</v>
       </c>
-      <c r="D12" s="26" t="s">
-        <v>24</v>
+      <c r="D12" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="E12" s="12">
         <v>375</v>
       </c>
       <c r="F12" s="12">
-        <f>E12*C12</f>
+        <f t="shared" si="1"/>
         <v>1125</v>
       </c>
     </row>
@@ -947,41 +947,41 @@
       <c r="A13" s="7">
         <v>11</v>
       </c>
-      <c r="B13" s="29" t="s">
-        <v>26</v>
+      <c r="B13" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="C13" s="9">
         <v>2</v>
       </c>
-      <c r="D13" s="26" t="s">
-        <v>27</v>
+      <c r="D13" s="16" t="s">
+        <v>34</v>
       </c>
       <c r="E13" s="12">
-        <v>308</v>
+        <v>448</v>
       </c>
       <c r="F13" s="12">
-        <f>E13*C13</f>
-        <v>616</v>
+        <f t="shared" si="1"/>
+        <v>896</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>12</v>
       </c>
-      <c r="B14" s="29" t="s">
-        <v>28</v>
+      <c r="B14" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="C14" s="9">
         <v>1</v>
       </c>
-      <c r="D14" s="26" t="s">
-        <v>29</v>
+      <c r="D14" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="E14" s="12">
         <v>4350</v>
       </c>
       <c r="F14" s="12">
-        <f>E14*C14</f>
+        <f t="shared" si="1"/>
         <v>4350</v>
       </c>
     </row>
@@ -989,20 +989,20 @@
       <c r="A15" s="7">
         <v>13</v>
       </c>
-      <c r="B15" s="29" t="s">
-        <v>30</v>
+      <c r="B15" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="C15" s="9">
         <v>1</v>
       </c>
-      <c r="D15" s="26" t="s">
-        <v>31</v>
+      <c r="D15" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="E15" s="12">
         <v>130</v>
       </c>
       <c r="F15" s="12">
-        <f>E15*C15</f>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
     </row>
@@ -1010,20 +1010,20 @@
       <c r="A16" s="7">
         <v>14</v>
       </c>
-      <c r="B16" s="29" t="s">
-        <v>32</v>
+      <c r="B16" s="19" t="s">
+        <v>29</v>
       </c>
       <c r="C16" s="9">
         <v>1</v>
       </c>
-      <c r="D16" s="26" t="s">
-        <v>33</v>
+      <c r="D16" s="16" t="s">
+        <v>30</v>
       </c>
       <c r="E16" s="12">
         <v>404</v>
       </c>
       <c r="F16" s="12">
-        <f>E16*C16</f>
+        <f t="shared" si="1"/>
         <v>404</v>
       </c>
     </row>
@@ -1050,30 +1050,30 @@
       <c r="F19" s="15"/>
     </row>
     <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="19"/>
+      <c r="A20" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="25"/>
     </row>
     <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="22"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="28"/>
     </row>
     <row r="22" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="25"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="31"/>
     </row>
     <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
@@ -6952,10 +6952,10 @@
     <hyperlink ref="D9" r:id="rId7" display="https://tr.aliexpress.com/item/32637530520.html?srcSns=sns_Copy&amp;spreadType=socialShare&amp;bizType=ProductDetail&amp;social_params=60127423159&amp;aff_fcid=bf37b306aadd4171ab16a29eb2980848-1645624602972-08765-_uybzTN&amp;tt=MG&amp;aff_fsk=_uybzTN&amp;aff_platform=default&amp;sk=_uybzTN&amp;aff_trace_key=bf37b306aadd4171ab16a29eb2980848-1645624602972-08765-_uybzTN&amp;shareId=60127423159&amp;businessType=ProductDetail&amp;platform=AE&amp;terminal_id=bbdb96ebd8ef42e0996c8f6077033052&amp;afSmartRedirect=y" xr:uid="{92F5E79F-55A1-40D0-A89E-D2AD5CA2889B}"/>
     <hyperlink ref="D10" r:id="rId8" xr:uid="{55AEEE80-2C6E-4E53-ACE4-B6FCD979C937}"/>
     <hyperlink ref="D12" r:id="rId9" display="https://tr.aliexpress.com/item/1005001950159522.html?srcSns=sns_Copy&amp;spreadType=socialShare&amp;bizType=ProductDetail&amp;social_params=60141017997&amp;aff_fcid=cfd190b6eba34e66a47e07e0a7e333ef-1645625009909-00743-_voLUSG&amp;tt=MG&amp;aff_fsk=_voLUSG&amp;aff_platform=default&amp;sk=_voLUSG&amp;aff_trace_key=cfd190b6eba34e66a47e07e0a7e333ef-1645625009909-00743-_voLUSG&amp;shareId=60141017997&amp;businessType=ProductDetail&amp;platform=AE&amp;terminal_id=bbdb96ebd8ef42e0996c8f6077033052&amp;afSmartRedirect=y" xr:uid="{96A011A9-468C-40A7-94BF-9DE9F4BA957B}"/>
-    <hyperlink ref="D13" r:id="rId10" xr:uid="{5451E3F4-517D-49F8-A5DF-5D572EF093CA}"/>
-    <hyperlink ref="D14" r:id="rId11" xr:uid="{FDEFEF70-2E2B-41DF-A2DC-FC88B57FEA2D}"/>
-    <hyperlink ref="D16" r:id="rId12" xr:uid="{120B9B05-00C8-4508-99C0-65E9D1110D48}"/>
-    <hyperlink ref="D15" r:id="rId13" xr:uid="{A66262DB-2314-4FD2-9339-25A2D6ED1E15}"/>
+    <hyperlink ref="D14" r:id="rId10" xr:uid="{FDEFEF70-2E2B-41DF-A2DC-FC88B57FEA2D}"/>
+    <hyperlink ref="D16" r:id="rId11" xr:uid="{120B9B05-00C8-4508-99C0-65E9D1110D48}"/>
+    <hyperlink ref="D15" r:id="rId12" xr:uid="{A66262DB-2314-4FD2-9339-25A2D6ED1E15}"/>
+    <hyperlink ref="D13" r:id="rId13" xr:uid="{118E338D-5220-4779-82DE-75BF16BAC928}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>

--- a/rapor dosyaları/Malzeme Talep ListesiV1 .xlsx
+++ b/rapor dosyaları/Malzeme Talep ListesiV1 .xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samet\OneDrive\Belgeler\GitHub\rapor dosyaları\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d82cb3954a51c9e/Belgeler/GitHub/rapor dosyaları/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E21BC4-7789-45F1-82A5-8AC7C0147ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{C8E21BC4-7789-45F1-82A5-8AC7C0147ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCFB8363-BB27-4487-8E9B-F2C2EA5AE302}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -184,13 +184,13 @@
     <t>Konya Gıda ve Tarım Üniversitesi Kapsul Kongrul Takımı Malzeme Talep Listesi</t>
   </si>
   <si>
-    <t>2s 6s  60a esc 5v bec</t>
+    <t>https://www.f1depo.com/urun/5s-7000mah-40c-lipo-batarya-18-5v-pil</t>
   </si>
   <si>
-    <t>https://www.promodelhobby.com/urun/emax-simon-series-60a-ubec-esc-2s-6s</t>
+    <t>https://www.promodelhobby.com/urun/ztw-beatles-70a-sbec-5-5v-3a-esc-2-6s</t>
   </si>
   <si>
-    <t>https://www.f1depo.com/urun/5s-7000mah-40c-lipo-batarya-18-5v-pil</t>
+    <t>2s 6s  70a esc 5v bec</t>
   </si>
 </sst>
 </file>
@@ -672,7 +672,7 @@
   <dimension ref="A1:Y999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -912,7 +912,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E11" s="12">
         <v>1770</v>
@@ -948,7 +948,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C13" s="9">
         <v>2</v>
@@ -957,11 +957,11 @@
         <v>34</v>
       </c>
       <c r="E13" s="12">
-        <v>448</v>
+        <v>693</v>
       </c>
       <c r="F13" s="12">
         <f t="shared" si="1"/>
-        <v>896</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/rapor dosyaları/Malzeme Talep ListesiV1 .xlsx
+++ b/rapor dosyaları/Malzeme Talep ListesiV1 .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d82cb3954a51c9e/Belgeler/GitHub/rapor dosyaları/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{C8E21BC4-7789-45F1-82A5-8AC7C0147ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCFB8363-BB27-4487-8E9B-F2C2EA5AE302}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{C8E21BC4-7789-45F1-82A5-8AC7C0147ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43541A4F-3F9E-4C88-B844-1253007F3112}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,12 +129,6 @@
     <t>f7 kontrolcü + 4in 1 esc 45a blheliAAAA</t>
   </si>
   <si>
-    <t>10X4.7 PERVANE</t>
-  </si>
-  <si>
-    <t>https://tr.aliexpress.com/item/32637530520.html?srcSns=sns_Copy&amp;spreadType=socialShare&amp;bizType=ProductDetail&amp;social_params=60127423159&amp;aff_fcid=bf37b306aadd4171ab16a29eb2980848-1645624602972-08765-_uybzTN&amp;tt=MG&amp;aff_fsk=_uybzTN&amp;aff_platform=default&amp;sk=_uybzTN&amp;aff_trace_key=bf37b306aadd4171ab16a29eb2980848-1645624602972-08765-_uybzTN&amp;shareId=60127423159&amp;businessType=ProductDetail&amp;platform=AE&amp;terminal_id=bbdb96ebd8ef42e0996c8f6077033052&amp;afSmartRedirect=y</t>
-  </si>
-  <si>
     <t>tower pro sg 5010 servo</t>
   </si>
   <si>
@@ -191,6 +185,12 @@
   </si>
   <si>
     <t>2s 6s  70a esc 5v bec</t>
+  </si>
+  <si>
+    <t>https://www.promodelhobby.com/urun/haoye-13x6-pervane</t>
+  </si>
+  <si>
+    <t>13x6 PERVANE</t>
   </si>
 </sst>
 </file>
@@ -671,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -689,7 +689,7 @@
     <row r="1" spans="1:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
@@ -864,13 +864,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C9" s="9">
         <v>10</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E9" s="12">
         <v>92</v>
@@ -885,13 +885,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" s="9">
         <v>2</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10" s="12">
         <v>58.66</v>
@@ -912,7 +912,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E11" s="12">
         <v>1770</v>
@@ -927,13 +927,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" s="9">
         <v>3</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12" s="12">
         <v>375</v>
@@ -948,13 +948,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13" s="9">
         <v>2</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E13" s="12">
         <v>693</v>
@@ -969,13 +969,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" s="9">
         <v>1</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E14" s="12">
         <v>4350</v>
@@ -990,13 +990,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" s="9">
         <v>1</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E15" s="12">
         <v>130</v>
@@ -1011,13 +1011,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16" s="9">
         <v>1</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E16" s="12">
         <v>404</v>
@@ -1051,7 +1051,7 @@
     </row>
     <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>
@@ -6949,7 +6949,7 @@
     <hyperlink ref="D11" r:id="rId4" xr:uid="{95FFB78C-EA5E-46A1-B6FD-9F43B2DAF773}"/>
     <hyperlink ref="D7" r:id="rId5" display="https://tr.aliexpress.com/item/4000515981633.html?srcSns=sns_Copy&amp;spreadType=socialShare&amp;bizType=ProductDetail&amp;social_params=60127423009&amp;aff_fcid=19a75fdcbf1447788414c6a45c1b24a1-1645623996073-09281-_v1f4tz&amp;tt=MG&amp;aff_fsk=_v1f4tz&amp;aff_platform=default&amp;sk=_v1f4tz&amp;aff_trace_key=19a75fdcbf1447788414c6a45c1b24a1-1645623996073-09281-_v1f4tz&amp;shareId=60127423009&amp;businessType=ProductDetail&amp;platform=AE&amp;terminal_id=049bd3b5c15345dfb6e0fe1b4af8a5dc&amp;afSmartRedirect=n" xr:uid="{027DDC9B-BE54-4DC5-B958-BF7A4283758B}"/>
     <hyperlink ref="D8" r:id="rId6" display="https://tr.aliexpress.com/item/1708771731.html?srcSns=sns_Copy&amp;spreadType=socialShare&amp;bizType=ProductDetail&amp;social_params=60126720893&amp;aff_fcid=d949310bedbd458b9e26562ffe64d2a1-1645624201126-07754-_ufV0AX&amp;tt=MG&amp;aff_fsk=_ufV0AX&amp;aff_platform=default&amp;sk=_ufV0AX&amp;aff_trace_key=d949310bedbd458b9e26562ffe64d2a1-1645624201126-07754-_ufV0AX&amp;shareId=60126720893&amp;businessType=ProductDetail&amp;platform=AE&amp;terminal_id=049bd3b5c15345dfb6e0fe1b4af8a5dc&amp;afSmartRedirect=n" xr:uid="{534F16AA-D542-415A-BB98-7541DF6C72CB}"/>
-    <hyperlink ref="D9" r:id="rId7" display="https://tr.aliexpress.com/item/32637530520.html?srcSns=sns_Copy&amp;spreadType=socialShare&amp;bizType=ProductDetail&amp;social_params=60127423159&amp;aff_fcid=bf37b306aadd4171ab16a29eb2980848-1645624602972-08765-_uybzTN&amp;tt=MG&amp;aff_fsk=_uybzTN&amp;aff_platform=default&amp;sk=_uybzTN&amp;aff_trace_key=bf37b306aadd4171ab16a29eb2980848-1645624602972-08765-_uybzTN&amp;shareId=60127423159&amp;businessType=ProductDetail&amp;platform=AE&amp;terminal_id=bbdb96ebd8ef42e0996c8f6077033052&amp;afSmartRedirect=y" xr:uid="{92F5E79F-55A1-40D0-A89E-D2AD5CA2889B}"/>
+    <hyperlink ref="D9" r:id="rId7" xr:uid="{92F5E79F-55A1-40D0-A89E-D2AD5CA2889B}"/>
     <hyperlink ref="D10" r:id="rId8" xr:uid="{55AEEE80-2C6E-4E53-ACE4-B6FCD979C937}"/>
     <hyperlink ref="D12" r:id="rId9" display="https://tr.aliexpress.com/item/1005001950159522.html?srcSns=sns_Copy&amp;spreadType=socialShare&amp;bizType=ProductDetail&amp;social_params=60141017997&amp;aff_fcid=cfd190b6eba34e66a47e07e0a7e333ef-1645625009909-00743-_voLUSG&amp;tt=MG&amp;aff_fsk=_voLUSG&amp;aff_platform=default&amp;sk=_voLUSG&amp;aff_trace_key=cfd190b6eba34e66a47e07e0a7e333ef-1645625009909-00743-_voLUSG&amp;shareId=60141017997&amp;businessType=ProductDetail&amp;platform=AE&amp;terminal_id=bbdb96ebd8ef42e0996c8f6077033052&amp;afSmartRedirect=y" xr:uid="{96A011A9-468C-40A7-94BF-9DE9F4BA957B}"/>
     <hyperlink ref="D14" r:id="rId10" xr:uid="{FDEFEF70-2E2B-41DF-A2DC-FC88B57FEA2D}"/>

--- a/rapor dosyaları/Malzeme Talep ListesiV1 .xlsx
+++ b/rapor dosyaları/Malzeme Talep ListesiV1 .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d82cb3954a51c9e/Belgeler/GitHub/rapor dosyaları/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{C8E21BC4-7789-45F1-82A5-8AC7C0147ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43541A4F-3F9E-4C88-B844-1253007F3112}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{C8E21BC4-7789-45F1-82A5-8AC7C0147ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1F71EF5-C616-4E6B-B884-80FAC59E3059}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,9 +111,6 @@
     <t>pervane gf2540 (pakette 4 tane cw ccw )</t>
   </si>
   <si>
-    <t>leopard 4s 5200 mah batarya lipo</t>
-  </si>
-  <si>
     <t>lora sx1276 868mhz iletişim modülü</t>
   </si>
   <si>
@@ -191,6 +188,9 @@
   </si>
   <si>
     <t>13x6 PERVANE</t>
+  </si>
+  <si>
+    <t>leopard 5s 7000 mah batarya lipo</t>
   </si>
 </sst>
 </file>
@@ -671,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -689,7 +689,7 @@
     <row r="1" spans="1:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
@@ -740,7 +740,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="9">
         <v>3</v>
@@ -822,13 +822,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="9">
         <v>5</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="12">
         <v>143.22999999999999</v>
@@ -843,13 +843,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="9">
         <v>10</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="12">
         <v>225.98</v>
@@ -864,13 +864,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="9">
         <v>10</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="12">
         <v>92</v>
@@ -885,13 +885,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="9">
         <v>2</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="12">
         <v>58.66</v>
@@ -906,13 +906,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C11" s="9">
         <v>1</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" s="12">
         <v>1770</v>
@@ -927,13 +927,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="9">
         <v>3</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="12">
         <v>375</v>
@@ -948,13 +948,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="9">
         <v>2</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="12">
         <v>693</v>
@@ -969,13 +969,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="9">
         <v>1</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="12">
         <v>4350</v>
@@ -990,13 +990,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="9">
         <v>1</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" s="12">
         <v>130</v>
@@ -1011,13 +1011,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="9">
         <v>1</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" s="12">
         <v>404</v>
@@ -1051,7 +1051,7 @@
     </row>
     <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>

--- a/rapor dosyaları/Malzeme Talep ListesiV1 .xlsx
+++ b/rapor dosyaları/Malzeme Talep ListesiV1 .xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d82cb3954a51c9e/Belgeler/GitHub/rapor dosyaları/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samet\Documents\GitHub\rapor dosyaları\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{C8E21BC4-7789-45F1-82A5-8AC7C0147ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1F71EF5-C616-4E6B-B884-80FAC59E3059}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74BBDF5-F7ED-42CA-98F1-A13F0DABC98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="38616" windowHeight="21096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -111,12 +111,6 @@
     <t>pervane gf2540 (pakette 4 tane cw ccw )</t>
   </si>
   <si>
-    <t>lora sx1276 868mhz iletişim modülü</t>
-  </si>
-  <si>
-    <t>https://tr.aliexpress.com/item/4000515981633.html?srcSns=sns_Copy&amp;spreadType=socialShare&amp;bizType=ProductDetail&amp;social_params=60127423009&amp;aff_fcid=19a75fdcbf1447788414c6a45c1b24a1-1645623996073-09281-_v1f4tz&amp;tt=MG&amp;aff_fsk=_v1f4tz&amp;aff_platform=default&amp;sk=_v1f4tz&amp;aff_trace_key=19a75fdcbf1447788414c6a45c1b24a1-1645623996073-09281-_v1f4tz&amp;shareId=60127423009&amp;businessType=ProductDetail&amp;platform=AE&amp;terminal_id=049bd3b5c15345dfb6e0fe1b4af8a5dc&amp;afSmartRedirect=n</t>
-  </si>
-  <si>
     <t>https://tr.aliexpress.com/item/1708771731.html?srcSns=sns_Copy&amp;spreadType=socialShare&amp;bizType=ProductDetail&amp;social_params=60126720893&amp;aff_fcid=d949310bedbd458b9e26562ffe64d2a1-1645624201126-07754-_ufV0AX&amp;tt=MG&amp;aff_fsk=_ufV0AX&amp;aff_platform=default&amp;sk=_ufV0AX&amp;aff_trace_key=d949310bedbd458b9e26562ffe64d2a1-1645624201126-07754-_ufV0AX&amp;shareId=60126720893&amp;businessType=ProductDetail&amp;platform=AE&amp;terminal_id=049bd3b5c15345dfb6e0fe1b4af8a5dc&amp;afSmartRedirect=n</t>
   </si>
   <si>
@@ -191,6 +185,12 @@
   </si>
   <si>
     <t>leopard 5s 7000 mah batarya lipo</t>
+  </si>
+  <si>
+    <t>lora sx1276 433mhz iletişim modülü</t>
+  </si>
+  <si>
+    <t>https://tr.aliexpress.com/item/1005002091320352.html?spm=a2g0o.productlist.0.0.6b434734jrg0UW&amp;algo_pvid=4204bc8e-aea8-425b-ba4c-1e81517e3476&amp;aem_p4p_detail=202202251157521922757826983800005938282&amp;algo_exp_id=4204bc8e-aea8-425b-ba4c-1e81517e3476-14&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000018711741545%22%7D&amp;pdp_pi=-1%3B71.26%3B-1%3B5407%40salePrice%3BTRY%3Bsearch-mainSearch</t>
   </si>
 </sst>
 </file>
@@ -672,31 +672,31 @@
   <dimension ref="A1:Y999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" customWidth="1"/>
     <col min="2" max="2" width="37" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="30.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="25" width="8.7109375" customWidth="1"/>
+    <col min="7" max="25" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
       <c r="E1" s="21"/>
       <c r="F1" s="22"/>
     </row>
-    <row r="2" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -735,12 +735,12 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
     </row>
-    <row r="3" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="9">
         <v>3</v>
@@ -755,7 +755,7 @@
         <v>6567</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -776,7 +776,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -797,7 +797,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -817,18 +817,18 @@
         <v>3780</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C7" s="9">
         <v>5</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="E7" s="12">
         <v>143.22999999999999</v>
@@ -838,18 +838,18 @@
         <v>716.15</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="9">
         <v>10</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E8" s="12">
         <v>225.98</v>
@@ -859,18 +859,18 @@
         <v>2259.7999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>7</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9" s="9">
         <v>10</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E9" s="12">
         <v>92</v>
@@ -880,18 +880,18 @@
         <v>920</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>8</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" s="9">
         <v>2</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E10" s="12">
         <v>58.66</v>
@@ -901,18 +901,18 @@
         <v>117.32</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C11" s="9">
         <v>1</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E11" s="12">
         <v>1770</v>
@@ -922,18 +922,18 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>10</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" s="9">
         <v>3</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E12" s="12">
         <v>375</v>
@@ -943,18 +943,18 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>11</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" s="9">
         <v>2</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E13" s="12">
         <v>693</v>
@@ -964,18 +964,18 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>12</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="9">
         <v>1</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E14" s="12">
         <v>4350</v>
@@ -985,18 +985,18 @@
         <v>4350</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>13</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C15" s="9">
         <v>1</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E15" s="12">
         <v>130</v>
@@ -1006,18 +1006,18 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>14</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" s="9">
         <v>1</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E16" s="12">
         <v>404</v>
@@ -1027,7 +1027,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
@@ -1035,7 +1035,7 @@
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
@@ -1043,15 +1043,15 @@
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="C19" s="14"/>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
     </row>
-    <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>
@@ -1059,7 +1059,7 @@
       <c r="E20" s="24"/>
       <c r="F20" s="25"/>
     </row>
-    <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="26"/>
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
@@ -1067,7 +1067,7 @@
       <c r="E21" s="27"/>
       <c r="F21" s="28"/>
     </row>
-    <row r="22" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="29"/>
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
@@ -1075,5863 +1075,5863 @@
       <c r="E22" s="30"/>
       <c r="F22" s="31"/>
     </row>
-    <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="C23" s="14"/>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
     </row>
-    <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="C24" s="14"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
     </row>
-    <row r="25" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="C25" s="14"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
     </row>
-    <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="C26" s="14"/>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
     </row>
-    <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="C27" s="14"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
     </row>
-    <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="C28" s="14"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
     </row>
-    <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="C29" s="14"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
     </row>
-    <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="C30" s="14"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
     </row>
-    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="C31" s="14"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
     </row>
-    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="C32" s="14"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
     </row>
-    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="C33" s="14"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
     </row>
-    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="C34" s="14"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
     </row>
-    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="C35" s="14"/>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
     </row>
-    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="C36" s="14"/>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
     </row>
-    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="C37" s="14"/>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
     </row>
-    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="C38" s="14"/>
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
     </row>
-    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="C39" s="14"/>
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
     </row>
-    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="C40" s="14"/>
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
     </row>
-    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="C41" s="14"/>
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
     </row>
-    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="C42" s="14"/>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
     </row>
-    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="C43" s="14"/>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
     </row>
-    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="C44" s="14"/>
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
     </row>
-    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="C45" s="14"/>
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
     </row>
-    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="C46" s="14"/>
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
     </row>
-    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="C47" s="14"/>
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
     </row>
-    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="C48" s="14"/>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
     </row>
-    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="C49" s="14"/>
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
     </row>
-    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="C50" s="14"/>
       <c r="E50" s="15"/>
       <c r="F50" s="15"/>
     </row>
-    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="C51" s="14"/>
       <c r="E51" s="15"/>
       <c r="F51" s="15"/>
     </row>
-    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="C52" s="14"/>
       <c r="E52" s="15"/>
       <c r="F52" s="15"/>
     </row>
-    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="C53" s="14"/>
       <c r="E53" s="15"/>
       <c r="F53" s="15"/>
     </row>
-    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="C54" s="14"/>
       <c r="E54" s="15"/>
       <c r="F54" s="15"/>
     </row>
-    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="C55" s="14"/>
       <c r="E55" s="15"/>
       <c r="F55" s="15"/>
     </row>
-    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="C56" s="14"/>
       <c r="E56" s="15"/>
       <c r="F56" s="15"/>
     </row>
-    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="C57" s="14"/>
       <c r="E57" s="15"/>
       <c r="F57" s="15"/>
     </row>
-    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="C58" s="14"/>
       <c r="E58" s="15"/>
       <c r="F58" s="15"/>
     </row>
-    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="C59" s="14"/>
       <c r="E59" s="15"/>
       <c r="F59" s="15"/>
     </row>
-    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="C60" s="14"/>
       <c r="E60" s="15"/>
       <c r="F60" s="15"/>
     </row>
-    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="C61" s="14"/>
       <c r="E61" s="15"/>
       <c r="F61" s="15"/>
     </row>
-    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="C62" s="14"/>
       <c r="E62" s="15"/>
       <c r="F62" s="15"/>
     </row>
-    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="C63" s="14"/>
       <c r="E63" s="15"/>
       <c r="F63" s="15"/>
     </row>
-    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="C64" s="14"/>
       <c r="E64" s="15"/>
       <c r="F64" s="15"/>
     </row>
-    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="C65" s="14"/>
       <c r="E65" s="15"/>
       <c r="F65" s="15"/>
     </row>
-    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="C66" s="14"/>
       <c r="E66" s="15"/>
       <c r="F66" s="15"/>
     </row>
-    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="C67" s="14"/>
       <c r="E67" s="15"/>
       <c r="F67" s="15"/>
     </row>
-    <row r="68" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="C68" s="14"/>
       <c r="E68" s="15"/>
       <c r="F68" s="15"/>
     </row>
-    <row r="69" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="C69" s="14"/>
       <c r="E69" s="15"/>
       <c r="F69" s="15"/>
     </row>
-    <row r="70" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="C70" s="14"/>
       <c r="E70" s="15"/>
       <c r="F70" s="15"/>
     </row>
-    <row r="71" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="C71" s="14"/>
       <c r="E71" s="15"/>
       <c r="F71" s="15"/>
     </row>
-    <row r="72" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="C72" s="14"/>
       <c r="E72" s="15"/>
       <c r="F72" s="15"/>
     </row>
-    <row r="73" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="C73" s="14"/>
       <c r="E73" s="15"/>
       <c r="F73" s="15"/>
     </row>
-    <row r="74" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="C74" s="14"/>
       <c r="E74" s="15"/>
       <c r="F74" s="15"/>
     </row>
-    <row r="75" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="C75" s="14"/>
       <c r="E75" s="15"/>
       <c r="F75" s="15"/>
     </row>
-    <row r="76" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="C76" s="14"/>
       <c r="E76" s="15"/>
       <c r="F76" s="15"/>
     </row>
-    <row r="77" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="C77" s="14"/>
       <c r="E77" s="15"/>
       <c r="F77" s="15"/>
     </row>
-    <row r="78" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="C78" s="14"/>
       <c r="E78" s="15"/>
       <c r="F78" s="15"/>
     </row>
-    <row r="79" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="C79" s="14"/>
       <c r="E79" s="15"/>
       <c r="F79" s="15"/>
     </row>
-    <row r="80" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="C80" s="14"/>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
     </row>
-    <row r="81" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="C81" s="14"/>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
     </row>
-    <row r="82" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="C82" s="14"/>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
     </row>
-    <row r="83" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="C83" s="14"/>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
     </row>
-    <row r="84" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="C84" s="14"/>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
     </row>
-    <row r="85" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="C85" s="14"/>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
     </row>
-    <row r="86" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="C86" s="14"/>
       <c r="E86" s="15"/>
       <c r="F86" s="15"/>
     </row>
-    <row r="87" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="C87" s="14"/>
       <c r="E87" s="15"/>
       <c r="F87" s="15"/>
     </row>
-    <row r="88" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="C88" s="14"/>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
     </row>
-    <row r="89" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="C89" s="14"/>
       <c r="E89" s="15"/>
       <c r="F89" s="15"/>
     </row>
-    <row r="90" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="C90" s="14"/>
       <c r="E90" s="15"/>
       <c r="F90" s="15"/>
     </row>
-    <row r="91" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="C91" s="14"/>
       <c r="E91" s="15"/>
       <c r="F91" s="15"/>
     </row>
-    <row r="92" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="C92" s="14"/>
       <c r="E92" s="15"/>
       <c r="F92" s="15"/>
     </row>
-    <row r="93" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="C93" s="14"/>
       <c r="E93" s="15"/>
       <c r="F93" s="15"/>
     </row>
-    <row r="94" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="C94" s="14"/>
       <c r="E94" s="15"/>
       <c r="F94" s="15"/>
     </row>
-    <row r="95" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="C95" s="14"/>
       <c r="E95" s="15"/>
       <c r="F95" s="15"/>
     </row>
-    <row r="96" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="C96" s="14"/>
       <c r="E96" s="15"/>
       <c r="F96" s="15"/>
     </row>
-    <row r="97" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="C97" s="14"/>
       <c r="E97" s="15"/>
       <c r="F97" s="15"/>
     </row>
-    <row r="98" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="C98" s="14"/>
       <c r="E98" s="15"/>
       <c r="F98" s="15"/>
     </row>
-    <row r="99" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="C99" s="14"/>
       <c r="E99" s="15"/>
       <c r="F99" s="15"/>
     </row>
-    <row r="100" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="C100" s="14"/>
       <c r="E100" s="15"/>
       <c r="F100" s="15"/>
     </row>
-    <row r="101" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="C101" s="14"/>
       <c r="E101" s="15"/>
       <c r="F101" s="15"/>
     </row>
-    <row r="102" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="C102" s="14"/>
       <c r="E102" s="15"/>
       <c r="F102" s="15"/>
     </row>
-    <row r="103" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="C103" s="14"/>
       <c r="E103" s="15"/>
       <c r="F103" s="15"/>
     </row>
-    <row r="104" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="C104" s="14"/>
       <c r="E104" s="15"/>
       <c r="F104" s="15"/>
     </row>
-    <row r="105" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="C105" s="14"/>
       <c r="E105" s="15"/>
       <c r="F105" s="15"/>
     </row>
-    <row r="106" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="C106" s="14"/>
       <c r="E106" s="15"/>
       <c r="F106" s="15"/>
     </row>
-    <row r="107" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="C107" s="14"/>
       <c r="E107" s="15"/>
       <c r="F107" s="15"/>
     </row>
-    <row r="108" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="C108" s="14"/>
       <c r="E108" s="15"/>
       <c r="F108" s="15"/>
     </row>
-    <row r="109" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="C109" s="14"/>
       <c r="E109" s="15"/>
       <c r="F109" s="15"/>
     </row>
-    <row r="110" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="C110" s="14"/>
       <c r="E110" s="15"/>
       <c r="F110" s="15"/>
     </row>
-    <row r="111" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="C111" s="14"/>
       <c r="E111" s="15"/>
       <c r="F111" s="15"/>
     </row>
-    <row r="112" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="C112" s="14"/>
       <c r="E112" s="15"/>
       <c r="F112" s="15"/>
     </row>
-    <row r="113" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="C113" s="14"/>
       <c r="E113" s="15"/>
       <c r="F113" s="15"/>
     </row>
-    <row r="114" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="C114" s="14"/>
       <c r="E114" s="15"/>
       <c r="F114" s="15"/>
     </row>
-    <row r="115" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="C115" s="14"/>
       <c r="E115" s="15"/>
       <c r="F115" s="15"/>
     </row>
-    <row r="116" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="C116" s="14"/>
       <c r="E116" s="15"/>
       <c r="F116" s="15"/>
     </row>
-    <row r="117" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="C117" s="14"/>
       <c r="E117" s="15"/>
       <c r="F117" s="15"/>
     </row>
-    <row r="118" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="C118" s="14"/>
       <c r="E118" s="15"/>
       <c r="F118" s="15"/>
     </row>
-    <row r="119" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="C119" s="14"/>
       <c r="E119" s="15"/>
       <c r="F119" s="15"/>
     </row>
-    <row r="120" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="C120" s="14"/>
       <c r="E120" s="15"/>
       <c r="F120" s="15"/>
     </row>
-    <row r="121" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="C121" s="14"/>
       <c r="E121" s="15"/>
       <c r="F121" s="15"/>
     </row>
-    <row r="122" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="C122" s="14"/>
       <c r="E122" s="15"/>
       <c r="F122" s="15"/>
     </row>
-    <row r="123" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="C123" s="14"/>
       <c r="E123" s="15"/>
       <c r="F123" s="15"/>
     </row>
-    <row r="124" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="C124" s="14"/>
       <c r="E124" s="15"/>
       <c r="F124" s="15"/>
     </row>
-    <row r="125" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="C125" s="14"/>
       <c r="E125" s="15"/>
       <c r="F125" s="15"/>
     </row>
-    <row r="126" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="C126" s="14"/>
       <c r="E126" s="15"/>
       <c r="F126" s="15"/>
     </row>
-    <row r="127" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="C127" s="14"/>
       <c r="E127" s="15"/>
       <c r="F127" s="15"/>
     </row>
-    <row r="128" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="C128" s="14"/>
       <c r="E128" s="15"/>
       <c r="F128" s="15"/>
     </row>
-    <row r="129" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="C129" s="14"/>
       <c r="E129" s="15"/>
       <c r="F129" s="15"/>
     </row>
-    <row r="130" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="C130" s="14"/>
       <c r="E130" s="15"/>
       <c r="F130" s="15"/>
     </row>
-    <row r="131" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="C131" s="14"/>
       <c r="E131" s="15"/>
       <c r="F131" s="15"/>
     </row>
-    <row r="132" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="C132" s="14"/>
       <c r="E132" s="15"/>
       <c r="F132" s="15"/>
     </row>
-    <row r="133" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="C133" s="14"/>
       <c r="E133" s="15"/>
       <c r="F133" s="15"/>
     </row>
-    <row r="134" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="C134" s="14"/>
       <c r="E134" s="15"/>
       <c r="F134" s="15"/>
     </row>
-    <row r="135" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="C135" s="14"/>
       <c r="E135" s="15"/>
       <c r="F135" s="15"/>
     </row>
-    <row r="136" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="C136" s="14"/>
       <c r="E136" s="15"/>
       <c r="F136" s="15"/>
     </row>
-    <row r="137" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="C137" s="14"/>
       <c r="E137" s="15"/>
       <c r="F137" s="15"/>
     </row>
-    <row r="138" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="C138" s="14"/>
       <c r="E138" s="15"/>
       <c r="F138" s="15"/>
     </row>
-    <row r="139" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="C139" s="14"/>
       <c r="E139" s="15"/>
       <c r="F139" s="15"/>
     </row>
-    <row r="140" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="C140" s="14"/>
       <c r="E140" s="15"/>
       <c r="F140" s="15"/>
     </row>
-    <row r="141" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="C141" s="14"/>
       <c r="E141" s="15"/>
       <c r="F141" s="15"/>
     </row>
-    <row r="142" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="C142" s="14"/>
       <c r="E142" s="15"/>
       <c r="F142" s="15"/>
     </row>
-    <row r="143" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="C143" s="14"/>
       <c r="E143" s="15"/>
       <c r="F143" s="15"/>
     </row>
-    <row r="144" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="C144" s="14"/>
       <c r="E144" s="15"/>
       <c r="F144" s="15"/>
     </row>
-    <row r="145" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="C145" s="14"/>
       <c r="E145" s="15"/>
       <c r="F145" s="15"/>
     </row>
-    <row r="146" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="C146" s="14"/>
       <c r="E146" s="15"/>
       <c r="F146" s="15"/>
     </row>
-    <row r="147" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="C147" s="14"/>
       <c r="E147" s="15"/>
       <c r="F147" s="15"/>
     </row>
-    <row r="148" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="C148" s="14"/>
       <c r="E148" s="15"/>
       <c r="F148" s="15"/>
     </row>
-    <row r="149" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
       <c r="C149" s="14"/>
       <c r="E149" s="15"/>
       <c r="F149" s="15"/>
     </row>
-    <row r="150" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="C150" s="14"/>
       <c r="E150" s="15"/>
       <c r="F150" s="15"/>
     </row>
-    <row r="151" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="C151" s="14"/>
       <c r="E151" s="15"/>
       <c r="F151" s="15"/>
     </row>
-    <row r="152" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="C152" s="14"/>
       <c r="E152" s="15"/>
       <c r="F152" s="15"/>
     </row>
-    <row r="153" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="C153" s="14"/>
       <c r="E153" s="15"/>
       <c r="F153" s="15"/>
     </row>
-    <row r="154" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
       <c r="C154" s="14"/>
       <c r="E154" s="15"/>
       <c r="F154" s="15"/>
     </row>
-    <row r="155" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="C155" s="14"/>
       <c r="E155" s="15"/>
       <c r="F155" s="15"/>
     </row>
-    <row r="156" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
       <c r="C156" s="14"/>
       <c r="E156" s="15"/>
       <c r="F156" s="15"/>
     </row>
-    <row r="157" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
       <c r="C157" s="14"/>
       <c r="E157" s="15"/>
       <c r="F157" s="15"/>
     </row>
-    <row r="158" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="C158" s="14"/>
       <c r="E158" s="15"/>
       <c r="F158" s="15"/>
     </row>
-    <row r="159" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="C159" s="14"/>
       <c r="E159" s="15"/>
       <c r="F159" s="15"/>
     </row>
-    <row r="160" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
       <c r="C160" s="14"/>
       <c r="E160" s="15"/>
       <c r="F160" s="15"/>
     </row>
-    <row r="161" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="C161" s="14"/>
       <c r="E161" s="15"/>
       <c r="F161" s="15"/>
     </row>
-    <row r="162" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="C162" s="14"/>
       <c r="E162" s="15"/>
       <c r="F162" s="15"/>
     </row>
-    <row r="163" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="C163" s="14"/>
       <c r="E163" s="15"/>
       <c r="F163" s="15"/>
     </row>
-    <row r="164" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="C164" s="14"/>
       <c r="E164" s="15"/>
       <c r="F164" s="15"/>
     </row>
-    <row r="165" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
       <c r="C165" s="14"/>
       <c r="E165" s="15"/>
       <c r="F165" s="15"/>
     </row>
-    <row r="166" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
       <c r="C166" s="14"/>
       <c r="E166" s="15"/>
       <c r="F166" s="15"/>
     </row>
-    <row r="167" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
       <c r="C167" s="14"/>
       <c r="E167" s="15"/>
       <c r="F167" s="15"/>
     </row>
-    <row r="168" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
       <c r="C168" s="14"/>
       <c r="E168" s="15"/>
       <c r="F168" s="15"/>
     </row>
-    <row r="169" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
       <c r="C169" s="14"/>
       <c r="E169" s="15"/>
       <c r="F169" s="15"/>
     </row>
-    <row r="170" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
       <c r="C170" s="14"/>
       <c r="E170" s="15"/>
       <c r="F170" s="15"/>
     </row>
-    <row r="171" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
       <c r="C171" s="14"/>
       <c r="E171" s="15"/>
       <c r="F171" s="15"/>
     </row>
-    <row r="172" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
       <c r="C172" s="14"/>
       <c r="E172" s="15"/>
       <c r="F172" s="15"/>
     </row>
-    <row r="173" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
       <c r="C173" s="14"/>
       <c r="E173" s="15"/>
       <c r="F173" s="15"/>
     </row>
-    <row r="174" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1"/>
       <c r="C174" s="14"/>
       <c r="E174" s="15"/>
       <c r="F174" s="15"/>
     </row>
-    <row r="175" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
       <c r="C175" s="14"/>
       <c r="E175" s="15"/>
       <c r="F175" s="15"/>
     </row>
-    <row r="176" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1"/>
       <c r="C176" s="14"/>
       <c r="E176" s="15"/>
       <c r="F176" s="15"/>
     </row>
-    <row r="177" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1"/>
       <c r="C177" s="14"/>
       <c r="E177" s="15"/>
       <c r="F177" s="15"/>
     </row>
-    <row r="178" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1"/>
       <c r="C178" s="14"/>
       <c r="E178" s="15"/>
       <c r="F178" s="15"/>
     </row>
-    <row r="179" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1"/>
       <c r="C179" s="14"/>
       <c r="E179" s="15"/>
       <c r="F179" s="15"/>
     </row>
-    <row r="180" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
       <c r="C180" s="14"/>
       <c r="E180" s="15"/>
       <c r="F180" s="15"/>
     </row>
-    <row r="181" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
       <c r="C181" s="14"/>
       <c r="E181" s="15"/>
       <c r="F181" s="15"/>
     </row>
-    <row r="182" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
       <c r="C182" s="14"/>
       <c r="E182" s="15"/>
       <c r="F182" s="15"/>
     </row>
-    <row r="183" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
       <c r="C183" s="14"/>
       <c r="E183" s="15"/>
       <c r="F183" s="15"/>
     </row>
-    <row r="184" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1"/>
       <c r="C184" s="14"/>
       <c r="E184" s="15"/>
       <c r="F184" s="15"/>
     </row>
-    <row r="185" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
       <c r="C185" s="14"/>
       <c r="E185" s="15"/>
       <c r="F185" s="15"/>
     </row>
-    <row r="186" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
       <c r="C186" s="14"/>
       <c r="E186" s="15"/>
       <c r="F186" s="15"/>
     </row>
-    <row r="187" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
       <c r="C187" s="14"/>
       <c r="E187" s="15"/>
       <c r="F187" s="15"/>
     </row>
-    <row r="188" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1"/>
       <c r="C188" s="14"/>
       <c r="E188" s="15"/>
       <c r="F188" s="15"/>
     </row>
-    <row r="189" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="C189" s="14"/>
       <c r="E189" s="15"/>
       <c r="F189" s="15"/>
     </row>
-    <row r="190" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="C190" s="14"/>
       <c r="E190" s="15"/>
       <c r="F190" s="15"/>
     </row>
-    <row r="191" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="C191" s="14"/>
       <c r="E191" s="15"/>
       <c r="F191" s="15"/>
     </row>
-    <row r="192" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
       <c r="C192" s="14"/>
       <c r="E192" s="15"/>
       <c r="F192" s="15"/>
     </row>
-    <row r="193" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
       <c r="C193" s="14"/>
       <c r="E193" s="15"/>
       <c r="F193" s="15"/>
     </row>
-    <row r="194" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
       <c r="C194" s="14"/>
       <c r="E194" s="15"/>
       <c r="F194" s="15"/>
     </row>
-    <row r="195" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
       <c r="C195" s="14"/>
       <c r="E195" s="15"/>
       <c r="F195" s="15"/>
     </row>
-    <row r="196" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
       <c r="C196" s="14"/>
       <c r="E196" s="15"/>
       <c r="F196" s="15"/>
     </row>
-    <row r="197" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
       <c r="C197" s="14"/>
       <c r="E197" s="15"/>
       <c r="F197" s="15"/>
     </row>
-    <row r="198" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1"/>
       <c r="C198" s="14"/>
       <c r="E198" s="15"/>
       <c r="F198" s="15"/>
     </row>
-    <row r="199" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
       <c r="C199" s="14"/>
       <c r="E199" s="15"/>
       <c r="F199" s="15"/>
     </row>
-    <row r="200" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
       <c r="C200" s="14"/>
       <c r="E200" s="15"/>
       <c r="F200" s="15"/>
     </row>
-    <row r="201" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
       <c r="C201" s="14"/>
       <c r="E201" s="15"/>
       <c r="F201" s="15"/>
     </row>
-    <row r="202" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1"/>
       <c r="C202" s="14"/>
       <c r="E202" s="15"/>
       <c r="F202" s="15"/>
     </row>
-    <row r="203" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
       <c r="C203" s="14"/>
       <c r="E203" s="15"/>
       <c r="F203" s="15"/>
     </row>
-    <row r="204" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
       <c r="C204" s="14"/>
       <c r="E204" s="15"/>
       <c r="F204" s="15"/>
     </row>
-    <row r="205" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
       <c r="C205" s="14"/>
       <c r="E205" s="15"/>
       <c r="F205" s="15"/>
     </row>
-    <row r="206" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1"/>
       <c r="C206" s="14"/>
       <c r="E206" s="15"/>
       <c r="F206" s="15"/>
     </row>
-    <row r="207" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
       <c r="C207" s="14"/>
       <c r="E207" s="15"/>
       <c r="F207" s="15"/>
     </row>
-    <row r="208" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1"/>
       <c r="C208" s="14"/>
       <c r="E208" s="15"/>
       <c r="F208" s="15"/>
     </row>
-    <row r="209" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
       <c r="C209" s="14"/>
       <c r="E209" s="15"/>
       <c r="F209" s="15"/>
     </row>
-    <row r="210" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1"/>
       <c r="C210" s="14"/>
       <c r="E210" s="15"/>
       <c r="F210" s="15"/>
     </row>
-    <row r="211" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1"/>
       <c r="C211" s="14"/>
       <c r="E211" s="15"/>
       <c r="F211" s="15"/>
     </row>
-    <row r="212" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1"/>
       <c r="C212" s="14"/>
       <c r="E212" s="15"/>
       <c r="F212" s="15"/>
     </row>
-    <row r="213" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1"/>
       <c r="C213" s="14"/>
       <c r="E213" s="15"/>
       <c r="F213" s="15"/>
     </row>
-    <row r="214" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1"/>
       <c r="C214" s="14"/>
       <c r="E214" s="15"/>
       <c r="F214" s="15"/>
     </row>
-    <row r="215" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1"/>
       <c r="C215" s="14"/>
       <c r="E215" s="15"/>
       <c r="F215" s="15"/>
     </row>
-    <row r="216" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1"/>
       <c r="C216" s="14"/>
       <c r="E216" s="15"/>
       <c r="F216" s="15"/>
     </row>
-    <row r="217" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="C217" s="14"/>
       <c r="E217" s="15"/>
       <c r="F217" s="15"/>
     </row>
-    <row r="218" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="C218" s="14"/>
       <c r="E218" s="15"/>
       <c r="F218" s="15"/>
     </row>
-    <row r="219" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1"/>
       <c r="C219" s="14"/>
       <c r="E219" s="15"/>
       <c r="F219" s="15"/>
     </row>
-    <row r="220" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1"/>
       <c r="C220" s="14"/>
       <c r="E220" s="15"/>
       <c r="F220" s="15"/>
     </row>
-    <row r="221" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1"/>
       <c r="C221" s="14"/>
       <c r="E221" s="15"/>
       <c r="F221" s="15"/>
     </row>
-    <row r="222" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1"/>
       <c r="C222" s="14"/>
       <c r="E222" s="15"/>
       <c r="F222" s="15"/>
     </row>
-    <row r="223" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1"/>
       <c r="C223" s="14"/>
       <c r="E223" s="15"/>
       <c r="F223" s="15"/>
     </row>
-    <row r="224" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1"/>
       <c r="C224" s="14"/>
       <c r="E224" s="15"/>
       <c r="F224" s="15"/>
     </row>
-    <row r="225" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1"/>
       <c r="C225" s="14"/>
       <c r="E225" s="15"/>
       <c r="F225" s="15"/>
     </row>
-    <row r="226" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1"/>
       <c r="C226" s="14"/>
       <c r="E226" s="15"/>
       <c r="F226" s="15"/>
     </row>
-    <row r="227" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1"/>
       <c r="C227" s="14"/>
       <c r="E227" s="15"/>
       <c r="F227" s="15"/>
     </row>
-    <row r="228" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1"/>
       <c r="C228" s="14"/>
       <c r="E228" s="15"/>
       <c r="F228" s="15"/>
     </row>
-    <row r="229" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1"/>
       <c r="C229" s="14"/>
       <c r="E229" s="15"/>
       <c r="F229" s="15"/>
     </row>
-    <row r="230" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1"/>
       <c r="C230" s="14"/>
       <c r="E230" s="15"/>
       <c r="F230" s="15"/>
     </row>
-    <row r="231" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1"/>
       <c r="C231" s="14"/>
       <c r="E231" s="15"/>
       <c r="F231" s="15"/>
     </row>
-    <row r="232" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1"/>
       <c r="C232" s="14"/>
       <c r="E232" s="15"/>
       <c r="F232" s="15"/>
     </row>
-    <row r="233" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1"/>
       <c r="C233" s="14"/>
       <c r="E233" s="15"/>
       <c r="F233" s="15"/>
     </row>
-    <row r="234" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1"/>
       <c r="C234" s="14"/>
       <c r="E234" s="15"/>
       <c r="F234" s="15"/>
     </row>
-    <row r="235" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
       <c r="C235" s="14"/>
       <c r="E235" s="15"/>
       <c r="F235" s="15"/>
     </row>
-    <row r="236" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
       <c r="C236" s="14"/>
       <c r="E236" s="15"/>
       <c r="F236" s="15"/>
     </row>
-    <row r="237" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1"/>
       <c r="C237" s="14"/>
       <c r="E237" s="15"/>
       <c r="F237" s="15"/>
     </row>
-    <row r="238" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1"/>
       <c r="C238" s="14"/>
       <c r="E238" s="15"/>
       <c r="F238" s="15"/>
     </row>
-    <row r="239" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1"/>
       <c r="C239" s="14"/>
       <c r="E239" s="15"/>
       <c r="F239" s="15"/>
     </row>
-    <row r="240" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1"/>
       <c r="C240" s="14"/>
       <c r="E240" s="15"/>
       <c r="F240" s="15"/>
     </row>
-    <row r="241" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1"/>
       <c r="C241" s="14"/>
       <c r="E241" s="15"/>
       <c r="F241" s="15"/>
     </row>
-    <row r="242" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1"/>
       <c r="C242" s="14"/>
       <c r="E242" s="15"/>
       <c r="F242" s="15"/>
     </row>
-    <row r="243" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1"/>
       <c r="C243" s="14"/>
       <c r="E243" s="15"/>
       <c r="F243" s="15"/>
     </row>
-    <row r="244" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1"/>
       <c r="C244" s="14"/>
       <c r="E244" s="15"/>
       <c r="F244" s="15"/>
     </row>
-    <row r="245" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1"/>
       <c r="C245" s="14"/>
       <c r="E245" s="15"/>
       <c r="F245" s="15"/>
     </row>
-    <row r="246" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1"/>
       <c r="C246" s="14"/>
       <c r="E246" s="15"/>
       <c r="F246" s="15"/>
     </row>
-    <row r="247" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1"/>
       <c r="C247" s="14"/>
       <c r="E247" s="15"/>
       <c r="F247" s="15"/>
     </row>
-    <row r="248" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1"/>
       <c r="C248" s="14"/>
       <c r="E248" s="15"/>
       <c r="F248" s="15"/>
     </row>
-    <row r="249" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1"/>
       <c r="C249" s="14"/>
       <c r="E249" s="15"/>
       <c r="F249" s="15"/>
     </row>
-    <row r="250" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1"/>
       <c r="C250" s="14"/>
       <c r="E250" s="15"/>
       <c r="F250" s="15"/>
     </row>
-    <row r="251" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1"/>
       <c r="C251" s="14"/>
       <c r="E251" s="15"/>
       <c r="F251" s="15"/>
     </row>
-    <row r="252" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1"/>
       <c r="C252" s="14"/>
       <c r="E252" s="15"/>
       <c r="F252" s="15"/>
     </row>
-    <row r="253" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1"/>
       <c r="C253" s="14"/>
       <c r="E253" s="15"/>
       <c r="F253" s="15"/>
     </row>
-    <row r="254" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1"/>
       <c r="C254" s="14"/>
       <c r="E254" s="15"/>
       <c r="F254" s="15"/>
     </row>
-    <row r="255" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1"/>
       <c r="C255" s="14"/>
       <c r="E255" s="15"/>
       <c r="F255" s="15"/>
     </row>
-    <row r="256" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1"/>
       <c r="C256" s="14"/>
       <c r="E256" s="15"/>
       <c r="F256" s="15"/>
     </row>
-    <row r="257" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1"/>
       <c r="C257" s="14"/>
       <c r="E257" s="15"/>
       <c r="F257" s="15"/>
     </row>
-    <row r="258" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1"/>
       <c r="C258" s="14"/>
       <c r="E258" s="15"/>
       <c r="F258" s="15"/>
     </row>
-    <row r="259" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1"/>
       <c r="C259" s="14"/>
       <c r="E259" s="15"/>
       <c r="F259" s="15"/>
     </row>
-    <row r="260" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1"/>
       <c r="C260" s="14"/>
       <c r="E260" s="15"/>
       <c r="F260" s="15"/>
     </row>
-    <row r="261" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1"/>
       <c r="C261" s="14"/>
       <c r="E261" s="15"/>
       <c r="F261" s="15"/>
     </row>
-    <row r="262" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1"/>
       <c r="C262" s="14"/>
       <c r="E262" s="15"/>
       <c r="F262" s="15"/>
     </row>
-    <row r="263" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1"/>
       <c r="C263" s="14"/>
       <c r="E263" s="15"/>
       <c r="F263" s="15"/>
     </row>
-    <row r="264" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1"/>
       <c r="C264" s="14"/>
       <c r="E264" s="15"/>
       <c r="F264" s="15"/>
     </row>
-    <row r="265" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1"/>
       <c r="C265" s="14"/>
       <c r="E265" s="15"/>
       <c r="F265" s="15"/>
     </row>
-    <row r="266" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1"/>
       <c r="C266" s="14"/>
       <c r="E266" s="15"/>
       <c r="F266" s="15"/>
     </row>
-    <row r="267" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1"/>
       <c r="C267" s="14"/>
       <c r="E267" s="15"/>
       <c r="F267" s="15"/>
     </row>
-    <row r="268" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1"/>
       <c r="C268" s="14"/>
       <c r="E268" s="15"/>
       <c r="F268" s="15"/>
     </row>
-    <row r="269" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1"/>
       <c r="C269" s="14"/>
       <c r="E269" s="15"/>
       <c r="F269" s="15"/>
     </row>
-    <row r="270" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1"/>
       <c r="C270" s="14"/>
       <c r="E270" s="15"/>
       <c r="F270" s="15"/>
     </row>
-    <row r="271" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1"/>
       <c r="C271" s="14"/>
       <c r="E271" s="15"/>
       <c r="F271" s="15"/>
     </row>
-    <row r="272" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1"/>
       <c r="C272" s="14"/>
       <c r="E272" s="15"/>
       <c r="F272" s="15"/>
     </row>
-    <row r="273" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1"/>
       <c r="C273" s="14"/>
       <c r="E273" s="15"/>
       <c r="F273" s="15"/>
     </row>
-    <row r="274" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1"/>
       <c r="C274" s="14"/>
       <c r="E274" s="15"/>
       <c r="F274" s="15"/>
     </row>
-    <row r="275" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1"/>
       <c r="C275" s="14"/>
       <c r="E275" s="15"/>
       <c r="F275" s="15"/>
     </row>
-    <row r="276" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1"/>
       <c r="C276" s="14"/>
       <c r="E276" s="15"/>
       <c r="F276" s="15"/>
     </row>
-    <row r="277" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1"/>
       <c r="C277" s="14"/>
       <c r="E277" s="15"/>
       <c r="F277" s="15"/>
     </row>
-    <row r="278" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1"/>
       <c r="C278" s="14"/>
       <c r="E278" s="15"/>
       <c r="F278" s="15"/>
     </row>
-    <row r="279" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1"/>
       <c r="C279" s="14"/>
       <c r="E279" s="15"/>
       <c r="F279" s="15"/>
     </row>
-    <row r="280" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1"/>
       <c r="C280" s="14"/>
       <c r="E280" s="15"/>
       <c r="F280" s="15"/>
     </row>
-    <row r="281" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1"/>
       <c r="C281" s="14"/>
       <c r="E281" s="15"/>
       <c r="F281" s="15"/>
     </row>
-    <row r="282" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1"/>
       <c r="C282" s="14"/>
       <c r="E282" s="15"/>
       <c r="F282" s="15"/>
     </row>
-    <row r="283" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1"/>
       <c r="C283" s="14"/>
       <c r="E283" s="15"/>
       <c r="F283" s="15"/>
     </row>
-    <row r="284" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1"/>
       <c r="C284" s="14"/>
       <c r="E284" s="15"/>
       <c r="F284" s="15"/>
     </row>
-    <row r="285" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1"/>
       <c r="C285" s="14"/>
       <c r="E285" s="15"/>
       <c r="F285" s="15"/>
     </row>
-    <row r="286" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1"/>
       <c r="C286" s="14"/>
       <c r="E286" s="15"/>
       <c r="F286" s="15"/>
     </row>
-    <row r="287" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1"/>
       <c r="C287" s="14"/>
       <c r="E287" s="15"/>
       <c r="F287" s="15"/>
     </row>
-    <row r="288" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1"/>
       <c r="C288" s="14"/>
       <c r="E288" s="15"/>
       <c r="F288" s="15"/>
     </row>
-    <row r="289" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1"/>
       <c r="C289" s="14"/>
       <c r="E289" s="15"/>
       <c r="F289" s="15"/>
     </row>
-    <row r="290" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1"/>
       <c r="C290" s="14"/>
       <c r="E290" s="15"/>
       <c r="F290" s="15"/>
     </row>
-    <row r="291" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1"/>
       <c r="C291" s="14"/>
       <c r="E291" s="15"/>
       <c r="F291" s="15"/>
     </row>
-    <row r="292" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1"/>
       <c r="C292" s="14"/>
       <c r="E292" s="15"/>
       <c r="F292" s="15"/>
     </row>
-    <row r="293" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1"/>
       <c r="C293" s="14"/>
       <c r="E293" s="15"/>
       <c r="F293" s="15"/>
     </row>
-    <row r="294" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1"/>
       <c r="C294" s="14"/>
       <c r="E294" s="15"/>
       <c r="F294" s="15"/>
     </row>
-    <row r="295" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1"/>
       <c r="C295" s="14"/>
       <c r="E295" s="15"/>
       <c r="F295" s="15"/>
     </row>
-    <row r="296" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1"/>
       <c r="C296" s="14"/>
       <c r="E296" s="15"/>
       <c r="F296" s="15"/>
     </row>
-    <row r="297" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1"/>
       <c r="C297" s="14"/>
       <c r="E297" s="15"/>
       <c r="F297" s="15"/>
     </row>
-    <row r="298" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1"/>
       <c r="C298" s="14"/>
       <c r="E298" s="15"/>
       <c r="F298" s="15"/>
     </row>
-    <row r="299" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
       <c r="C299" s="14"/>
       <c r="E299" s="15"/>
       <c r="F299" s="15"/>
     </row>
-    <row r="300" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1"/>
       <c r="C300" s="14"/>
       <c r="E300" s="15"/>
       <c r="F300" s="15"/>
     </row>
-    <row r="301" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1"/>
       <c r="C301" s="14"/>
       <c r="E301" s="15"/>
       <c r="F301" s="15"/>
     </row>
-    <row r="302" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1"/>
       <c r="C302" s="14"/>
       <c r="E302" s="15"/>
       <c r="F302" s="15"/>
     </row>
-    <row r="303" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1"/>
       <c r="C303" s="14"/>
       <c r="E303" s="15"/>
       <c r="F303" s="15"/>
     </row>
-    <row r="304" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1"/>
       <c r="C304" s="14"/>
       <c r="E304" s="15"/>
       <c r="F304" s="15"/>
     </row>
-    <row r="305" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1"/>
       <c r="C305" s="14"/>
       <c r="E305" s="15"/>
       <c r="F305" s="15"/>
     </row>
-    <row r="306" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1"/>
       <c r="C306" s="14"/>
       <c r="E306" s="15"/>
       <c r="F306" s="15"/>
     </row>
-    <row r="307" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1"/>
       <c r="C307" s="14"/>
       <c r="E307" s="15"/>
       <c r="F307" s="15"/>
     </row>
-    <row r="308" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1"/>
       <c r="C308" s="14"/>
       <c r="E308" s="15"/>
       <c r="F308" s="15"/>
     </row>
-    <row r="309" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1"/>
       <c r="C309" s="14"/>
       <c r="E309" s="15"/>
       <c r="F309" s="15"/>
     </row>
-    <row r="310" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1"/>
       <c r="C310" s="14"/>
       <c r="E310" s="15"/>
       <c r="F310" s="15"/>
     </row>
-    <row r="311" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1"/>
       <c r="C311" s="14"/>
       <c r="E311" s="15"/>
       <c r="F311" s="15"/>
     </row>
-    <row r="312" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1"/>
       <c r="C312" s="14"/>
       <c r="E312" s="15"/>
       <c r="F312" s="15"/>
     </row>
-    <row r="313" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1"/>
       <c r="C313" s="14"/>
       <c r="E313" s="15"/>
       <c r="F313" s="15"/>
     </row>
-    <row r="314" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1"/>
       <c r="C314" s="14"/>
       <c r="E314" s="15"/>
       <c r="F314" s="15"/>
     </row>
-    <row r="315" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1"/>
       <c r="C315" s="14"/>
       <c r="E315" s="15"/>
       <c r="F315" s="15"/>
     </row>
-    <row r="316" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1"/>
       <c r="C316" s="14"/>
       <c r="E316" s="15"/>
       <c r="F316" s="15"/>
     </row>
-    <row r="317" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1"/>
       <c r="C317" s="14"/>
       <c r="E317" s="15"/>
       <c r="F317" s="15"/>
     </row>
-    <row r="318" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1"/>
       <c r="C318" s="14"/>
       <c r="E318" s="15"/>
       <c r="F318" s="15"/>
     </row>
-    <row r="319" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1"/>
       <c r="C319" s="14"/>
       <c r="E319" s="15"/>
       <c r="F319" s="15"/>
     </row>
-    <row r="320" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1"/>
       <c r="C320" s="14"/>
       <c r="E320" s="15"/>
       <c r="F320" s="15"/>
     </row>
-    <row r="321" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1"/>
       <c r="C321" s="14"/>
       <c r="E321" s="15"/>
       <c r="F321" s="15"/>
     </row>
-    <row r="322" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1"/>
       <c r="C322" s="14"/>
       <c r="E322" s="15"/>
       <c r="F322" s="15"/>
     </row>
-    <row r="323" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1"/>
       <c r="C323" s="14"/>
       <c r="E323" s="15"/>
       <c r="F323" s="15"/>
     </row>
-    <row r="324" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1"/>
       <c r="C324" s="14"/>
       <c r="E324" s="15"/>
       <c r="F324" s="15"/>
     </row>
-    <row r="325" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1"/>
       <c r="C325" s="14"/>
       <c r="E325" s="15"/>
       <c r="F325" s="15"/>
     </row>
-    <row r="326" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1"/>
       <c r="C326" s="14"/>
       <c r="E326" s="15"/>
       <c r="F326" s="15"/>
     </row>
-    <row r="327" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1"/>
       <c r="C327" s="14"/>
       <c r="E327" s="15"/>
       <c r="F327" s="15"/>
     </row>
-    <row r="328" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1"/>
       <c r="C328" s="14"/>
       <c r="E328" s="15"/>
       <c r="F328" s="15"/>
     </row>
-    <row r="329" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1"/>
       <c r="C329" s="14"/>
       <c r="E329" s="15"/>
       <c r="F329" s="15"/>
     </row>
-    <row r="330" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1"/>
       <c r="C330" s="14"/>
       <c r="E330" s="15"/>
       <c r="F330" s="15"/>
     </row>
-    <row r="331" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1"/>
       <c r="C331" s="14"/>
       <c r="E331" s="15"/>
       <c r="F331" s="15"/>
     </row>
-    <row r="332" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1"/>
       <c r="C332" s="14"/>
       <c r="E332" s="15"/>
       <c r="F332" s="15"/>
     </row>
-    <row r="333" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1"/>
       <c r="C333" s="14"/>
       <c r="E333" s="15"/>
       <c r="F333" s="15"/>
     </row>
-    <row r="334" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1"/>
       <c r="C334" s="14"/>
       <c r="E334" s="15"/>
       <c r="F334" s="15"/>
     </row>
-    <row r="335" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1"/>
       <c r="C335" s="14"/>
       <c r="E335" s="15"/>
       <c r="F335" s="15"/>
     </row>
-    <row r="336" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1"/>
       <c r="C336" s="14"/>
       <c r="E336" s="15"/>
       <c r="F336" s="15"/>
     </row>
-    <row r="337" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1"/>
       <c r="C337" s="14"/>
       <c r="E337" s="15"/>
       <c r="F337" s="15"/>
     </row>
-    <row r="338" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1"/>
       <c r="C338" s="14"/>
       <c r="E338" s="15"/>
       <c r="F338" s="15"/>
     </row>
-    <row r="339" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1"/>
       <c r="C339" s="14"/>
       <c r="E339" s="15"/>
       <c r="F339" s="15"/>
     </row>
-    <row r="340" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1"/>
       <c r="C340" s="14"/>
       <c r="E340" s="15"/>
       <c r="F340" s="15"/>
     </row>
-    <row r="341" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1"/>
       <c r="C341" s="14"/>
       <c r="E341" s="15"/>
       <c r="F341" s="15"/>
     </row>
-    <row r="342" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1"/>
       <c r="C342" s="14"/>
       <c r="E342" s="15"/>
       <c r="F342" s="15"/>
     </row>
-    <row r="343" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1"/>
       <c r="C343" s="14"/>
       <c r="E343" s="15"/>
       <c r="F343" s="15"/>
     </row>
-    <row r="344" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1"/>
       <c r="C344" s="14"/>
       <c r="E344" s="15"/>
       <c r="F344" s="15"/>
     </row>
-    <row r="345" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1"/>
       <c r="C345" s="14"/>
       <c r="E345" s="15"/>
       <c r="F345" s="15"/>
     </row>
-    <row r="346" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1"/>
       <c r="C346" s="14"/>
       <c r="E346" s="15"/>
       <c r="F346" s="15"/>
     </row>
-    <row r="347" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1"/>
       <c r="C347" s="14"/>
       <c r="E347" s="15"/>
       <c r="F347" s="15"/>
     </row>
-    <row r="348" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1"/>
       <c r="C348" s="14"/>
       <c r="E348" s="15"/>
       <c r="F348" s="15"/>
     </row>
-    <row r="349" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1"/>
       <c r="C349" s="14"/>
       <c r="E349" s="15"/>
       <c r="F349" s="15"/>
     </row>
-    <row r="350" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1"/>
       <c r="C350" s="14"/>
       <c r="E350" s="15"/>
       <c r="F350" s="15"/>
     </row>
-    <row r="351" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1"/>
       <c r="C351" s="14"/>
       <c r="E351" s="15"/>
       <c r="F351" s="15"/>
     </row>
-    <row r="352" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1"/>
       <c r="C352" s="14"/>
       <c r="E352" s="15"/>
       <c r="F352" s="15"/>
     </row>
-    <row r="353" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1"/>
       <c r="C353" s="14"/>
       <c r="E353" s="15"/>
       <c r="F353" s="15"/>
     </row>
-    <row r="354" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1"/>
       <c r="C354" s="14"/>
       <c r="E354" s="15"/>
       <c r="F354" s="15"/>
     </row>
-    <row r="355" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1"/>
       <c r="C355" s="14"/>
       <c r="E355" s="15"/>
       <c r="F355" s="15"/>
     </row>
-    <row r="356" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1"/>
       <c r="C356" s="14"/>
       <c r="E356" s="15"/>
       <c r="F356" s="15"/>
     </row>
-    <row r="357" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1"/>
       <c r="C357" s="14"/>
       <c r="E357" s="15"/>
       <c r="F357" s="15"/>
     </row>
-    <row r="358" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1"/>
       <c r="C358" s="14"/>
       <c r="E358" s="15"/>
       <c r="F358" s="15"/>
     </row>
-    <row r="359" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1"/>
       <c r="C359" s="14"/>
       <c r="E359" s="15"/>
       <c r="F359" s="15"/>
     </row>
-    <row r="360" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1"/>
       <c r="C360" s="14"/>
       <c r="E360" s="15"/>
       <c r="F360" s="15"/>
     </row>
-    <row r="361" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1"/>
       <c r="C361" s="14"/>
       <c r="E361" s="15"/>
       <c r="F361" s="15"/>
     </row>
-    <row r="362" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1"/>
       <c r="C362" s="14"/>
       <c r="E362" s="15"/>
       <c r="F362" s="15"/>
     </row>
-    <row r="363" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1"/>
       <c r="C363" s="14"/>
       <c r="E363" s="15"/>
       <c r="F363" s="15"/>
     </row>
-    <row r="364" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1"/>
       <c r="C364" s="14"/>
       <c r="E364" s="15"/>
       <c r="F364" s="15"/>
     </row>
-    <row r="365" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1"/>
       <c r="C365" s="14"/>
       <c r="E365" s="15"/>
       <c r="F365" s="15"/>
     </row>
-    <row r="366" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1"/>
       <c r="C366" s="14"/>
       <c r="E366" s="15"/>
       <c r="F366" s="15"/>
     </row>
-    <row r="367" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1"/>
       <c r="C367" s="14"/>
       <c r="E367" s="15"/>
       <c r="F367" s="15"/>
     </row>
-    <row r="368" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1"/>
       <c r="C368" s="14"/>
       <c r="E368" s="15"/>
       <c r="F368" s="15"/>
     </row>
-    <row r="369" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1"/>
       <c r="C369" s="14"/>
       <c r="E369" s="15"/>
       <c r="F369" s="15"/>
     </row>
-    <row r="370" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1"/>
       <c r="C370" s="14"/>
       <c r="E370" s="15"/>
       <c r="F370" s="15"/>
     </row>
-    <row r="371" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1"/>
       <c r="C371" s="14"/>
       <c r="E371" s="15"/>
       <c r="F371" s="15"/>
     </row>
-    <row r="372" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1"/>
       <c r="C372" s="14"/>
       <c r="E372" s="15"/>
       <c r="F372" s="15"/>
     </row>
-    <row r="373" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="1"/>
       <c r="C373" s="14"/>
       <c r="E373" s="15"/>
       <c r="F373" s="15"/>
     </row>
-    <row r="374" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1"/>
       <c r="C374" s="14"/>
       <c r="E374" s="15"/>
       <c r="F374" s="15"/>
     </row>
-    <row r="375" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="1"/>
       <c r="C375" s="14"/>
       <c r="E375" s="15"/>
       <c r="F375" s="15"/>
     </row>
-    <row r="376" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1"/>
       <c r="C376" s="14"/>
       <c r="E376" s="15"/>
       <c r="F376" s="15"/>
     </row>
-    <row r="377" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="1"/>
       <c r="C377" s="14"/>
       <c r="E377" s="15"/>
       <c r="F377" s="15"/>
     </row>
-    <row r="378" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1"/>
       <c r="C378" s="14"/>
       <c r="E378" s="15"/>
       <c r="F378" s="15"/>
     </row>
-    <row r="379" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1"/>
       <c r="C379" s="14"/>
       <c r="E379" s="15"/>
       <c r="F379" s="15"/>
     </row>
-    <row r="380" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="1"/>
       <c r="C380" s="14"/>
       <c r="E380" s="15"/>
       <c r="F380" s="15"/>
     </row>
-    <row r="381" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="1"/>
       <c r="C381" s="14"/>
       <c r="E381" s="15"/>
       <c r="F381" s="15"/>
     </row>
-    <row r="382" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1"/>
       <c r="C382" s="14"/>
       <c r="E382" s="15"/>
       <c r="F382" s="15"/>
     </row>
-    <row r="383" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1"/>
       <c r="C383" s="14"/>
       <c r="E383" s="15"/>
       <c r="F383" s="15"/>
     </row>
-    <row r="384" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1"/>
       <c r="C384" s="14"/>
       <c r="E384" s="15"/>
       <c r="F384" s="15"/>
     </row>
-    <row r="385" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="1"/>
       <c r="C385" s="14"/>
       <c r="E385" s="15"/>
       <c r="F385" s="15"/>
     </row>
-    <row r="386" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="1"/>
       <c r="C386" s="14"/>
       <c r="E386" s="15"/>
       <c r="F386" s="15"/>
     </row>
-    <row r="387" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="1"/>
       <c r="C387" s="14"/>
       <c r="E387" s="15"/>
       <c r="F387" s="15"/>
     </row>
-    <row r="388" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="1"/>
       <c r="C388" s="14"/>
       <c r="E388" s="15"/>
       <c r="F388" s="15"/>
     </row>
-    <row r="389" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="1"/>
       <c r="C389" s="14"/>
       <c r="E389" s="15"/>
       <c r="F389" s="15"/>
     </row>
-    <row r="390" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="1"/>
       <c r="C390" s="14"/>
       <c r="E390" s="15"/>
       <c r="F390" s="15"/>
     </row>
-    <row r="391" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="1"/>
       <c r="C391" s="14"/>
       <c r="E391" s="15"/>
       <c r="F391" s="15"/>
     </row>
-    <row r="392" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="1"/>
       <c r="C392" s="14"/>
       <c r="E392" s="15"/>
       <c r="F392" s="15"/>
     </row>
-    <row r="393" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="1"/>
       <c r="C393" s="14"/>
       <c r="E393" s="15"/>
       <c r="F393" s="15"/>
     </row>
-    <row r="394" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="1"/>
       <c r="C394" s="14"/>
       <c r="E394" s="15"/>
       <c r="F394" s="15"/>
     </row>
-    <row r="395" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="1"/>
       <c r="C395" s="14"/>
       <c r="E395" s="15"/>
       <c r="F395" s="15"/>
     </row>
-    <row r="396" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="1"/>
       <c r="C396" s="14"/>
       <c r="E396" s="15"/>
       <c r="F396" s="15"/>
     </row>
-    <row r="397" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="1"/>
       <c r="C397" s="14"/>
       <c r="E397" s="15"/>
       <c r="F397" s="15"/>
     </row>
-    <row r="398" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="1"/>
       <c r="C398" s="14"/>
       <c r="E398" s="15"/>
       <c r="F398" s="15"/>
     </row>
-    <row r="399" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="1"/>
       <c r="C399" s="14"/>
       <c r="E399" s="15"/>
       <c r="F399" s="15"/>
     </row>
-    <row r="400" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="1"/>
       <c r="C400" s="14"/>
       <c r="E400" s="15"/>
       <c r="F400" s="15"/>
     </row>
-    <row r="401" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="1"/>
       <c r="C401" s="14"/>
       <c r="E401" s="15"/>
       <c r="F401" s="15"/>
     </row>
-    <row r="402" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="1"/>
       <c r="C402" s="14"/>
       <c r="E402" s="15"/>
       <c r="F402" s="15"/>
     </row>
-    <row r="403" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="1"/>
       <c r="C403" s="14"/>
       <c r="E403" s="15"/>
       <c r="F403" s="15"/>
     </row>
-    <row r="404" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1"/>
       <c r="C404" s="14"/>
       <c r="E404" s="15"/>
       <c r="F404" s="15"/>
     </row>
-    <row r="405" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="1"/>
       <c r="C405" s="14"/>
       <c r="E405" s="15"/>
       <c r="F405" s="15"/>
     </row>
-    <row r="406" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="1"/>
       <c r="C406" s="14"/>
       <c r="E406" s="15"/>
       <c r="F406" s="15"/>
     </row>
-    <row r="407" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="1"/>
       <c r="C407" s="14"/>
       <c r="E407" s="15"/>
       <c r="F407" s="15"/>
     </row>
-    <row r="408" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="1"/>
       <c r="C408" s="14"/>
       <c r="E408" s="15"/>
       <c r="F408" s="15"/>
     </row>
-    <row r="409" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="1"/>
       <c r="C409" s="14"/>
       <c r="E409" s="15"/>
       <c r="F409" s="15"/>
     </row>
-    <row r="410" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="1"/>
       <c r="C410" s="14"/>
       <c r="E410" s="15"/>
       <c r="F410" s="15"/>
     </row>
-    <row r="411" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="1"/>
       <c r="C411" s="14"/>
       <c r="E411" s="15"/>
       <c r="F411" s="15"/>
     </row>
-    <row r="412" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="1"/>
       <c r="C412" s="14"/>
       <c r="E412" s="15"/>
       <c r="F412" s="15"/>
     </row>
-    <row r="413" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="1"/>
       <c r="C413" s="14"/>
       <c r="E413" s="15"/>
       <c r="F413" s="15"/>
     </row>
-    <row r="414" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="1"/>
       <c r="C414" s="14"/>
       <c r="E414" s="15"/>
       <c r="F414" s="15"/>
     </row>
-    <row r="415" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="1"/>
       <c r="C415" s="14"/>
       <c r="E415" s="15"/>
       <c r="F415" s="15"/>
     </row>
-    <row r="416" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="1"/>
       <c r="C416" s="14"/>
       <c r="E416" s="15"/>
       <c r="F416" s="15"/>
     </row>
-    <row r="417" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="1"/>
       <c r="C417" s="14"/>
       <c r="E417" s="15"/>
       <c r="F417" s="15"/>
     </row>
-    <row r="418" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="1"/>
       <c r="C418" s="14"/>
       <c r="E418" s="15"/>
       <c r="F418" s="15"/>
     </row>
-    <row r="419" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="1"/>
       <c r="C419" s="14"/>
       <c r="E419" s="15"/>
       <c r="F419" s="15"/>
     </row>
-    <row r="420" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="1"/>
       <c r="C420" s="14"/>
       <c r="E420" s="15"/>
       <c r="F420" s="15"/>
     </row>
-    <row r="421" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="1"/>
       <c r="C421" s="14"/>
       <c r="E421" s="15"/>
       <c r="F421" s="15"/>
     </row>
-    <row r="422" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="1"/>
       <c r="C422" s="14"/>
       <c r="E422" s="15"/>
       <c r="F422" s="15"/>
     </row>
-    <row r="423" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="1"/>
       <c r="C423" s="14"/>
       <c r="E423" s="15"/>
       <c r="F423" s="15"/>
     </row>
-    <row r="424" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="1"/>
       <c r="C424" s="14"/>
       <c r="E424" s="15"/>
       <c r="F424" s="15"/>
     </row>
-    <row r="425" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="1"/>
       <c r="C425" s="14"/>
       <c r="E425" s="15"/>
       <c r="F425" s="15"/>
     </row>
-    <row r="426" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="1"/>
       <c r="C426" s="14"/>
       <c r="E426" s="15"/>
       <c r="F426" s="15"/>
     </row>
-    <row r="427" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="1"/>
       <c r="C427" s="14"/>
       <c r="E427" s="15"/>
       <c r="F427" s="15"/>
     </row>
-    <row r="428" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="1"/>
       <c r="C428" s="14"/>
       <c r="E428" s="15"/>
       <c r="F428" s="15"/>
     </row>
-    <row r="429" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="1"/>
       <c r="C429" s="14"/>
       <c r="E429" s="15"/>
       <c r="F429" s="15"/>
     </row>
-    <row r="430" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="1"/>
       <c r="C430" s="14"/>
       <c r="E430" s="15"/>
       <c r="F430" s="15"/>
     </row>
-    <row r="431" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="1"/>
       <c r="C431" s="14"/>
       <c r="E431" s="15"/>
       <c r="F431" s="15"/>
     </row>
-    <row r="432" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="1"/>
       <c r="C432" s="14"/>
       <c r="E432" s="15"/>
       <c r="F432" s="15"/>
     </row>
-    <row r="433" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="1"/>
       <c r="C433" s="14"/>
       <c r="E433" s="15"/>
       <c r="F433" s="15"/>
     </row>
-    <row r="434" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="1"/>
       <c r="C434" s="14"/>
       <c r="E434" s="15"/>
       <c r="F434" s="15"/>
     </row>
-    <row r="435" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="1"/>
       <c r="C435" s="14"/>
       <c r="E435" s="15"/>
       <c r="F435" s="15"/>
     </row>
-    <row r="436" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="1"/>
       <c r="C436" s="14"/>
       <c r="E436" s="15"/>
       <c r="F436" s="15"/>
     </row>
-    <row r="437" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="1"/>
       <c r="C437" s="14"/>
       <c r="E437" s="15"/>
       <c r="F437" s="15"/>
     </row>
-    <row r="438" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="1"/>
       <c r="C438" s="14"/>
       <c r="E438" s="15"/>
       <c r="F438" s="15"/>
     </row>
-    <row r="439" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="1"/>
       <c r="C439" s="14"/>
       <c r="E439" s="15"/>
       <c r="F439" s="15"/>
     </row>
-    <row r="440" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="1"/>
       <c r="C440" s="14"/>
       <c r="E440" s="15"/>
       <c r="F440" s="15"/>
     </row>
-    <row r="441" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="1"/>
       <c r="C441" s="14"/>
       <c r="E441" s="15"/>
       <c r="F441" s="15"/>
     </row>
-    <row r="442" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="1"/>
       <c r="C442" s="14"/>
       <c r="E442" s="15"/>
       <c r="F442" s="15"/>
     </row>
-    <row r="443" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="1"/>
       <c r="C443" s="14"/>
       <c r="E443" s="15"/>
       <c r="F443" s="15"/>
     </row>
-    <row r="444" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="1"/>
       <c r="C444" s="14"/>
       <c r="E444" s="15"/>
       <c r="F444" s="15"/>
     </row>
-    <row r="445" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="1"/>
       <c r="C445" s="14"/>
       <c r="E445" s="15"/>
       <c r="F445" s="15"/>
     </row>
-    <row r="446" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="1"/>
       <c r="C446" s="14"/>
       <c r="E446" s="15"/>
       <c r="F446" s="15"/>
     </row>
-    <row r="447" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="1"/>
       <c r="C447" s="14"/>
       <c r="E447" s="15"/>
       <c r="F447" s="15"/>
     </row>
-    <row r="448" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="1"/>
       <c r="C448" s="14"/>
       <c r="E448" s="15"/>
       <c r="F448" s="15"/>
     </row>
-    <row r="449" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="1"/>
       <c r="C449" s="14"/>
       <c r="E449" s="15"/>
       <c r="F449" s="15"/>
     </row>
-    <row r="450" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="1"/>
       <c r="C450" s="14"/>
       <c r="E450" s="15"/>
       <c r="F450" s="15"/>
     </row>
-    <row r="451" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="1"/>
       <c r="C451" s="14"/>
       <c r="E451" s="15"/>
       <c r="F451" s="15"/>
     </row>
-    <row r="452" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="1"/>
       <c r="C452" s="14"/>
       <c r="E452" s="15"/>
       <c r="F452" s="15"/>
     </row>
-    <row r="453" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="1"/>
       <c r="C453" s="14"/>
       <c r="E453" s="15"/>
       <c r="F453" s="15"/>
     </row>
-    <row r="454" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="1"/>
       <c r="C454" s="14"/>
       <c r="E454" s="15"/>
       <c r="F454" s="15"/>
     </row>
-    <row r="455" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="1"/>
       <c r="C455" s="14"/>
       <c r="E455" s="15"/>
       <c r="F455" s="15"/>
     </row>
-    <row r="456" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="1"/>
       <c r="C456" s="14"/>
       <c r="E456" s="15"/>
       <c r="F456" s="15"/>
     </row>
-    <row r="457" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="1"/>
       <c r="C457" s="14"/>
       <c r="E457" s="15"/>
       <c r="F457" s="15"/>
     </row>
-    <row r="458" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="1"/>
       <c r="C458" s="14"/>
       <c r="E458" s="15"/>
       <c r="F458" s="15"/>
     </row>
-    <row r="459" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="1"/>
       <c r="C459" s="14"/>
       <c r="E459" s="15"/>
       <c r="F459" s="15"/>
     </row>
-    <row r="460" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="1"/>
       <c r="C460" s="14"/>
       <c r="E460" s="15"/>
       <c r="F460" s="15"/>
     </row>
-    <row r="461" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="1"/>
       <c r="C461" s="14"/>
       <c r="E461" s="15"/>
       <c r="F461" s="15"/>
     </row>
-    <row r="462" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="1"/>
       <c r="C462" s="14"/>
       <c r="E462" s="15"/>
       <c r="F462" s="15"/>
     </row>
-    <row r="463" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="1"/>
       <c r="C463" s="14"/>
       <c r="E463" s="15"/>
       <c r="F463" s="15"/>
     </row>
-    <row r="464" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="1"/>
       <c r="C464" s="14"/>
       <c r="E464" s="15"/>
       <c r="F464" s="15"/>
     </row>
-    <row r="465" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="1"/>
       <c r="C465" s="14"/>
       <c r="E465" s="15"/>
       <c r="F465" s="15"/>
     </row>
-    <row r="466" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="1"/>
       <c r="C466" s="14"/>
       <c r="E466" s="15"/>
       <c r="F466" s="15"/>
     </row>
-    <row r="467" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="1"/>
       <c r="C467" s="14"/>
       <c r="E467" s="15"/>
       <c r="F467" s="15"/>
     </row>
-    <row r="468" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="1"/>
       <c r="C468" s="14"/>
       <c r="E468" s="15"/>
       <c r="F468" s="15"/>
     </row>
-    <row r="469" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="1"/>
       <c r="C469" s="14"/>
       <c r="E469" s="15"/>
       <c r="F469" s="15"/>
     </row>
-    <row r="470" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="1"/>
       <c r="C470" s="14"/>
       <c r="E470" s="15"/>
       <c r="F470" s="15"/>
     </row>
-    <row r="471" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="1"/>
       <c r="C471" s="14"/>
       <c r="E471" s="15"/>
       <c r="F471" s="15"/>
     </row>
-    <row r="472" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="1"/>
       <c r="C472" s="14"/>
       <c r="E472" s="15"/>
       <c r="F472" s="15"/>
     </row>
-    <row r="473" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="1"/>
       <c r="C473" s="14"/>
       <c r="E473" s="15"/>
       <c r="F473" s="15"/>
     </row>
-    <row r="474" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="1"/>
       <c r="C474" s="14"/>
       <c r="E474" s="15"/>
       <c r="F474" s="15"/>
     </row>
-    <row r="475" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="1"/>
       <c r="C475" s="14"/>
       <c r="E475" s="15"/>
       <c r="F475" s="15"/>
     </row>
-    <row r="476" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="1"/>
       <c r="C476" s="14"/>
       <c r="E476" s="15"/>
       <c r="F476" s="15"/>
     </row>
-    <row r="477" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="1"/>
       <c r="C477" s="14"/>
       <c r="E477" s="15"/>
       <c r="F477" s="15"/>
     </row>
-    <row r="478" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="1"/>
       <c r="C478" s="14"/>
       <c r="E478" s="15"/>
       <c r="F478" s="15"/>
     </row>
-    <row r="479" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="1"/>
       <c r="C479" s="14"/>
       <c r="E479" s="15"/>
       <c r="F479" s="15"/>
     </row>
-    <row r="480" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="1"/>
       <c r="C480" s="14"/>
       <c r="E480" s="15"/>
       <c r="F480" s="15"/>
     </row>
-    <row r="481" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="1"/>
       <c r="C481" s="14"/>
       <c r="E481" s="15"/>
       <c r="F481" s="15"/>
     </row>
-    <row r="482" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="1"/>
       <c r="C482" s="14"/>
       <c r="E482" s="15"/>
       <c r="F482" s="15"/>
     </row>
-    <row r="483" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="1"/>
       <c r="C483" s="14"/>
       <c r="E483" s="15"/>
       <c r="F483" s="15"/>
     </row>
-    <row r="484" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="1"/>
       <c r="C484" s="14"/>
       <c r="E484" s="15"/>
       <c r="F484" s="15"/>
     </row>
-    <row r="485" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="1"/>
       <c r="C485" s="14"/>
       <c r="E485" s="15"/>
       <c r="F485" s="15"/>
     </row>
-    <row r="486" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="1"/>
       <c r="C486" s="14"/>
       <c r="E486" s="15"/>
       <c r="F486" s="15"/>
     </row>
-    <row r="487" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="1"/>
       <c r="C487" s="14"/>
       <c r="E487" s="15"/>
       <c r="F487" s="15"/>
     </row>
-    <row r="488" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="1"/>
       <c r="C488" s="14"/>
       <c r="E488" s="15"/>
       <c r="F488" s="15"/>
     </row>
-    <row r="489" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="1"/>
       <c r="C489" s="14"/>
       <c r="E489" s="15"/>
       <c r="F489" s="15"/>
     </row>
-    <row r="490" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="1"/>
       <c r="C490" s="14"/>
       <c r="E490" s="15"/>
       <c r="F490" s="15"/>
     </row>
-    <row r="491" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="1"/>
       <c r="C491" s="14"/>
       <c r="E491" s="15"/>
       <c r="F491" s="15"/>
     </row>
-    <row r="492" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="1"/>
       <c r="C492" s="14"/>
       <c r="E492" s="15"/>
       <c r="F492" s="15"/>
     </row>
-    <row r="493" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="1"/>
       <c r="C493" s="14"/>
       <c r="E493" s="15"/>
       <c r="F493" s="15"/>
     </row>
-    <row r="494" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="1"/>
       <c r="C494" s="14"/>
       <c r="E494" s="15"/>
       <c r="F494" s="15"/>
     </row>
-    <row r="495" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="1"/>
       <c r="C495" s="14"/>
       <c r="E495" s="15"/>
       <c r="F495" s="15"/>
     </row>
-    <row r="496" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="1"/>
       <c r="C496" s="14"/>
       <c r="E496" s="15"/>
       <c r="F496" s="15"/>
     </row>
-    <row r="497" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="1"/>
       <c r="C497" s="14"/>
       <c r="E497" s="15"/>
       <c r="F497" s="15"/>
     </row>
-    <row r="498" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="1"/>
       <c r="C498" s="14"/>
       <c r="E498" s="15"/>
       <c r="F498" s="15"/>
     </row>
-    <row r="499" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="1"/>
       <c r="C499" s="14"/>
       <c r="E499" s="15"/>
       <c r="F499" s="15"/>
     </row>
-    <row r="500" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="1"/>
       <c r="C500" s="14"/>
       <c r="E500" s="15"/>
       <c r="F500" s="15"/>
     </row>
-    <row r="501" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="1"/>
       <c r="C501" s="14"/>
       <c r="E501" s="15"/>
       <c r="F501" s="15"/>
     </row>
-    <row r="502" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="1"/>
       <c r="C502" s="14"/>
       <c r="E502" s="15"/>
       <c r="F502" s="15"/>
     </row>
-    <row r="503" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="1"/>
       <c r="C503" s="14"/>
       <c r="E503" s="15"/>
       <c r="F503" s="15"/>
     </row>
-    <row r="504" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="1"/>
       <c r="C504" s="14"/>
       <c r="E504" s="15"/>
       <c r="F504" s="15"/>
     </row>
-    <row r="505" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="1"/>
       <c r="C505" s="14"/>
       <c r="E505" s="15"/>
       <c r="F505" s="15"/>
     </row>
-    <row r="506" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="1"/>
       <c r="C506" s="14"/>
       <c r="E506" s="15"/>
       <c r="F506" s="15"/>
     </row>
-    <row r="507" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="1"/>
       <c r="C507" s="14"/>
       <c r="E507" s="15"/>
       <c r="F507" s="15"/>
     </row>
-    <row r="508" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="1"/>
       <c r="C508" s="14"/>
       <c r="E508" s="15"/>
       <c r="F508" s="15"/>
     </row>
-    <row r="509" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="1"/>
       <c r="C509" s="14"/>
       <c r="E509" s="15"/>
       <c r="F509" s="15"/>
     </row>
-    <row r="510" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="1"/>
       <c r="C510" s="14"/>
       <c r="E510" s="15"/>
       <c r="F510" s="15"/>
     </row>
-    <row r="511" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="1"/>
       <c r="C511" s="14"/>
       <c r="E511" s="15"/>
       <c r="F511" s="15"/>
     </row>
-    <row r="512" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="1"/>
       <c r="C512" s="14"/>
       <c r="E512" s="15"/>
       <c r="F512" s="15"/>
     </row>
-    <row r="513" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="1"/>
       <c r="C513" s="14"/>
       <c r="E513" s="15"/>
       <c r="F513" s="15"/>
     </row>
-    <row r="514" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="1"/>
       <c r="C514" s="14"/>
       <c r="E514" s="15"/>
       <c r="F514" s="15"/>
     </row>
-    <row r="515" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="1"/>
       <c r="C515" s="14"/>
       <c r="E515" s="15"/>
       <c r="F515" s="15"/>
     </row>
-    <row r="516" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="1"/>
       <c r="C516" s="14"/>
       <c r="E516" s="15"/>
       <c r="F516" s="15"/>
     </row>
-    <row r="517" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="1"/>
       <c r="C517" s="14"/>
       <c r="E517" s="15"/>
       <c r="F517" s="15"/>
     </row>
-    <row r="518" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="1"/>
       <c r="C518" s="14"/>
       <c r="E518" s="15"/>
       <c r="F518" s="15"/>
     </row>
-    <row r="519" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="1"/>
       <c r="C519" s="14"/>
       <c r="E519" s="15"/>
       <c r="F519" s="15"/>
     </row>
-    <row r="520" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="1"/>
       <c r="C520" s="14"/>
       <c r="E520" s="15"/>
       <c r="F520" s="15"/>
     </row>
-    <row r="521" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="1"/>
       <c r="C521" s="14"/>
       <c r="E521" s="15"/>
       <c r="F521" s="15"/>
     </row>
-    <row r="522" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="1"/>
       <c r="C522" s="14"/>
       <c r="E522" s="15"/>
       <c r="F522" s="15"/>
     </row>
-    <row r="523" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="1"/>
       <c r="C523" s="14"/>
       <c r="E523" s="15"/>
       <c r="F523" s="15"/>
     </row>
-    <row r="524" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="1"/>
       <c r="C524" s="14"/>
       <c r="E524" s="15"/>
       <c r="F524" s="15"/>
     </row>
-    <row r="525" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="1"/>
       <c r="C525" s="14"/>
       <c r="E525" s="15"/>
       <c r="F525" s="15"/>
     </row>
-    <row r="526" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="1"/>
       <c r="C526" s="14"/>
       <c r="E526" s="15"/>
       <c r="F526" s="15"/>
     </row>
-    <row r="527" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="1"/>
       <c r="C527" s="14"/>
       <c r="E527" s="15"/>
       <c r="F527" s="15"/>
     </row>
-    <row r="528" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="1"/>
       <c r="C528" s="14"/>
       <c r="E528" s="15"/>
       <c r="F528" s="15"/>
     </row>
-    <row r="529" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="1"/>
       <c r="C529" s="14"/>
       <c r="E529" s="15"/>
       <c r="F529" s="15"/>
     </row>
-    <row r="530" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="1"/>
       <c r="C530" s="14"/>
       <c r="E530" s="15"/>
       <c r="F530" s="15"/>
     </row>
-    <row r="531" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" s="1"/>
       <c r="C531" s="14"/>
       <c r="E531" s="15"/>
       <c r="F531" s="15"/>
     </row>
-    <row r="532" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" s="1"/>
       <c r="C532" s="14"/>
       <c r="E532" s="15"/>
       <c r="F532" s="15"/>
     </row>
-    <row r="533" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" s="1"/>
       <c r="C533" s="14"/>
       <c r="E533" s="15"/>
       <c r="F533" s="15"/>
     </row>
-    <row r="534" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="1"/>
       <c r="C534" s="14"/>
       <c r="E534" s="15"/>
       <c r="F534" s="15"/>
     </row>
-    <row r="535" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="1"/>
       <c r="C535" s="14"/>
       <c r="E535" s="15"/>
       <c r="F535" s="15"/>
     </row>
-    <row r="536" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" s="1"/>
       <c r="C536" s="14"/>
       <c r="E536" s="15"/>
       <c r="F536" s="15"/>
     </row>
-    <row r="537" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" s="1"/>
       <c r="C537" s="14"/>
       <c r="E537" s="15"/>
       <c r="F537" s="15"/>
     </row>
-    <row r="538" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="1"/>
       <c r="C538" s="14"/>
       <c r="E538" s="15"/>
       <c r="F538" s="15"/>
     </row>
-    <row r="539" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A539" s="1"/>
       <c r="C539" s="14"/>
       <c r="E539" s="15"/>
       <c r="F539" s="15"/>
     </row>
-    <row r="540" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="1"/>
       <c r="C540" s="14"/>
       <c r="E540" s="15"/>
       <c r="F540" s="15"/>
     </row>
-    <row r="541" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="1"/>
       <c r="C541" s="14"/>
       <c r="E541" s="15"/>
       <c r="F541" s="15"/>
     </row>
-    <row r="542" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="1"/>
       <c r="C542" s="14"/>
       <c r="E542" s="15"/>
       <c r="F542" s="15"/>
     </row>
-    <row r="543" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" s="1"/>
       <c r="C543" s="14"/>
       <c r="E543" s="15"/>
       <c r="F543" s="15"/>
     </row>
-    <row r="544" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A544" s="1"/>
       <c r="C544" s="14"/>
       <c r="E544" s="15"/>
       <c r="F544" s="15"/>
     </row>
-    <row r="545" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" s="1"/>
       <c r="C545" s="14"/>
       <c r="E545" s="15"/>
       <c r="F545" s="15"/>
     </row>
-    <row r="546" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" s="1"/>
       <c r="C546" s="14"/>
       <c r="E546" s="15"/>
       <c r="F546" s="15"/>
     </row>
-    <row r="547" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" s="1"/>
       <c r="C547" s="14"/>
       <c r="E547" s="15"/>
       <c r="F547" s="15"/>
     </row>
-    <row r="548" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548" s="1"/>
       <c r="C548" s="14"/>
       <c r="E548" s="15"/>
       <c r="F548" s="15"/>
     </row>
-    <row r="549" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" s="1"/>
       <c r="C549" s="14"/>
       <c r="E549" s="15"/>
       <c r="F549" s="15"/>
     </row>
-    <row r="550" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A550" s="1"/>
       <c r="C550" s="14"/>
       <c r="E550" s="15"/>
       <c r="F550" s="15"/>
     </row>
-    <row r="551" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A551" s="1"/>
       <c r="C551" s="14"/>
       <c r="E551" s="15"/>
       <c r="F551" s="15"/>
     </row>
-    <row r="552" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A552" s="1"/>
       <c r="C552" s="14"/>
       <c r="E552" s="15"/>
       <c r="F552" s="15"/>
     </row>
-    <row r="553" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A553" s="1"/>
       <c r="C553" s="14"/>
       <c r="E553" s="15"/>
       <c r="F553" s="15"/>
     </row>
-    <row r="554" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A554" s="1"/>
       <c r="C554" s="14"/>
       <c r="E554" s="15"/>
       <c r="F554" s="15"/>
     </row>
-    <row r="555" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A555" s="1"/>
       <c r="C555" s="14"/>
       <c r="E555" s="15"/>
       <c r="F555" s="15"/>
     </row>
-    <row r="556" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A556" s="1"/>
       <c r="C556" s="14"/>
       <c r="E556" s="15"/>
       <c r="F556" s="15"/>
     </row>
-    <row r="557" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A557" s="1"/>
       <c r="C557" s="14"/>
       <c r="E557" s="15"/>
       <c r="F557" s="15"/>
     </row>
-    <row r="558" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A558" s="1"/>
       <c r="C558" s="14"/>
       <c r="E558" s="15"/>
       <c r="F558" s="15"/>
     </row>
-    <row r="559" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A559" s="1"/>
       <c r="C559" s="14"/>
       <c r="E559" s="15"/>
       <c r="F559" s="15"/>
     </row>
-    <row r="560" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A560" s="1"/>
       <c r="C560" s="14"/>
       <c r="E560" s="15"/>
       <c r="F560" s="15"/>
     </row>
-    <row r="561" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A561" s="1"/>
       <c r="C561" s="14"/>
       <c r="E561" s="15"/>
       <c r="F561" s="15"/>
     </row>
-    <row r="562" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" s="1"/>
       <c r="C562" s="14"/>
       <c r="E562" s="15"/>
       <c r="F562" s="15"/>
     </row>
-    <row r="563" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" s="1"/>
       <c r="C563" s="14"/>
       <c r="E563" s="15"/>
       <c r="F563" s="15"/>
     </row>
-    <row r="564" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564" s="1"/>
       <c r="C564" s="14"/>
       <c r="E564" s="15"/>
       <c r="F564" s="15"/>
     </row>
-    <row r="565" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" s="1"/>
       <c r="C565" s="14"/>
       <c r="E565" s="15"/>
       <c r="F565" s="15"/>
     </row>
-    <row r="566" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A566" s="1"/>
       <c r="C566" s="14"/>
       <c r="E566" s="15"/>
       <c r="F566" s="15"/>
     </row>
-    <row r="567" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A567" s="1"/>
       <c r="C567" s="14"/>
       <c r="E567" s="15"/>
       <c r="F567" s="15"/>
     </row>
-    <row r="568" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568" s="1"/>
       <c r="C568" s="14"/>
       <c r="E568" s="15"/>
       <c r="F568" s="15"/>
     </row>
-    <row r="569" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="1"/>
       <c r="C569" s="14"/>
       <c r="E569" s="15"/>
       <c r="F569" s="15"/>
     </row>
-    <row r="570" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570" s="1"/>
       <c r="C570" s="14"/>
       <c r="E570" s="15"/>
       <c r="F570" s="15"/>
     </row>
-    <row r="571" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" s="1"/>
       <c r="C571" s="14"/>
       <c r="E571" s="15"/>
       <c r="F571" s="15"/>
     </row>
-    <row r="572" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572" s="1"/>
       <c r="C572" s="14"/>
       <c r="E572" s="15"/>
       <c r="F572" s="15"/>
     </row>
-    <row r="573" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" s="1"/>
       <c r="C573" s="14"/>
       <c r="E573" s="15"/>
       <c r="F573" s="15"/>
     </row>
-    <row r="574" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A574" s="1"/>
       <c r="C574" s="14"/>
       <c r="E574" s="15"/>
       <c r="F574" s="15"/>
     </row>
-    <row r="575" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" s="1"/>
       <c r="C575" s="14"/>
       <c r="E575" s="15"/>
       <c r="F575" s="15"/>
     </row>
-    <row r="576" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576" s="1"/>
       <c r="C576" s="14"/>
       <c r="E576" s="15"/>
       <c r="F576" s="15"/>
     </row>
-    <row r="577" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A577" s="1"/>
       <c r="C577" s="14"/>
       <c r="E577" s="15"/>
       <c r="F577" s="15"/>
     </row>
-    <row r="578" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A578" s="1"/>
       <c r="C578" s="14"/>
       <c r="E578" s="15"/>
       <c r="F578" s="15"/>
     </row>
-    <row r="579" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" s="1"/>
       <c r="C579" s="14"/>
       <c r="E579" s="15"/>
       <c r="F579" s="15"/>
     </row>
-    <row r="580" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A580" s="1"/>
       <c r="C580" s="14"/>
       <c r="E580" s="15"/>
       <c r="F580" s="15"/>
     </row>
-    <row r="581" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581" s="1"/>
       <c r="C581" s="14"/>
       <c r="E581" s="15"/>
       <c r="F581" s="15"/>
     </row>
-    <row r="582" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582" s="1"/>
       <c r="C582" s="14"/>
       <c r="E582" s="15"/>
       <c r="F582" s="15"/>
     </row>
-    <row r="583" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" s="1"/>
       <c r="C583" s="14"/>
       <c r="E583" s="15"/>
       <c r="F583" s="15"/>
     </row>
-    <row r="584" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A584" s="1"/>
       <c r="C584" s="14"/>
       <c r="E584" s="15"/>
       <c r="F584" s="15"/>
     </row>
-    <row r="585" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" s="1"/>
       <c r="C585" s="14"/>
       <c r="E585" s="15"/>
       <c r="F585" s="15"/>
     </row>
-    <row r="586" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A586" s="1"/>
       <c r="C586" s="14"/>
       <c r="E586" s="15"/>
       <c r="F586" s="15"/>
     </row>
-    <row r="587" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A587" s="1"/>
       <c r="C587" s="14"/>
       <c r="E587" s="15"/>
       <c r="F587" s="15"/>
     </row>
-    <row r="588" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A588" s="1"/>
       <c r="C588" s="14"/>
       <c r="E588" s="15"/>
       <c r="F588" s="15"/>
     </row>
-    <row r="589" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A589" s="1"/>
       <c r="C589" s="14"/>
       <c r="E589" s="15"/>
       <c r="F589" s="15"/>
     </row>
-    <row r="590" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A590" s="1"/>
       <c r="C590" s="14"/>
       <c r="E590" s="15"/>
       <c r="F590" s="15"/>
     </row>
-    <row r="591" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A591" s="1"/>
       <c r="C591" s="14"/>
       <c r="E591" s="15"/>
       <c r="F591" s="15"/>
     </row>
-    <row r="592" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A592" s="1"/>
       <c r="C592" s="14"/>
       <c r="E592" s="15"/>
       <c r="F592" s="15"/>
     </row>
-    <row r="593" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A593" s="1"/>
       <c r="C593" s="14"/>
       <c r="E593" s="15"/>
       <c r="F593" s="15"/>
     </row>
-    <row r="594" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A594" s="1"/>
       <c r="C594" s="14"/>
       <c r="E594" s="15"/>
       <c r="F594" s="15"/>
     </row>
-    <row r="595" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A595" s="1"/>
       <c r="C595" s="14"/>
       <c r="E595" s="15"/>
       <c r="F595" s="15"/>
     </row>
-    <row r="596" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A596" s="1"/>
       <c r="C596" s="14"/>
       <c r="E596" s="15"/>
       <c r="F596" s="15"/>
     </row>
-    <row r="597" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A597" s="1"/>
       <c r="C597" s="14"/>
       <c r="E597" s="15"/>
       <c r="F597" s="15"/>
     </row>
-    <row r="598" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A598" s="1"/>
       <c r="C598" s="14"/>
       <c r="E598" s="15"/>
       <c r="F598" s="15"/>
     </row>
-    <row r="599" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A599" s="1"/>
       <c r="C599" s="14"/>
       <c r="E599" s="15"/>
       <c r="F599" s="15"/>
     </row>
-    <row r="600" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A600" s="1"/>
       <c r="C600" s="14"/>
       <c r="E600" s="15"/>
       <c r="F600" s="15"/>
     </row>
-    <row r="601" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A601" s="1"/>
       <c r="C601" s="14"/>
       <c r="E601" s="15"/>
       <c r="F601" s="15"/>
     </row>
-    <row r="602" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A602" s="1"/>
       <c r="C602" s="14"/>
       <c r="E602" s="15"/>
       <c r="F602" s="15"/>
     </row>
-    <row r="603" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A603" s="1"/>
       <c r="C603" s="14"/>
       <c r="E603" s="15"/>
       <c r="F603" s="15"/>
     </row>
-    <row r="604" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A604" s="1"/>
       <c r="C604" s="14"/>
       <c r="E604" s="15"/>
       <c r="F604" s="15"/>
     </row>
-    <row r="605" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A605" s="1"/>
       <c r="C605" s="14"/>
       <c r="E605" s="15"/>
       <c r="F605" s="15"/>
     </row>
-    <row r="606" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A606" s="1"/>
       <c r="C606" s="14"/>
       <c r="E606" s="15"/>
       <c r="F606" s="15"/>
     </row>
-    <row r="607" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A607" s="1"/>
       <c r="C607" s="14"/>
       <c r="E607" s="15"/>
       <c r="F607" s="15"/>
     </row>
-    <row r="608" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A608" s="1"/>
       <c r="C608" s="14"/>
       <c r="E608" s="15"/>
       <c r="F608" s="15"/>
     </row>
-    <row r="609" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A609" s="1"/>
       <c r="C609" s="14"/>
       <c r="E609" s="15"/>
       <c r="F609" s="15"/>
     </row>
-    <row r="610" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A610" s="1"/>
       <c r="C610" s="14"/>
       <c r="E610" s="15"/>
       <c r="F610" s="15"/>
     </row>
-    <row r="611" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A611" s="1"/>
       <c r="C611" s="14"/>
       <c r="E611" s="15"/>
       <c r="F611" s="15"/>
     </row>
-    <row r="612" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A612" s="1"/>
       <c r="C612" s="14"/>
       <c r="E612" s="15"/>
       <c r="F612" s="15"/>
     </row>
-    <row r="613" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A613" s="1"/>
       <c r="C613" s="14"/>
       <c r="E613" s="15"/>
       <c r="F613" s="15"/>
     </row>
-    <row r="614" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A614" s="1"/>
       <c r="C614" s="14"/>
       <c r="E614" s="15"/>
       <c r="F614" s="15"/>
     </row>
-    <row r="615" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A615" s="1"/>
       <c r="C615" s="14"/>
       <c r="E615" s="15"/>
       <c r="F615" s="15"/>
     </row>
-    <row r="616" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A616" s="1"/>
       <c r="C616" s="14"/>
       <c r="E616" s="15"/>
       <c r="F616" s="15"/>
     </row>
-    <row r="617" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A617" s="1"/>
       <c r="C617" s="14"/>
       <c r="E617" s="15"/>
       <c r="F617" s="15"/>
     </row>
-    <row r="618" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A618" s="1"/>
       <c r="C618" s="14"/>
       <c r="E618" s="15"/>
       <c r="F618" s="15"/>
     </row>
-    <row r="619" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A619" s="1"/>
       <c r="C619" s="14"/>
       <c r="E619" s="15"/>
       <c r="F619" s="15"/>
     </row>
-    <row r="620" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A620" s="1"/>
       <c r="C620" s="14"/>
       <c r="E620" s="15"/>
       <c r="F620" s="15"/>
     </row>
-    <row r="621" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A621" s="1"/>
       <c r="C621" s="14"/>
       <c r="E621" s="15"/>
       <c r="F621" s="15"/>
     </row>
-    <row r="622" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A622" s="1"/>
       <c r="C622" s="14"/>
       <c r="E622" s="15"/>
       <c r="F622" s="15"/>
     </row>
-    <row r="623" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A623" s="1"/>
       <c r="C623" s="14"/>
       <c r="E623" s="15"/>
       <c r="F623" s="15"/>
     </row>
-    <row r="624" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A624" s="1"/>
       <c r="C624" s="14"/>
       <c r="E624" s="15"/>
       <c r="F624" s="15"/>
     </row>
-    <row r="625" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A625" s="1"/>
       <c r="C625" s="14"/>
       <c r="E625" s="15"/>
       <c r="F625" s="15"/>
     </row>
-    <row r="626" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A626" s="1"/>
       <c r="C626" s="14"/>
       <c r="E626" s="15"/>
       <c r="F626" s="15"/>
     </row>
-    <row r="627" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A627" s="1"/>
       <c r="C627" s="14"/>
       <c r="E627" s="15"/>
       <c r="F627" s="15"/>
     </row>
-    <row r="628" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A628" s="1"/>
       <c r="C628" s="14"/>
       <c r="E628" s="15"/>
       <c r="F628" s="15"/>
     </row>
-    <row r="629" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A629" s="1"/>
       <c r="C629" s="14"/>
       <c r="E629" s="15"/>
       <c r="F629" s="15"/>
     </row>
-    <row r="630" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A630" s="1"/>
       <c r="C630" s="14"/>
       <c r="E630" s="15"/>
       <c r="F630" s="15"/>
     </row>
-    <row r="631" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A631" s="1"/>
       <c r="C631" s="14"/>
       <c r="E631" s="15"/>
       <c r="F631" s="15"/>
     </row>
-    <row r="632" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A632" s="1"/>
       <c r="C632" s="14"/>
       <c r="E632" s="15"/>
       <c r="F632" s="15"/>
     </row>
-    <row r="633" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A633" s="1"/>
       <c r="C633" s="14"/>
       <c r="E633" s="15"/>
       <c r="F633" s="15"/>
     </row>
-    <row r="634" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A634" s="1"/>
       <c r="C634" s="14"/>
       <c r="E634" s="15"/>
       <c r="F634" s="15"/>
     </row>
-    <row r="635" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A635" s="1"/>
       <c r="C635" s="14"/>
       <c r="E635" s="15"/>
       <c r="F635" s="15"/>
     </row>
-    <row r="636" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A636" s="1"/>
       <c r="C636" s="14"/>
       <c r="E636" s="15"/>
       <c r="F636" s="15"/>
     </row>
-    <row r="637" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A637" s="1"/>
       <c r="C637" s="14"/>
       <c r="E637" s="15"/>
       <c r="F637" s="15"/>
     </row>
-    <row r="638" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A638" s="1"/>
       <c r="C638" s="14"/>
       <c r="E638" s="15"/>
       <c r="F638" s="15"/>
     </row>
-    <row r="639" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A639" s="1"/>
       <c r="C639" s="14"/>
       <c r="E639" s="15"/>
       <c r="F639" s="15"/>
     </row>
-    <row r="640" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A640" s="1"/>
       <c r="C640" s="14"/>
       <c r="E640" s="15"/>
       <c r="F640" s="15"/>
     </row>
-    <row r="641" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A641" s="1"/>
       <c r="C641" s="14"/>
       <c r="E641" s="15"/>
       <c r="F641" s="15"/>
     </row>
-    <row r="642" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A642" s="1"/>
       <c r="C642" s="14"/>
       <c r="E642" s="15"/>
       <c r="F642" s="15"/>
     </row>
-    <row r="643" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A643" s="1"/>
       <c r="C643" s="14"/>
       <c r="E643" s="15"/>
       <c r="F643" s="15"/>
     </row>
-    <row r="644" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A644" s="1"/>
       <c r="C644" s="14"/>
       <c r="E644" s="15"/>
       <c r="F644" s="15"/>
     </row>
-    <row r="645" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A645" s="1"/>
       <c r="C645" s="14"/>
       <c r="E645" s="15"/>
       <c r="F645" s="15"/>
     </row>
-    <row r="646" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A646" s="1"/>
       <c r="C646" s="14"/>
       <c r="E646" s="15"/>
       <c r="F646" s="15"/>
     </row>
-    <row r="647" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A647" s="1"/>
       <c r="C647" s="14"/>
       <c r="E647" s="15"/>
       <c r="F647" s="15"/>
     </row>
-    <row r="648" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A648" s="1"/>
       <c r="C648" s="14"/>
       <c r="E648" s="15"/>
       <c r="F648" s="15"/>
     </row>
-    <row r="649" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A649" s="1"/>
       <c r="C649" s="14"/>
       <c r="E649" s="15"/>
       <c r="F649" s="15"/>
     </row>
-    <row r="650" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A650" s="1"/>
       <c r="C650" s="14"/>
       <c r="E650" s="15"/>
       <c r="F650" s="15"/>
     </row>
-    <row r="651" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A651" s="1"/>
       <c r="C651" s="14"/>
       <c r="E651" s="15"/>
       <c r="F651" s="15"/>
     </row>
-    <row r="652" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A652" s="1"/>
       <c r="C652" s="14"/>
       <c r="E652" s="15"/>
       <c r="F652" s="15"/>
     </row>
-    <row r="653" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A653" s="1"/>
       <c r="C653" s="14"/>
       <c r="E653" s="15"/>
       <c r="F653" s="15"/>
     </row>
-    <row r="654" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A654" s="1"/>
       <c r="C654" s="14"/>
       <c r="E654" s="15"/>
       <c r="F654" s="15"/>
     </row>
-    <row r="655" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A655" s="1"/>
       <c r="C655" s="14"/>
       <c r="E655" s="15"/>
       <c r="F655" s="15"/>
     </row>
-    <row r="656" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A656" s="1"/>
       <c r="C656" s="14"/>
       <c r="E656" s="15"/>
       <c r="F656" s="15"/>
     </row>
-    <row r="657" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A657" s="1"/>
       <c r="C657" s="14"/>
       <c r="E657" s="15"/>
       <c r="F657" s="15"/>
     </row>
-    <row r="658" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A658" s="1"/>
       <c r="C658" s="14"/>
       <c r="E658" s="15"/>
       <c r="F658" s="15"/>
     </row>
-    <row r="659" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A659" s="1"/>
       <c r="C659" s="14"/>
       <c r="E659" s="15"/>
       <c r="F659" s="15"/>
     </row>
-    <row r="660" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A660" s="1"/>
       <c r="C660" s="14"/>
       <c r="E660" s="15"/>
       <c r="F660" s="15"/>
     </row>
-    <row r="661" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A661" s="1"/>
       <c r="C661" s="14"/>
       <c r="E661" s="15"/>
       <c r="F661" s="15"/>
     </row>
-    <row r="662" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A662" s="1"/>
       <c r="C662" s="14"/>
       <c r="E662" s="15"/>
       <c r="F662" s="15"/>
     </row>
-    <row r="663" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A663" s="1"/>
       <c r="C663" s="14"/>
       <c r="E663" s="15"/>
       <c r="F663" s="15"/>
     </row>
-    <row r="664" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A664" s="1"/>
       <c r="C664" s="14"/>
       <c r="E664" s="15"/>
       <c r="F664" s="15"/>
     </row>
-    <row r="665" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A665" s="1"/>
       <c r="C665" s="14"/>
       <c r="E665" s="15"/>
       <c r="F665" s="15"/>
     </row>
-    <row r="666" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A666" s="1"/>
       <c r="C666" s="14"/>
       <c r="E666" s="15"/>
       <c r="F666" s="15"/>
     </row>
-    <row r="667" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A667" s="1"/>
       <c r="C667" s="14"/>
       <c r="E667" s="15"/>
       <c r="F667" s="15"/>
     </row>
-    <row r="668" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A668" s="1"/>
       <c r="C668" s="14"/>
       <c r="E668" s="15"/>
       <c r="F668" s="15"/>
     </row>
-    <row r="669" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A669" s="1"/>
       <c r="C669" s="14"/>
       <c r="E669" s="15"/>
       <c r="F669" s="15"/>
     </row>
-    <row r="670" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A670" s="1"/>
       <c r="C670" s="14"/>
       <c r="E670" s="15"/>
       <c r="F670" s="15"/>
     </row>
-    <row r="671" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A671" s="1"/>
       <c r="C671" s="14"/>
       <c r="E671" s="15"/>
       <c r="F671" s="15"/>
     </row>
-    <row r="672" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A672" s="1"/>
       <c r="C672" s="14"/>
       <c r="E672" s="15"/>
       <c r="F672" s="15"/>
     </row>
-    <row r="673" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A673" s="1"/>
       <c r="C673" s="14"/>
       <c r="E673" s="15"/>
       <c r="F673" s="15"/>
     </row>
-    <row r="674" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A674" s="1"/>
       <c r="C674" s="14"/>
       <c r="E674" s="15"/>
       <c r="F674" s="15"/>
     </row>
-    <row r="675" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A675" s="1"/>
       <c r="C675" s="14"/>
       <c r="E675" s="15"/>
       <c r="F675" s="15"/>
     </row>
-    <row r="676" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A676" s="1"/>
       <c r="C676" s="14"/>
       <c r="E676" s="15"/>
       <c r="F676" s="15"/>
     </row>
-    <row r="677" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A677" s="1"/>
       <c r="C677" s="14"/>
       <c r="E677" s="15"/>
       <c r="F677" s="15"/>
     </row>
-    <row r="678" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A678" s="1"/>
       <c r="C678" s="14"/>
       <c r="E678" s="15"/>
       <c r="F678" s="15"/>
     </row>
-    <row r="679" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A679" s="1"/>
       <c r="C679" s="14"/>
       <c r="E679" s="15"/>
       <c r="F679" s="15"/>
     </row>
-    <row r="680" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A680" s="1"/>
       <c r="C680" s="14"/>
       <c r="E680" s="15"/>
       <c r="F680" s="15"/>
     </row>
-    <row r="681" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A681" s="1"/>
       <c r="C681" s="14"/>
       <c r="E681" s="15"/>
       <c r="F681" s="15"/>
     </row>
-    <row r="682" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A682" s="1"/>
       <c r="C682" s="14"/>
       <c r="E682" s="15"/>
       <c r="F682" s="15"/>
     </row>
-    <row r="683" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A683" s="1"/>
       <c r="C683" s="14"/>
       <c r="E683" s="15"/>
       <c r="F683" s="15"/>
     </row>
-    <row r="684" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A684" s="1"/>
       <c r="C684" s="14"/>
       <c r="E684" s="15"/>
       <c r="F684" s="15"/>
     </row>
-    <row r="685" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A685" s="1"/>
       <c r="C685" s="14"/>
       <c r="E685" s="15"/>
       <c r="F685" s="15"/>
     </row>
-    <row r="686" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A686" s="1"/>
       <c r="C686" s="14"/>
       <c r="E686" s="15"/>
       <c r="F686" s="15"/>
     </row>
-    <row r="687" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A687" s="1"/>
       <c r="C687" s="14"/>
       <c r="E687" s="15"/>
       <c r="F687" s="15"/>
     </row>
-    <row r="688" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A688" s="1"/>
       <c r="C688" s="14"/>
       <c r="E688" s="15"/>
       <c r="F688" s="15"/>
     </row>
-    <row r="689" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A689" s="1"/>
       <c r="C689" s="14"/>
       <c r="E689" s="15"/>
       <c r="F689" s="15"/>
     </row>
-    <row r="690" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A690" s="1"/>
       <c r="C690" s="14"/>
       <c r="E690" s="15"/>
       <c r="F690" s="15"/>
     </row>
-    <row r="691" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A691" s="1"/>
       <c r="C691" s="14"/>
       <c r="E691" s="15"/>
       <c r="F691" s="15"/>
     </row>
-    <row r="692" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A692" s="1"/>
       <c r="C692" s="14"/>
       <c r="E692" s="15"/>
       <c r="F692" s="15"/>
     </row>
-    <row r="693" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A693" s="1"/>
       <c r="C693" s="14"/>
       <c r="E693" s="15"/>
       <c r="F693" s="15"/>
     </row>
-    <row r="694" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A694" s="1"/>
       <c r="C694" s="14"/>
       <c r="E694" s="15"/>
       <c r="F694" s="15"/>
     </row>
-    <row r="695" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A695" s="1"/>
       <c r="C695" s="14"/>
       <c r="E695" s="15"/>
       <c r="F695" s="15"/>
     </row>
-    <row r="696" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A696" s="1"/>
       <c r="C696" s="14"/>
       <c r="E696" s="15"/>
       <c r="F696" s="15"/>
     </row>
-    <row r="697" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A697" s="1"/>
       <c r="C697" s="14"/>
       <c r="E697" s="15"/>
       <c r="F697" s="15"/>
     </row>
-    <row r="698" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A698" s="1"/>
       <c r="C698" s="14"/>
       <c r="E698" s="15"/>
       <c r="F698" s="15"/>
     </row>
-    <row r="699" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A699" s="1"/>
       <c r="C699" s="14"/>
       <c r="E699" s="15"/>
       <c r="F699" s="15"/>
     </row>
-    <row r="700" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A700" s="1"/>
       <c r="C700" s="14"/>
       <c r="E700" s="15"/>
       <c r="F700" s="15"/>
     </row>
-    <row r="701" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A701" s="1"/>
       <c r="C701" s="14"/>
       <c r="E701" s="15"/>
       <c r="F701" s="15"/>
     </row>
-    <row r="702" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A702" s="1"/>
       <c r="C702" s="14"/>
       <c r="E702" s="15"/>
       <c r="F702" s="15"/>
     </row>
-    <row r="703" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A703" s="1"/>
       <c r="C703" s="14"/>
       <c r="E703" s="15"/>
       <c r="F703" s="15"/>
     </row>
-    <row r="704" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A704" s="1"/>
       <c r="C704" s="14"/>
       <c r="E704" s="15"/>
       <c r="F704" s="15"/>
     </row>
-    <row r="705" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A705" s="1"/>
       <c r="C705" s="14"/>
       <c r="E705" s="15"/>
       <c r="F705" s="15"/>
     </row>
-    <row r="706" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A706" s="1"/>
       <c r="C706" s="14"/>
       <c r="E706" s="15"/>
       <c r="F706" s="15"/>
     </row>
-    <row r="707" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A707" s="1"/>
       <c r="C707" s="14"/>
       <c r="E707" s="15"/>
       <c r="F707" s="15"/>
     </row>
-    <row r="708" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A708" s="1"/>
       <c r="C708" s="14"/>
       <c r="E708" s="15"/>
       <c r="F708" s="15"/>
     </row>
-    <row r="709" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A709" s="1"/>
       <c r="C709" s="14"/>
       <c r="E709" s="15"/>
       <c r="F709" s="15"/>
     </row>
-    <row r="710" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A710" s="1"/>
       <c r="C710" s="14"/>
       <c r="E710" s="15"/>
       <c r="F710" s="15"/>
     </row>
-    <row r="711" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A711" s="1"/>
       <c r="C711" s="14"/>
       <c r="E711" s="15"/>
       <c r="F711" s="15"/>
     </row>
-    <row r="712" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A712" s="1"/>
       <c r="C712" s="14"/>
       <c r="E712" s="15"/>
       <c r="F712" s="15"/>
     </row>
-    <row r="713" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A713" s="1"/>
       <c r="C713" s="14"/>
       <c r="E713" s="15"/>
       <c r="F713" s="15"/>
     </row>
-    <row r="714" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A714" s="1"/>
       <c r="C714" s="14"/>
       <c r="E714" s="15"/>
       <c r="F714" s="15"/>
     </row>
-    <row r="715" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A715" s="1"/>
       <c r="C715" s="14"/>
       <c r="E715" s="15"/>
       <c r="F715" s="15"/>
     </row>
-    <row r="716" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A716" s="1"/>
       <c r="C716" s="14"/>
       <c r="E716" s="15"/>
       <c r="F716" s="15"/>
     </row>
-    <row r="717" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A717" s="1"/>
       <c r="C717" s="14"/>
       <c r="E717" s="15"/>
       <c r="F717" s="15"/>
     </row>
-    <row r="718" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A718" s="1"/>
       <c r="C718" s="14"/>
       <c r="E718" s="15"/>
       <c r="F718" s="15"/>
     </row>
-    <row r="719" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A719" s="1"/>
       <c r="C719" s="14"/>
       <c r="E719" s="15"/>
       <c r="F719" s="15"/>
     </row>
-    <row r="720" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A720" s="1"/>
       <c r="C720" s="14"/>
       <c r="E720" s="15"/>
       <c r="F720" s="15"/>
     </row>
-    <row r="721" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A721" s="1"/>
       <c r="C721" s="14"/>
       <c r="E721" s="15"/>
       <c r="F721" s="15"/>
     </row>
-    <row r="722" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A722" s="1"/>
       <c r="C722" s="14"/>
       <c r="E722" s="15"/>
       <c r="F722" s="15"/>
     </row>
-    <row r="723" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A723" s="1"/>
       <c r="C723" s="14"/>
       <c r="E723" s="15"/>
       <c r="F723" s="15"/>
     </row>
-    <row r="724" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A724" s="1"/>
       <c r="C724" s="14"/>
       <c r="E724" s="15"/>
       <c r="F724" s="15"/>
     </row>
-    <row r="725" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A725" s="1"/>
       <c r="C725" s="14"/>
       <c r="E725" s="15"/>
       <c r="F725" s="15"/>
     </row>
-    <row r="726" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A726" s="1"/>
       <c r="C726" s="14"/>
       <c r="E726" s="15"/>
       <c r="F726" s="15"/>
     </row>
-    <row r="727" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A727" s="1"/>
       <c r="C727" s="14"/>
       <c r="E727" s="15"/>
       <c r="F727" s="15"/>
     </row>
-    <row r="728" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A728" s="1"/>
       <c r="C728" s="14"/>
       <c r="E728" s="15"/>
       <c r="F728" s="15"/>
     </row>
-    <row r="729" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A729" s="1"/>
       <c r="C729" s="14"/>
       <c r="E729" s="15"/>
       <c r="F729" s="15"/>
     </row>
-    <row r="730" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A730" s="1"/>
       <c r="C730" s="14"/>
       <c r="E730" s="15"/>
       <c r="F730" s="15"/>
     </row>
-    <row r="731" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A731" s="1"/>
       <c r="C731" s="14"/>
       <c r="E731" s="15"/>
       <c r="F731" s="15"/>
     </row>
-    <row r="732" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A732" s="1"/>
       <c r="C732" s="14"/>
       <c r="E732" s="15"/>
       <c r="F732" s="15"/>
     </row>
-    <row r="733" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A733" s="1"/>
       <c r="C733" s="14"/>
       <c r="E733" s="15"/>
       <c r="F733" s="15"/>
     </row>
-    <row r="734" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A734" s="1"/>
       <c r="C734" s="14"/>
       <c r="E734" s="15"/>
       <c r="F734" s="15"/>
     </row>
-    <row r="735" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A735" s="1"/>
       <c r="C735" s="14"/>
       <c r="E735" s="15"/>
       <c r="F735" s="15"/>
     </row>
-    <row r="736" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A736" s="1"/>
       <c r="C736" s="14"/>
       <c r="E736" s="15"/>
       <c r="F736" s="15"/>
     </row>
-    <row r="737" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A737" s="1"/>
       <c r="C737" s="14"/>
       <c r="E737" s="15"/>
       <c r="F737" s="15"/>
     </row>
-    <row r="738" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A738" s="1"/>
       <c r="C738" s="14"/>
       <c r="E738" s="15"/>
       <c r="F738" s="15"/>
     </row>
-    <row r="739" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A739" s="1"/>
       <c r="C739" s="14"/>
       <c r="E739" s="15"/>
       <c r="F739" s="15"/>
     </row>
-    <row r="740" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A740" s="1"/>
       <c r="C740" s="14"/>
       <c r="E740" s="15"/>
       <c r="F740" s="15"/>
     </row>
-    <row r="741" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A741" s="1"/>
       <c r="C741" s="14"/>
       <c r="E741" s="15"/>
       <c r="F741" s="15"/>
     </row>
-    <row r="742" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A742" s="1"/>
       <c r="C742" s="14"/>
       <c r="E742" s="15"/>
       <c r="F742" s="15"/>
     </row>
-    <row r="743" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A743" s="1"/>
       <c r="C743" s="14"/>
       <c r="E743" s="15"/>
       <c r="F743" s="15"/>
     </row>
-    <row r="744" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A744" s="1"/>
       <c r="C744" s="14"/>
       <c r="E744" s="15"/>
       <c r="F744" s="15"/>
     </row>
-    <row r="745" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A745" s="1"/>
       <c r="C745" s="14"/>
       <c r="E745" s="15"/>
       <c r="F745" s="15"/>
     </row>
-    <row r="746" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A746" s="1"/>
       <c r="C746" s="14"/>
       <c r="E746" s="15"/>
       <c r="F746" s="15"/>
     </row>
-    <row r="747" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A747" s="1"/>
       <c r="C747" s="14"/>
       <c r="E747" s="15"/>
       <c r="F747" s="15"/>
     </row>
-    <row r="748" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A748" s="1"/>
       <c r="C748" s="14"/>
       <c r="E748" s="15"/>
       <c r="F748" s="15"/>
     </row>
-    <row r="749" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A749" s="1"/>
       <c r="C749" s="14"/>
       <c r="E749" s="15"/>
       <c r="F749" s="15"/>
     </row>
-    <row r="750" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A750" s="1"/>
       <c r="C750" s="14"/>
       <c r="E750" s="15"/>
       <c r="F750" s="15"/>
     </row>
-    <row r="751" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A751" s="1"/>
       <c r="C751" s="14"/>
       <c r="E751" s="15"/>
       <c r="F751" s="15"/>
     </row>
-    <row r="752" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A752" s="1"/>
       <c r="C752" s="14"/>
       <c r="E752" s="15"/>
       <c r="F752" s="15"/>
     </row>
-    <row r="753" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A753" s="1"/>
       <c r="C753" s="14"/>
       <c r="E753" s="15"/>
       <c r="F753" s="15"/>
     </row>
-    <row r="754" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A754" s="1"/>
       <c r="C754" s="14"/>
       <c r="E754" s="15"/>
       <c r="F754" s="15"/>
     </row>
-    <row r="755" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A755" s="1"/>
       <c r="C755" s="14"/>
       <c r="E755" s="15"/>
       <c r="F755" s="15"/>
     </row>
-    <row r="756" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A756" s="1"/>
       <c r="C756" s="14"/>
       <c r="E756" s="15"/>
       <c r="F756" s="15"/>
     </row>
-    <row r="757" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A757" s="1"/>
       <c r="C757" s="14"/>
       <c r="E757" s="15"/>
       <c r="F757" s="15"/>
     </row>
-    <row r="758" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A758" s="1"/>
       <c r="C758" s="14"/>
       <c r="E758" s="15"/>
       <c r="F758" s="15"/>
     </row>
-    <row r="759" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A759" s="1"/>
       <c r="C759" s="14"/>
       <c r="E759" s="15"/>
       <c r="F759" s="15"/>
     </row>
-    <row r="760" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A760" s="1"/>
       <c r="C760" s="14"/>
       <c r="E760" s="15"/>
       <c r="F760" s="15"/>
     </row>
-    <row r="761" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A761" s="1"/>
       <c r="C761" s="14"/>
       <c r="E761" s="15"/>
       <c r="F761" s="15"/>
     </row>
-    <row r="762" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A762" s="1"/>
       <c r="C762" s="14"/>
       <c r="E762" s="15"/>
       <c r="F762" s="15"/>
     </row>
-    <row r="763" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A763" s="1"/>
       <c r="C763" s="14"/>
       <c r="E763" s="15"/>
       <c r="F763" s="15"/>
     </row>
-    <row r="764" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A764" s="1"/>
       <c r="C764" s="14"/>
       <c r="E764" s="15"/>
       <c r="F764" s="15"/>
     </row>
-    <row r="765" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A765" s="1"/>
       <c r="C765" s="14"/>
       <c r="E765" s="15"/>
       <c r="F765" s="15"/>
     </row>
-    <row r="766" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A766" s="1"/>
       <c r="C766" s="14"/>
       <c r="E766" s="15"/>
       <c r="F766" s="15"/>
     </row>
-    <row r="767" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A767" s="1"/>
       <c r="C767" s="14"/>
       <c r="E767" s="15"/>
       <c r="F767" s="15"/>
     </row>
-    <row r="768" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A768" s="1"/>
       <c r="C768" s="14"/>
       <c r="E768" s="15"/>
       <c r="F768" s="15"/>
     </row>
-    <row r="769" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A769" s="1"/>
       <c r="C769" s="14"/>
       <c r="E769" s="15"/>
       <c r="F769" s="15"/>
     </row>
-    <row r="770" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A770" s="1"/>
       <c r="C770" s="14"/>
       <c r="E770" s="15"/>
       <c r="F770" s="15"/>
     </row>
-    <row r="771" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A771" s="1"/>
       <c r="C771" s="14"/>
       <c r="E771" s="15"/>
       <c r="F771" s="15"/>
     </row>
-    <row r="772" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A772" s="1"/>
       <c r="C772" s="14"/>
       <c r="E772" s="15"/>
       <c r="F772" s="15"/>
     </row>
-    <row r="773" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A773" s="1"/>
       <c r="C773" s="14"/>
       <c r="E773" s="15"/>
       <c r="F773" s="15"/>
     </row>
-    <row r="774" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A774" s="1"/>
       <c r="C774" s="14"/>
       <c r="E774" s="15"/>
       <c r="F774" s="15"/>
     </row>
-    <row r="775" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A775" s="1"/>
       <c r="C775" s="14"/>
       <c r="E775" s="15"/>
       <c r="F775" s="15"/>
     </row>
-    <row r="776" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A776" s="1"/>
       <c r="C776" s="14"/>
       <c r="E776" s="15"/>
       <c r="F776" s="15"/>
     </row>
-    <row r="777" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A777" s="1"/>
       <c r="C777" s="14"/>
       <c r="E777" s="15"/>
       <c r="F777" s="15"/>
     </row>
-    <row r="778" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A778" s="1"/>
       <c r="C778" s="14"/>
       <c r="E778" s="15"/>
       <c r="F778" s="15"/>
     </row>
-    <row r="779" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A779" s="1"/>
       <c r="C779" s="14"/>
       <c r="E779" s="15"/>
       <c r="F779" s="15"/>
     </row>
-    <row r="780" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A780" s="1"/>
       <c r="C780" s="14"/>
       <c r="E780" s="15"/>
       <c r="F780" s="15"/>
     </row>
-    <row r="781" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A781" s="1"/>
       <c r="C781" s="14"/>
       <c r="E781" s="15"/>
       <c r="F781" s="15"/>
     </row>
-    <row r="782" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A782" s="1"/>
       <c r="C782" s="14"/>
       <c r="E782" s="15"/>
       <c r="F782" s="15"/>
     </row>
-    <row r="783" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A783" s="1"/>
       <c r="C783" s="14"/>
       <c r="E783" s="15"/>
       <c r="F783" s="15"/>
     </row>
-    <row r="784" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A784" s="1"/>
       <c r="C784" s="14"/>
       <c r="E784" s="15"/>
       <c r="F784" s="15"/>
     </row>
-    <row r="785" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A785" s="1"/>
       <c r="C785" s="14"/>
       <c r="E785" s="15"/>
       <c r="F785" s="15"/>
     </row>
-    <row r="786" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A786" s="1"/>
       <c r="C786" s="14"/>
       <c r="E786" s="15"/>
       <c r="F786" s="15"/>
     </row>
-    <row r="787" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A787" s="1"/>
       <c r="C787" s="14"/>
       <c r="E787" s="15"/>
       <c r="F787" s="15"/>
     </row>
-    <row r="788" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A788" s="1"/>
       <c r="C788" s="14"/>
       <c r="E788" s="15"/>
       <c r="F788" s="15"/>
     </row>
-    <row r="789" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A789" s="1"/>
       <c r="C789" s="14"/>
       <c r="E789" s="15"/>
       <c r="F789" s="15"/>
     </row>
-    <row r="790" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A790" s="1"/>
       <c r="C790" s="14"/>
       <c r="E790" s="15"/>
       <c r="F790" s="15"/>
     </row>
-    <row r="791" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A791" s="1"/>
       <c r="C791" s="14"/>
       <c r="E791" s="15"/>
       <c r="F791" s="15"/>
     </row>
-    <row r="792" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A792" s="1"/>
       <c r="C792" s="14"/>
       <c r="E792" s="15"/>
       <c r="F792" s="15"/>
     </row>
-    <row r="793" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A793" s="1"/>
       <c r="C793" s="14"/>
       <c r="E793" s="15"/>
       <c r="F793" s="15"/>
     </row>
-    <row r="794" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A794" s="1"/>
       <c r="C794" s="14"/>
       <c r="E794" s="15"/>
       <c r="F794" s="15"/>
     </row>
-    <row r="795" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A795" s="1"/>
       <c r="C795" s="14"/>
       <c r="E795" s="15"/>
       <c r="F795" s="15"/>
     </row>
-    <row r="796" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A796" s="1"/>
       <c r="C796" s="14"/>
       <c r="E796" s="15"/>
       <c r="F796" s="15"/>
     </row>
-    <row r="797" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A797" s="1"/>
       <c r="C797" s="14"/>
       <c r="E797" s="15"/>
       <c r="F797" s="15"/>
     </row>
-    <row r="798" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A798" s="1"/>
       <c r="C798" s="14"/>
       <c r="E798" s="15"/>
       <c r="F798" s="15"/>
     </row>
-    <row r="799" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A799" s="1"/>
       <c r="C799" s="14"/>
       <c r="E799" s="15"/>
       <c r="F799" s="15"/>
     </row>
-    <row r="800" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A800" s="1"/>
       <c r="C800" s="14"/>
       <c r="E800" s="15"/>
       <c r="F800" s="15"/>
     </row>
-    <row r="801" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A801" s="1"/>
       <c r="C801" s="14"/>
       <c r="E801" s="15"/>
       <c r="F801" s="15"/>
     </row>
-    <row r="802" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A802" s="1"/>
       <c r="C802" s="14"/>
       <c r="E802" s="15"/>
       <c r="F802" s="15"/>
     </row>
-    <row r="803" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A803" s="1"/>
       <c r="C803" s="14"/>
       <c r="E803" s="15"/>
       <c r="F803" s="15"/>
     </row>
-    <row r="804" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A804" s="1"/>
       <c r="C804" s="14"/>
       <c r="E804" s="15"/>
       <c r="F804" s="15"/>
     </row>
-    <row r="805" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A805" s="1"/>
       <c r="C805" s="14"/>
       <c r="E805" s="15"/>
       <c r="F805" s="15"/>
     </row>
-    <row r="806" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A806" s="1"/>
       <c r="C806" s="14"/>
       <c r="E806" s="15"/>
       <c r="F806" s="15"/>
     </row>
-    <row r="807" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A807" s="1"/>
       <c r="C807" s="14"/>
       <c r="E807" s="15"/>
       <c r="F807" s="15"/>
     </row>
-    <row r="808" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A808" s="1"/>
       <c r="C808" s="14"/>
       <c r="E808" s="15"/>
       <c r="F808" s="15"/>
     </row>
-    <row r="809" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A809" s="1"/>
       <c r="C809" s="14"/>
       <c r="E809" s="15"/>
       <c r="F809" s="15"/>
     </row>
-    <row r="810" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A810" s="1"/>
       <c r="C810" s="14"/>
       <c r="E810" s="15"/>
       <c r="F810" s="15"/>
     </row>
-    <row r="811" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A811" s="1"/>
       <c r="C811" s="14"/>
       <c r="E811" s="15"/>
       <c r="F811" s="15"/>
     </row>
-    <row r="812" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A812" s="1"/>
       <c r="C812" s="14"/>
       <c r="E812" s="15"/>
       <c r="F812" s="15"/>
     </row>
-    <row r="813" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A813" s="1"/>
       <c r="C813" s="14"/>
       <c r="E813" s="15"/>
       <c r="F813" s="15"/>
     </row>
-    <row r="814" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A814" s="1"/>
       <c r="C814" s="14"/>
       <c r="E814" s="15"/>
       <c r="F814" s="15"/>
     </row>
-    <row r="815" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A815" s="1"/>
       <c r="C815" s="14"/>
       <c r="E815" s="15"/>
       <c r="F815" s="15"/>
     </row>
-    <row r="816" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A816" s="1"/>
       <c r="C816" s="14"/>
       <c r="E816" s="15"/>
       <c r="F816" s="15"/>
     </row>
-    <row r="817" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A817" s="1"/>
       <c r="C817" s="14"/>
       <c r="E817" s="15"/>
       <c r="F817" s="15"/>
     </row>
-    <row r="818" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A818" s="1"/>
       <c r="C818" s="14"/>
       <c r="E818" s="15"/>
       <c r="F818" s="15"/>
     </row>
-    <row r="819" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A819" s="1"/>
       <c r="C819" s="14"/>
       <c r="E819" s="15"/>
       <c r="F819" s="15"/>
     </row>
-    <row r="820" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A820" s="1"/>
       <c r="C820" s="14"/>
       <c r="E820" s="15"/>
       <c r="F820" s="15"/>
     </row>
-    <row r="821" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A821" s="1"/>
       <c r="C821" s="14"/>
       <c r="E821" s="15"/>
       <c r="F821" s="15"/>
     </row>
-    <row r="822" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A822" s="1"/>
       <c r="C822" s="14"/>
       <c r="E822" s="15"/>
       <c r="F822" s="15"/>
     </row>
-    <row r="823" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A823" s="1"/>
       <c r="C823" s="14"/>
       <c r="E823" s="15"/>
       <c r="F823" s="15"/>
     </row>
-    <row r="824" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A824" s="1"/>
       <c r="C824" s="14"/>
       <c r="E824" s="15"/>
       <c r="F824" s="15"/>
     </row>
-    <row r="825" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A825" s="1"/>
       <c r="C825" s="14"/>
       <c r="E825" s="15"/>
       <c r="F825" s="15"/>
     </row>
-    <row r="826" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A826" s="1"/>
       <c r="C826" s="14"/>
       <c r="E826" s="15"/>
       <c r="F826" s="15"/>
     </row>
-    <row r="827" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A827" s="1"/>
       <c r="C827" s="14"/>
       <c r="E827" s="15"/>
       <c r="F827" s="15"/>
     </row>
-    <row r="828" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A828" s="1"/>
       <c r="C828" s="14"/>
       <c r="E828" s="15"/>
       <c r="F828" s="15"/>
     </row>
-    <row r="829" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A829" s="1"/>
       <c r="C829" s="14"/>
       <c r="E829" s="15"/>
       <c r="F829" s="15"/>
     </row>
-    <row r="830" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A830" s="1"/>
       <c r="C830" s="14"/>
       <c r="E830" s="15"/>
       <c r="F830" s="15"/>
     </row>
-    <row r="831" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A831" s="1"/>
       <c r="C831" s="14"/>
       <c r="E831" s="15"/>
       <c r="F831" s="15"/>
     </row>
-    <row r="832" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A832" s="1"/>
       <c r="C832" s="14"/>
       <c r="E832" s="15"/>
       <c r="F832" s="15"/>
     </row>
-    <row r="833" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A833" s="1"/>
       <c r="C833" s="14"/>
       <c r="E833" s="15"/>
       <c r="F833" s="15"/>
     </row>
-    <row r="834" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A834" s="1"/>
       <c r="C834" s="14"/>
       <c r="E834" s="15"/>
       <c r="F834" s="15"/>
     </row>
-    <row r="835" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A835" s="1"/>
       <c r="C835" s="14"/>
       <c r="E835" s="15"/>
       <c r="F835" s="15"/>
     </row>
-    <row r="836" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A836" s="1"/>
       <c r="C836" s="14"/>
       <c r="E836" s="15"/>
       <c r="F836" s="15"/>
     </row>
-    <row r="837" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A837" s="1"/>
       <c r="C837" s="14"/>
       <c r="E837" s="15"/>
       <c r="F837" s="15"/>
     </row>
-    <row r="838" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A838" s="1"/>
       <c r="C838" s="14"/>
       <c r="E838" s="15"/>
       <c r="F838" s="15"/>
     </row>
-    <row r="839" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A839" s="1"/>
       <c r="C839" s="14"/>
       <c r="E839" s="15"/>
       <c r="F839" s="15"/>
     </row>
-    <row r="840" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A840" s="1"/>
       <c r="C840" s="14"/>
       <c r="E840" s="15"/>
       <c r="F840" s="15"/>
     </row>
-    <row r="841" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A841" s="1"/>
       <c r="C841" s="14"/>
       <c r="E841" s="15"/>
       <c r="F841" s="15"/>
     </row>
-    <row r="842" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A842" s="1"/>
       <c r="C842" s="14"/>
       <c r="E842" s="15"/>
       <c r="F842" s="15"/>
     </row>
-    <row r="843" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A843" s="1"/>
       <c r="C843" s="14"/>
       <c r="E843" s="15"/>
       <c r="F843" s="15"/>
     </row>
-    <row r="844" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A844" s="1"/>
       <c r="C844" s="14"/>
       <c r="E844" s="15"/>
       <c r="F844" s="15"/>
     </row>
-    <row r="845" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A845" s="1"/>
       <c r="C845" s="14"/>
       <c r="E845" s="15"/>
       <c r="F845" s="15"/>
     </row>
-    <row r="846" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A846" s="1"/>
       <c r="C846" s="14"/>
       <c r="E846" s="15"/>
       <c r="F846" s="15"/>
     </row>
-    <row r="847" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A847" s="1"/>
       <c r="C847" s="14"/>
       <c r="E847" s="15"/>
       <c r="F847" s="15"/>
     </row>
-    <row r="848" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A848" s="1"/>
       <c r="C848" s="14"/>
       <c r="E848" s="15"/>
       <c r="F848" s="15"/>
     </row>
-    <row r="849" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A849" s="1"/>
       <c r="C849" s="14"/>
       <c r="E849" s="15"/>
       <c r="F849" s="15"/>
     </row>
-    <row r="850" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A850" s="1"/>
       <c r="C850" s="14"/>
       <c r="E850" s="15"/>
       <c r="F850" s="15"/>
     </row>
-    <row r="851" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A851" s="1"/>
       <c r="C851" s="14"/>
       <c r="E851" s="15"/>
       <c r="F851" s="15"/>
     </row>
-    <row r="852" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A852" s="1"/>
       <c r="C852" s="14"/>
       <c r="E852" s="15"/>
       <c r="F852" s="15"/>
     </row>
-    <row r="853" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A853" s="1"/>
       <c r="C853" s="14"/>
       <c r="E853" s="15"/>
       <c r="F853" s="15"/>
     </row>
-    <row r="854" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A854" s="1"/>
       <c r="C854" s="14"/>
       <c r="E854" s="15"/>
       <c r="F854" s="15"/>
     </row>
-    <row r="855" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A855" s="1"/>
       <c r="C855" s="14"/>
       <c r="E855" s="15"/>
       <c r="F855" s="15"/>
     </row>
-    <row r="856" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A856" s="1"/>
       <c r="C856" s="14"/>
       <c r="E856" s="15"/>
       <c r="F856" s="15"/>
     </row>
-    <row r="857" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A857" s="1"/>
       <c r="C857" s="14"/>
       <c r="E857" s="15"/>
       <c r="F857" s="15"/>
     </row>
-    <row r="858" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A858" s="1"/>
       <c r="C858" s="14"/>
       <c r="E858" s="15"/>
       <c r="F858" s="15"/>
     </row>
-    <row r="859" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A859" s="1"/>
       <c r="C859" s="14"/>
       <c r="E859" s="15"/>
       <c r="F859" s="15"/>
     </row>
-    <row r="860" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A860" s="1"/>
       <c r="C860" s="14"/>
       <c r="E860" s="15"/>
       <c r="F860" s="15"/>
     </row>
-    <row r="861" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A861" s="1"/>
       <c r="C861" s="14"/>
       <c r="E861" s="15"/>
       <c r="F861" s="15"/>
     </row>
-    <row r="862" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A862" s="1"/>
       <c r="C862" s="14"/>
       <c r="E862" s="15"/>
       <c r="F862" s="15"/>
     </row>
-    <row r="863" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A863" s="1"/>
       <c r="C863" s="14"/>
       <c r="E863" s="15"/>
       <c r="F863" s="15"/>
     </row>
-    <row r="864" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A864" s="1"/>
       <c r="C864" s="14"/>
       <c r="E864" s="15"/>
       <c r="F864" s="15"/>
     </row>
-    <row r="865" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A865" s="1"/>
       <c r="C865" s="14"/>
       <c r="E865" s="15"/>
       <c r="F865" s="15"/>
     </row>
-    <row r="866" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A866" s="1"/>
       <c r="C866" s="14"/>
       <c r="E866" s="15"/>
       <c r="F866" s="15"/>
     </row>
-    <row r="867" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A867" s="1"/>
       <c r="C867" s="14"/>
       <c r="E867" s="15"/>
       <c r="F867" s="15"/>
     </row>
-    <row r="868" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A868" s="1"/>
       <c r="C868" s="14"/>
       <c r="E868" s="15"/>
       <c r="F868" s="15"/>
     </row>
-    <row r="869" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A869" s="1"/>
       <c r="C869" s="14"/>
       <c r="E869" s="15"/>
       <c r="F869" s="15"/>
     </row>
-    <row r="870" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A870" s="1"/>
       <c r="C870" s="14"/>
       <c r="E870" s="15"/>
       <c r="F870" s="15"/>
     </row>
-    <row r="871" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A871" s="1"/>
       <c r="C871" s="14"/>
       <c r="E871" s="15"/>
       <c r="F871" s="15"/>
     </row>
-    <row r="872" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A872" s="1"/>
       <c r="C872" s="14"/>
       <c r="E872" s="15"/>
       <c r="F872" s="15"/>
     </row>
-    <row r="873" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A873" s="1"/>
       <c r="C873" s="14"/>
       <c r="E873" s="15"/>
       <c r="F873" s="15"/>
     </row>
-    <row r="874" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A874" s="1"/>
       <c r="C874" s="14"/>
       <c r="E874" s="15"/>
       <c r="F874" s="15"/>
     </row>
-    <row r="875" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A875" s="1"/>
       <c r="C875" s="14"/>
       <c r="E875" s="15"/>
       <c r="F875" s="15"/>
     </row>
-    <row r="876" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A876" s="1"/>
       <c r="C876" s="14"/>
       <c r="E876" s="15"/>
       <c r="F876" s="15"/>
     </row>
-    <row r="877" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A877" s="1"/>
       <c r="C877" s="14"/>
       <c r="E877" s="15"/>
       <c r="F877" s="15"/>
     </row>
-    <row r="878" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A878" s="1"/>
       <c r="C878" s="14"/>
       <c r="E878" s="15"/>
       <c r="F878" s="15"/>
     </row>
-    <row r="879" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A879" s="1"/>
       <c r="C879" s="14"/>
       <c r="E879" s="15"/>
       <c r="F879" s="15"/>
     </row>
-    <row r="880" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A880" s="1"/>
       <c r="C880" s="14"/>
       <c r="E880" s="15"/>
       <c r="F880" s="15"/>
     </row>
-    <row r="881" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A881" s="1"/>
       <c r="C881" s="14"/>
       <c r="E881" s="15"/>
       <c r="F881" s="15"/>
     </row>
-    <row r="882" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A882" s="1"/>
       <c r="C882" s="14"/>
       <c r="E882" s="15"/>
       <c r="F882" s="15"/>
     </row>
-    <row r="883" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A883" s="1"/>
       <c r="C883" s="14"/>
       <c r="E883" s="15"/>
       <c r="F883" s="15"/>
     </row>
-    <row r="884" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A884" s="1"/>
       <c r="C884" s="14"/>
       <c r="E884" s="15"/>
       <c r="F884" s="15"/>
     </row>
-    <row r="885" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A885" s="1"/>
       <c r="C885" s="14"/>
       <c r="E885" s="15"/>
       <c r="F885" s="15"/>
     </row>
-    <row r="886" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A886" s="1"/>
       <c r="C886" s="14"/>
       <c r="E886" s="15"/>
       <c r="F886" s="15"/>
     </row>
-    <row r="887" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A887" s="1"/>
       <c r="C887" s="14"/>
       <c r="E887" s="15"/>
       <c r="F887" s="15"/>
     </row>
-    <row r="888" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A888" s="1"/>
       <c r="C888" s="14"/>
       <c r="E888" s="15"/>
       <c r="F888" s="15"/>
     </row>
-    <row r="889" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A889" s="1"/>
       <c r="C889" s="14"/>
       <c r="E889" s="15"/>
       <c r="F889" s="15"/>
     </row>
-    <row r="890" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A890" s="1"/>
       <c r="C890" s="14"/>
       <c r="E890" s="15"/>
       <c r="F890" s="15"/>
     </row>
-    <row r="891" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A891" s="1"/>
       <c r="C891" s="14"/>
       <c r="E891" s="15"/>
       <c r="F891" s="15"/>
     </row>
-    <row r="892" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A892" s="1"/>
       <c r="C892" s="14"/>
       <c r="E892" s="15"/>
       <c r="F892" s="15"/>
     </row>
-    <row r="893" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A893" s="1"/>
       <c r="C893" s="14"/>
       <c r="E893" s="15"/>
       <c r="F893" s="15"/>
     </row>
-    <row r="894" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A894" s="1"/>
       <c r="C894" s="14"/>
       <c r="E894" s="15"/>
       <c r="F894" s="15"/>
     </row>
-    <row r="895" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A895" s="1"/>
       <c r="C895" s="14"/>
       <c r="E895" s="15"/>
       <c r="F895" s="15"/>
     </row>
-    <row r="896" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A896" s="1"/>
       <c r="C896" s="14"/>
       <c r="E896" s="15"/>
       <c r="F896" s="15"/>
     </row>
-    <row r="897" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A897" s="1"/>
       <c r="C897" s="14"/>
       <c r="E897" s="15"/>
       <c r="F897" s="15"/>
     </row>
-    <row r="898" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A898" s="1"/>
       <c r="C898" s="14"/>
       <c r="E898" s="15"/>
       <c r="F898" s="15"/>
     </row>
-    <row r="899" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A899" s="1"/>
       <c r="C899" s="14"/>
       <c r="E899" s="15"/>
       <c r="F899" s="15"/>
     </row>
-    <row r="900" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A900" s="1"/>
       <c r="C900" s="14"/>
       <c r="E900" s="15"/>
       <c r="F900" s="15"/>
     </row>
-    <row r="901" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A901" s="1"/>
       <c r="C901" s="14"/>
       <c r="E901" s="15"/>
       <c r="F901" s="15"/>
     </row>
-    <row r="902" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A902" s="1"/>
       <c r="C902" s="14"/>
       <c r="E902" s="15"/>
       <c r="F902" s="15"/>
     </row>
-    <row r="903" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A903" s="1"/>
       <c r="C903" s="14"/>
       <c r="E903" s="15"/>
       <c r="F903" s="15"/>
     </row>
-    <row r="904" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A904" s="1"/>
       <c r="C904" s="14"/>
       <c r="E904" s="15"/>
       <c r="F904" s="15"/>
     </row>
-    <row r="905" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A905" s="1"/>
       <c r="C905" s="14"/>
       <c r="E905" s="15"/>
       <c r="F905" s="15"/>
     </row>
-    <row r="906" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A906" s="1"/>
       <c r="C906" s="14"/>
       <c r="E906" s="15"/>
       <c r="F906" s="15"/>
     </row>
-    <row r="907" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A907" s="1"/>
       <c r="C907" s="14"/>
       <c r="E907" s="15"/>
       <c r="F907" s="15"/>
     </row>
-    <row r="908" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A908" s="1"/>
       <c r="C908" s="14"/>
       <c r="E908" s="15"/>
       <c r="F908" s="15"/>
     </row>
-    <row r="909" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A909" s="1"/>
       <c r="C909" s="14"/>
       <c r="E909" s="15"/>
       <c r="F909" s="15"/>
     </row>
-    <row r="910" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A910" s="1"/>
       <c r="C910" s="14"/>
       <c r="E910" s="15"/>
       <c r="F910" s="15"/>
     </row>
-    <row r="911" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A911" s="1"/>
       <c r="C911" s="14"/>
       <c r="E911" s="15"/>
       <c r="F911" s="15"/>
     </row>
-    <row r="912" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A912" s="1"/>
       <c r="C912" s="14"/>
       <c r="E912" s="15"/>
       <c r="F912" s="15"/>
     </row>
-    <row r="913" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A913" s="1"/>
       <c r="C913" s="14"/>
       <c r="E913" s="15"/>
       <c r="F913" s="15"/>
     </row>
-    <row r="914" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A914" s="1"/>
       <c r="C914" s="14"/>
       <c r="E914" s="15"/>
       <c r="F914" s="15"/>
     </row>
-    <row r="915" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A915" s="1"/>
       <c r="C915" s="14"/>
       <c r="E915" s="15"/>
       <c r="F915" s="15"/>
     </row>
-    <row r="916" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A916" s="1"/>
       <c r="C916" s="14"/>
       <c r="E916" s="15"/>
       <c r="F916" s="15"/>
     </row>
-    <row r="917" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A917" s="1"/>
       <c r="C917" s="14"/>
       <c r="E917" s="15"/>
       <c r="F917" s="15"/>
     </row>
-    <row r="918" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A918" s="1"/>
       <c r="C918" s="14"/>
       <c r="E918" s="15"/>
       <c r="F918" s="15"/>
     </row>
-    <row r="919" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A919" s="1"/>
       <c r="C919" s="14"/>
       <c r="E919" s="15"/>
       <c r="F919" s="15"/>
     </row>
-    <row r="920" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A920" s="1"/>
       <c r="C920" s="14"/>
       <c r="E920" s="15"/>
       <c r="F920" s="15"/>
     </row>
-    <row r="921" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A921" s="1"/>
       <c r="C921" s="14"/>
       <c r="E921" s="15"/>
       <c r="F921" s="15"/>
     </row>
-    <row r="922" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A922" s="1"/>
       <c r="C922" s="14"/>
       <c r="E922" s="15"/>
       <c r="F922" s="15"/>
     </row>
-    <row r="923" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A923" s="1"/>
       <c r="C923" s="14"/>
       <c r="E923" s="15"/>
       <c r="F923" s="15"/>
     </row>
-    <row r="924" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A924" s="1"/>
       <c r="C924" s="14"/>
       <c r="E924" s="15"/>
       <c r="F924" s="15"/>
     </row>
-    <row r="925" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A925" s="1"/>
       <c r="C925" s="14"/>
       <c r="E925" s="15"/>
       <c r="F925" s="15"/>
     </row>
-    <row r="926" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A926" s="1"/>
       <c r="C926" s="14"/>
       <c r="E926" s="15"/>
       <c r="F926" s="15"/>
     </row>
-    <row r="927" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A927" s="1"/>
       <c r="C927" s="14"/>
       <c r="E927" s="15"/>
       <c r="F927" s="15"/>
     </row>
-    <row r="928" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A928" s="1"/>
       <c r="C928" s="14"/>
       <c r="E928" s="15"/>
       <c r="F928" s="15"/>
     </row>
-    <row r="929" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A929" s="1"/>
       <c r="C929" s="14"/>
       <c r="E929" s="15"/>
       <c r="F929" s="15"/>
     </row>
-    <row r="930" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A930" s="1"/>
       <c r="C930" s="14"/>
       <c r="E930" s="15"/>
       <c r="F930" s="15"/>
     </row>
-    <row r="931" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A931" s="1"/>
       <c r="C931" s="14"/>
       <c r="E931" s="15"/>
       <c r="F931" s="15"/>
     </row>
-    <row r="932" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A932" s="1"/>
       <c r="C932" s="14"/>
       <c r="E932" s="15"/>
       <c r="F932" s="15"/>
     </row>
-    <row r="933" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A933" s="1"/>
       <c r="C933" s="14"/>
       <c r="E933" s="15"/>
       <c r="F933" s="15"/>
     </row>
-    <row r="934" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A934" s="1"/>
       <c r="C934" s="14"/>
       <c r="E934" s="15"/>
       <c r="F934" s="15"/>
     </row>
-    <row r="935" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A935" s="1"/>
       <c r="C935" s="14"/>
       <c r="E935" s="15"/>
       <c r="F935" s="15"/>
     </row>
-    <row r="936" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A936" s="1"/>
       <c r="C936" s="14"/>
       <c r="E936" s="15"/>
       <c r="F936" s="15"/>
     </row>
-    <row r="937" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A937" s="1"/>
       <c r="C937" s="14"/>
       <c r="E937" s="15"/>
       <c r="F937" s="15"/>
     </row>
-    <row r="938" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A938" s="1"/>
       <c r="C938" s="14"/>
       <c r="E938" s="15"/>
       <c r="F938" s="15"/>
     </row>
-    <row r="939" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A939" s="1"/>
       <c r="C939" s="14"/>
       <c r="E939" s="15"/>
       <c r="F939" s="15"/>
     </row>
-    <row r="940" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A940" s="1"/>
       <c r="C940" s="14"/>
       <c r="E940" s="15"/>
       <c r="F940" s="15"/>
     </row>
-    <row r="941" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A941" s="1"/>
       <c r="C941" s="14"/>
       <c r="E941" s="15"/>
       <c r="F941" s="15"/>
     </row>
-    <row r="942" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A942" s="1"/>
       <c r="C942" s="14"/>
       <c r="E942" s="15"/>
       <c r="F942" s="15"/>
     </row>
-    <row r="943" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A943" s="1"/>
       <c r="C943" s="14"/>
       <c r="E943" s="15"/>
       <c r="F943" s="15"/>
     </row>
-    <row r="944" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A944" s="1"/>
       <c r="C944" s="14"/>
       <c r="E944" s="15"/>
       <c r="F944" s="15"/>
     </row>
-    <row r="945" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A945" s="1"/>
       <c r="C945" s="14"/>
       <c r="E945" s="15"/>
       <c r="F945" s="15"/>
     </row>
-    <row r="946" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A946" s="1"/>
       <c r="C946" s="14"/>
       <c r="E946" s="15"/>
       <c r="F946" s="15"/>
     </row>
-    <row r="947" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A947" s="1"/>
       <c r="C947" s="14"/>
       <c r="E947" s="15"/>
       <c r="F947" s="15"/>
     </row>
-    <row r="948" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A948" s="1"/>
       <c r="C948" s="14"/>
       <c r="E948" s="15"/>
       <c r="F948" s="15"/>
     </row>
-    <row r="949" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A949" s="1"/>
       <c r="C949" s="14"/>
       <c r="E949" s="15"/>
       <c r="F949" s="15"/>
     </row>
-    <row r="950" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A950" s="1"/>
       <c r="C950" s="14"/>
       <c r="E950" s="15"/>
       <c r="F950" s="15"/>
     </row>
-    <row r="951" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A951" s="1"/>
       <c r="C951" s="14"/>
       <c r="E951" s="15"/>
       <c r="F951" s="15"/>
     </row>
-    <row r="952" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A952" s="1"/>
       <c r="C952" s="14"/>
       <c r="E952" s="15"/>
       <c r="F952" s="15"/>
     </row>
-    <row r="953" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A953" s="1"/>
       <c r="C953" s="14"/>
       <c r="E953" s="15"/>
       <c r="F953" s="15"/>
     </row>
-    <row r="954" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A954" s="1"/>
       <c r="C954" s="14"/>
       <c r="E954" s="15"/>
       <c r="F954" s="15"/>
     </row>
-    <row r="955" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A955" s="1"/>
       <c r="C955" s="14"/>
       <c r="E955" s="15"/>
       <c r="F955" s="15"/>
     </row>
-    <row r="956" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A956" s="1"/>
       <c r="C956" s="14"/>
       <c r="E956" s="15"/>
       <c r="F956" s="15"/>
     </row>
-    <row r="957" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A957" s="1"/>
       <c r="C957" s="14"/>
       <c r="E957" s="15"/>
       <c r="F957" s="15"/>
     </row>
-    <row r="958" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A958" s="1"/>
       <c r="C958" s="14"/>
       <c r="E958" s="15"/>
       <c r="F958" s="15"/>
     </row>
-    <row r="959" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A959" s="1"/>
       <c r="C959" s="14"/>
       <c r="E959" s="15"/>
       <c r="F959" s="15"/>
     </row>
-    <row r="960" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A960" s="1"/>
       <c r="C960" s="14"/>
       <c r="E960" s="15"/>
       <c r="F960" s="15"/>
     </row>
-    <row r="961" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A961" s="1"/>
       <c r="C961" s="14"/>
       <c r="E961" s="15"/>
       <c r="F961" s="15"/>
     </row>
-    <row r="962" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A962" s="1"/>
       <c r="C962" s="14"/>
       <c r="E962" s="15"/>
       <c r="F962" s="15"/>
     </row>
-    <row r="963" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A963" s="1"/>
       <c r="C963" s="14"/>
       <c r="E963" s="15"/>
       <c r="F963" s="15"/>
     </row>
-    <row r="964" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A964" s="1"/>
       <c r="C964" s="14"/>
       <c r="E964" s="15"/>
       <c r="F964" s="15"/>
     </row>
-    <row r="965" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A965" s="1"/>
       <c r="C965" s="14"/>
       <c r="E965" s="15"/>
       <c r="F965" s="15"/>
     </row>
-    <row r="966" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A966" s="1"/>
       <c r="C966" s="14"/>
       <c r="E966" s="15"/>
       <c r="F966" s="15"/>
     </row>
-    <row r="967" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A967" s="1"/>
       <c r="C967" s="14"/>
       <c r="E967" s="15"/>
       <c r="F967" s="15"/>
     </row>
-    <row r="968" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A968" s="1"/>
       <c r="C968" s="14"/>
       <c r="E968" s="15"/>
       <c r="F968" s="15"/>
     </row>
-    <row r="969" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A969" s="1"/>
       <c r="C969" s="14"/>
       <c r="E969" s="15"/>
       <c r="F969" s="15"/>
     </row>
-    <row r="970" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A970" s="1"/>
       <c r="C970" s="14"/>
       <c r="E970" s="15"/>
       <c r="F970" s="15"/>
     </row>
-    <row r="971" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A971" s="1"/>
       <c r="C971" s="14"/>
       <c r="E971" s="15"/>
       <c r="F971" s="15"/>
     </row>
-    <row r="972" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A972" s="1"/>
       <c r="C972" s="14"/>
       <c r="E972" s="15"/>
       <c r="F972" s="15"/>
     </row>
-    <row r="973" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A973" s="1"/>
       <c r="C973" s="14"/>
       <c r="E973" s="15"/>
       <c r="F973" s="15"/>
     </row>
-    <row r="974" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A974" s="1"/>
       <c r="C974" s="14"/>
       <c r="E974" s="15"/>
       <c r="F974" s="15"/>
     </row>
-    <row r="975" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A975" s="1"/>
       <c r="C975" s="14"/>
       <c r="E975" s="15"/>
       <c r="F975" s="15"/>
     </row>
-    <row r="976" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A976" s="1"/>
       <c r="C976" s="14"/>
       <c r="E976" s="15"/>
       <c r="F976" s="15"/>
     </row>
-    <row r="977" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A977" s="1"/>
       <c r="C977" s="14"/>
       <c r="E977" s="15"/>
       <c r="F977" s="15"/>
     </row>
-    <row r="978" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A978" s="1"/>
       <c r="C978" s="14"/>
       <c r="E978" s="15"/>
       <c r="F978" s="15"/>
     </row>
-    <row r="979" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A979" s="1"/>
       <c r="C979" s="14"/>
       <c r="E979" s="15"/>
       <c r="F979" s="15"/>
     </row>
-    <row r="980" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A980" s="1"/>
       <c r="C980" s="14"/>
       <c r="E980" s="15"/>
       <c r="F980" s="15"/>
     </row>
-    <row r="981" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A981" s="1"/>
       <c r="C981" s="14"/>
       <c r="E981" s="15"/>
       <c r="F981" s="15"/>
     </row>
-    <row r="982" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A982" s="1"/>
       <c r="C982" s="14"/>
       <c r="E982" s="15"/>
       <c r="F982" s="15"/>
     </row>
-    <row r="983" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A983" s="1"/>
       <c r="C983" s="14"/>
       <c r="E983" s="15"/>
       <c r="F983" s="15"/>
     </row>
-    <row r="984" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A984" s="1"/>
       <c r="C984" s="14"/>
       <c r="E984" s="15"/>
       <c r="F984" s="15"/>
     </row>
-    <row r="985" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A985" s="1"/>
       <c r="C985" s="14"/>
       <c r="E985" s="15"/>
       <c r="F985" s="15"/>
     </row>
-    <row r="986" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A986" s="1"/>
       <c r="C986" s="14"/>
       <c r="E986" s="15"/>
       <c r="F986" s="15"/>
     </row>
-    <row r="987" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A987" s="1"/>
       <c r="C987" s="14"/>
       <c r="E987" s="15"/>
       <c r="F987" s="15"/>
     </row>
-    <row r="988" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A988" s="1"/>
       <c r="C988" s="14"/>
       <c r="E988" s="15"/>
       <c r="F988" s="15"/>
     </row>
-    <row r="989" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A989" s="1"/>
       <c r="C989" s="14"/>
       <c r="E989" s="15"/>
       <c r="F989" s="15"/>
     </row>
-    <row r="990" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A990" s="1"/>
       <c r="C990" s="14"/>
       <c r="E990" s="15"/>
       <c r="F990" s="15"/>
     </row>
-    <row r="991" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A991" s="1"/>
       <c r="C991" s="14"/>
       <c r="E991" s="15"/>
       <c r="F991" s="15"/>
     </row>
-    <row r="992" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A992" s="1"/>
       <c r="C992" s="14"/>
       <c r="E992" s="15"/>
       <c r="F992" s="15"/>
     </row>
-    <row r="993" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A993" s="1"/>
       <c r="C993" s="14"/>
       <c r="E993" s="15"/>
       <c r="F993" s="15"/>
     </row>
-    <row r="994" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A994" s="1"/>
       <c r="C994" s="14"/>
       <c r="E994" s="15"/>
       <c r="F994" s="15"/>
     </row>
-    <row r="995" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A995" s="1"/>
       <c r="C995" s="14"/>
       <c r="E995" s="15"/>
       <c r="F995" s="15"/>
     </row>
-    <row r="996" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A996" s="1"/>
       <c r="C996" s="14"/>
       <c r="E996" s="15"/>
       <c r="F996" s="15"/>
     </row>
-    <row r="997" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A997" s="1"/>
       <c r="C997" s="14"/>
       <c r="E997" s="15"/>
       <c r="F997" s="15"/>
     </row>
-    <row r="998" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A998" s="1"/>
       <c r="C998" s="14"/>
       <c r="E998" s="15"/>
       <c r="F998" s="15"/>
     </row>
-    <row r="999" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A999" s="1"/>
       <c r="C999" s="14"/>
       <c r="E999" s="15"/>
@@ -6947,7 +6947,7 @@
     <hyperlink ref="D5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="D6" r:id="rId3" display="https://tr.aliexpress.com/item/1005002433089452.html?spm=a2g0o.productlist.0.0.6df4339dj4oS1S&amp;algo_pvid=eef124f3-aa1b-4b96-89e0-ad25bf102b57&amp;algo_exp_id=eef124f3-aa1b-4b96-89e0-ad25bf102b57-1&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000020637330225%22%7D&amp;pdp_pi=-1%3B229.88%3B-1%3B-1%40salePrice%3BTRY%3Bsearch-mainSearch" xr:uid="{16AA3ECD-71CB-49FD-866B-93CDBCEF4137}"/>
     <hyperlink ref="D11" r:id="rId4" xr:uid="{95FFB78C-EA5E-46A1-B6FD-9F43B2DAF773}"/>
-    <hyperlink ref="D7" r:id="rId5" display="https://tr.aliexpress.com/item/4000515981633.html?srcSns=sns_Copy&amp;spreadType=socialShare&amp;bizType=ProductDetail&amp;social_params=60127423009&amp;aff_fcid=19a75fdcbf1447788414c6a45c1b24a1-1645623996073-09281-_v1f4tz&amp;tt=MG&amp;aff_fsk=_v1f4tz&amp;aff_platform=default&amp;sk=_v1f4tz&amp;aff_trace_key=19a75fdcbf1447788414c6a45c1b24a1-1645623996073-09281-_v1f4tz&amp;shareId=60127423009&amp;businessType=ProductDetail&amp;platform=AE&amp;terminal_id=049bd3b5c15345dfb6e0fe1b4af8a5dc&amp;afSmartRedirect=n" xr:uid="{027DDC9B-BE54-4DC5-B958-BF7A4283758B}"/>
+    <hyperlink ref="D7" r:id="rId5" display="https://tr.aliexpress.com/item/1005002091320352.html?spm=a2g0o.productlist.0.0.6b434734jrg0UW&amp;algo_pvid=4204bc8e-aea8-425b-ba4c-1e81517e3476&amp;aem_p4p_detail=202202251157521922757826983800005938282&amp;algo_exp_id=4204bc8e-aea8-425b-ba4c-1e81517e3476-14&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000018711741545%22%7D&amp;pdp_pi=-1%3B71.26%3B-1%3B5407%40salePrice%3BTRY%3Bsearch-mainSearch" xr:uid="{027DDC9B-BE54-4DC5-B958-BF7A4283758B}"/>
     <hyperlink ref="D8" r:id="rId6" display="https://tr.aliexpress.com/item/1708771731.html?srcSns=sns_Copy&amp;spreadType=socialShare&amp;bizType=ProductDetail&amp;social_params=60126720893&amp;aff_fcid=d949310bedbd458b9e26562ffe64d2a1-1645624201126-07754-_ufV0AX&amp;tt=MG&amp;aff_fsk=_ufV0AX&amp;aff_platform=default&amp;sk=_ufV0AX&amp;aff_trace_key=d949310bedbd458b9e26562ffe64d2a1-1645624201126-07754-_ufV0AX&amp;shareId=60126720893&amp;businessType=ProductDetail&amp;platform=AE&amp;terminal_id=049bd3b5c15345dfb6e0fe1b4af8a5dc&amp;afSmartRedirect=n" xr:uid="{534F16AA-D542-415A-BB98-7541DF6C72CB}"/>
     <hyperlink ref="D9" r:id="rId7" xr:uid="{92F5E79F-55A1-40D0-A89E-D2AD5CA2889B}"/>
     <hyperlink ref="D10" r:id="rId8" xr:uid="{55AEEE80-2C6E-4E53-ACE4-B6FCD979C937}"/>

--- a/rapor dosyaları/Malzeme Talep ListesiV1 .xlsx
+++ b/rapor dosyaları/Malzeme Talep ListesiV1 .xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samet\Documents\GitHub\rapor dosyaları\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d82cb3954a51c9e/Belgeler/GitHub/rapor dosyaları/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74BBDF5-F7ED-42CA-98F1-A13F0DABC98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{A74BBDF5-F7ED-42CA-98F1-A13F0DABC98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{455002A1-104E-4702-93B3-281F16508996}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="38616" windowHeight="21096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Sıra
 No</t>
@@ -96,9 +96,6 @@
     <t>https://tr.aliexpress.com/item/1005002433089452.html?spm=a2g0o.productlist.0.0.6df4339dj4oS1S&amp;algo_pvid=eef124f3-aa1b-4b96-89e0-ad25bf102b57&amp;algo_exp_id=eef124f3-aa1b-4b96-89e0-ad25bf102b57-1&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000020637330225%22%7D&amp;pdp_pi=-1%3B229.88%3B-1%3B-1%40salePrice%3BTRY%3Bsearch-mainSearch</t>
   </si>
   <si>
-    <t>https://tr.aliexpress.com/item/1005002001651339.html?spm=a2g0o.productlist.0.0.2b747162veodEz&amp;algo_pvid=2f9df431-817a-4ca4-a0cb-67106812d41f&amp;algo_exp_id=2f9df431-817a-4ca4-a0cb-67106812d41f-25&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000018372797400%22%7D&amp;pdp_pi=-1%3B1729.67%3B-1%3B17125%40salePrice%3BTRY%3Bsearch-mainSearch</t>
-  </si>
-  <si>
     <t>https://www.f1depo.com/3S-111V-Lipo-Pil-Batarya-1000mAh-25C,PR-539.html</t>
   </si>
   <si>
@@ -117,19 +114,10 @@
     <t>EMAX ES08MDII 12gr, tork 2.4kg : Metal</t>
   </si>
   <si>
-    <t>f7 kontrolcü + 4in 1 esc 45a blheliAAAA</t>
-  </si>
-  <si>
     <t>tower pro sg 5010 servo</t>
   </si>
   <si>
     <t>https://www.robotistan.com/tower-pro-sg-5010-rc-servo-motor</t>
-  </si>
-  <si>
-    <t>https://tr.aliexpress.com/item/1005001950159522.html?srcSns=sns_Copy&amp;spreadType=socialShare&amp;bizType=ProductDetail&amp;social_params=60141017997&amp;aff_fcid=cfd190b6eba34e66a47e07e0a7e333ef-1645625009909-00743-_voLUSG&amp;tt=MG&amp;aff_fsk=_voLUSG&amp;aff_platform=default&amp;sk=_voLUSG&amp;aff_trace_key=cfd190b6eba34e66a47e07e0a7e333ef-1645625009909-00743-_voLUSG&amp;shareId=60141017997&amp;businessType=ProductDetail&amp;platform=AE&amp;terminal_id=bbdb96ebd8ef42e0996c8f6077033052&amp;afSmartRedirect=y</t>
-  </si>
-  <si>
-    <t>900kv motor</t>
   </si>
   <si>
     <t>pixhawk px4 full set</t>
@@ -178,27 +166,52 @@
     <t>2s 6s  70a esc 5v bec</t>
   </si>
   <si>
-    <t>https://www.promodelhobby.com/urun/haoye-13x6-pervane</t>
-  </si>
-  <si>
-    <t>13x6 PERVANE</t>
-  </si>
-  <si>
     <t>leopard 5s 7000 mah batarya lipo</t>
   </si>
   <si>
-    <t>lora sx1276 433mhz iletişim modülü</t>
+    <t>apc 12x6 PERVANE</t>
   </si>
   <si>
-    <t>https://tr.aliexpress.com/item/1005002091320352.html?spm=a2g0o.productlist.0.0.6b434734jrg0UW&amp;algo_pvid=4204bc8e-aea8-425b-ba4c-1e81517e3476&amp;aem_p4p_detail=202202251157521922757826983800005938282&amp;algo_exp_id=4204bc8e-aea8-425b-ba4c-1e81517e3476-14&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000018711741545%22%7D&amp;pdp_pi=-1%3B71.26%3B-1%3B5407%40salePrice%3BTRY%3Bsearch-mainSearch</t>
+    <t>https://www.promodelhobby.com/urun/apc-tip-12x6e-thin-elektrik-pervane-1260</t>
+  </si>
+  <si>
+    <t>760kv motor x3120</t>
+  </si>
+  <si>
+    <t>https://tr.aliexpress.com/item/1005002136233215.html?gatewayAdapt=glo2tur&amp;spm=a2g0s.8937460.0.0.5c772e0e2uugAA</t>
+  </si>
+  <si>
+    <t>https://a.aliexpress.com/_vDL04x</t>
+  </si>
+  <si>
+    <t>esp32 wifi telemetry for pixhawk</t>
+  </si>
+  <si>
+    <t>pixhawk mini pix (and gps git)</t>
+  </si>
+  <si>
+    <t>https://tr.aliexpress.com/item/32972733396.html?srcSns=sns_Copy&amp;spreadType=socialShare&amp;bizType=ProductDetail&amp;social_params=60142782045&amp;aff_fcid=e5de18573eb24f4fb95687407413d5c7-1645962552684-03910-_uzOlLV&amp;tt=MG&amp;aff_fsk=_uzOlLV&amp;aff_platform=default&amp;sk=_uzOlLV&amp;aff_trace_key=e5de18573eb24f4fb95687407413d5c7-1645962552684-03910-_uzOlLV&amp;shareId=60142782045&amp;businessType=ProductDetail&amp;platform=AE&amp;terminal_id=bbdb96ebd8ef42e0996c8f6077033052&amp;afSmartRedirect=y</t>
+  </si>
+  <si>
+    <t>https://tr.aliexpress.com/item/4000009680144.html?srcSns=sns_Copy&amp;spreadType=socialShare&amp;bizType=ProductDetail&amp;social_params=60142267499&amp;aff_fcid=ba8db12c8eef493ebe06221d62f1b8ec-1645962743634-08386-_uvOWnt&amp;tt=MG&amp;aff_fsk=_uvOWnt&amp;aff_platform=default&amp;sk=_uvOWnt&amp;aff_trace_key=ba8db12c8eef493ebe06221d62f1b8ec-1645962743634-08386-_uvOWnt&amp;shareId=60142267499&amp;businessType=ProductDetail&amp;platform=AE&amp;terminal_id=bbdb96ebd8ef42e0996c8f6077033052&amp;afSmartRedirect=y</t>
+  </si>
+  <si>
+    <t>15a 4in1 20x20 esc dshot blheli</t>
+  </si>
+  <si>
+    <t>2 6s bec 5v step down</t>
+  </si>
+  <si>
+    <t>https://tr.aliexpress.com/item/4001297540131.html?srcSns=sns_Copy&amp;spreadType=socialShare&amp;bizType=ProductDetail&amp;social_params=60142819959&amp;aff_fcid=ed86c432cda84ba2a3da1dad81236dbb-1645962977074-00295-_uy2jAx&amp;tt=MG&amp;aff_fsk=_uy2jAx&amp;aff_platform=default&amp;sk=_uy2jAx&amp;aff_trace_key=ed86c432cda84ba2a3da1dad81236dbb-1645962977074-00295-_uy2jAx&amp;shareId=60142819959&amp;businessType=ProductDetail&amp;platform=AE&amp;terminal_id=bbdb96ebd8ef42e0996c8f6077033052&amp;afSmartRedirect=y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₺&quot;"/>
+    <numFmt numFmtId="165" formatCode="&quot;₺&quot;#,##0.00"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -230,16 +243,15 @@
       <charset val="162"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
@@ -398,7 +410,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -435,9 +447,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -453,6 +465,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Köprü" xfId="1" builtinId="8"/>
@@ -672,31 +685,31 @@
   <dimension ref="A1:Y999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
     <col min="2" max="2" width="37" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="30.88671875" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="25" width="8.6640625" customWidth="1"/>
+    <col min="7" max="25" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="20" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
       <c r="E1" s="21"/>
       <c r="F1" s="22"/>
     </row>
-    <row r="2" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -735,38 +748,38 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
     </row>
-    <row r="3" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>15</v>
+      <c r="B3" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="C3" s="9">
         <v>3</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E3" s="11">
-        <v>2079</v>
+        <v>1360</v>
       </c>
       <c r="F3" s="12">
-        <v>6567</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4080</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="9">
         <v>12</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="11">
         <v>90</v>
@@ -776,18 +789,18 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="9">
         <v>3</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="11">
         <v>230</v>
@@ -797,7 +810,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -817,39 +830,39 @@
         <v>3780</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E7" s="12">
-        <v>143.22999999999999</v>
+        <v>200</v>
       </c>
       <c r="F7" s="12">
-        <f t="shared" ref="F7:F16" si="1">E7*C7</f>
-        <v>716.15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="F7:F18" si="1">E7*C7</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="9">
         <v>10</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="12">
         <v>225.98</v>
@@ -859,39 +872,40 @@
         <v>2259.7999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>32</v>
+      <c r="B9" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E9" s="12">
-        <v>92</v>
+        <v>60.97</v>
       </c>
       <c r="F9" s="12">
         <f t="shared" si="1"/>
-        <v>920</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>914.55</v>
+      </c>
+      <c r="I9" s="32"/>
+    </row>
+    <row r="10" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>16</v>
+      <c r="B10" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="C10" s="9">
         <v>2</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E10" s="12">
         <v>58.66</v>
@@ -901,18 +915,18 @@
         <v>117.32</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C11" s="9">
         <v>1</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E11" s="12">
         <v>1770</v>
@@ -922,39 +936,39 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>10</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>19</v>
+      <c r="B12" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="C12" s="9">
         <v>3</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E12" s="12">
-        <v>375</v>
+        <v>840</v>
       </c>
       <c r="F12" s="12">
         <f t="shared" si="1"/>
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>11</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>30</v>
+      <c r="B13" s="18" t="s">
+        <v>26</v>
       </c>
       <c r="C13" s="9">
         <v>2</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E13" s="12">
         <v>693</v>
@@ -964,18 +978,18 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>12</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>20</v>
+      <c r="B14" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="C14" s="9">
         <v>1</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E14" s="12">
         <v>4350</v>
@@ -985,18 +999,18 @@
         <v>4350</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>13</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>22</v>
+      <c r="B15" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="C15" s="9">
         <v>1</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E15" s="12">
         <v>130</v>
@@ -1006,18 +1020,18 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>14</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>24</v>
+      <c r="B16" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="C16" s="9">
         <v>1</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E16" s="12">
         <v>404</v>
@@ -1027,31 +1041,57 @@
         <v>404</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>15</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="9">
+        <v>3</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="12">
+        <v>290</v>
+      </c>
+      <c r="F17" s="12">
+        <f t="shared" si="1"/>
+        <v>870</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>16</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="9">
+        <v>4</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="12">
+        <v>70</v>
+      </c>
+      <c r="F18" s="12">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="C19" s="14"/>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
     </row>
-    <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>
@@ -1059,7 +1099,7 @@
       <c r="E20" s="24"/>
       <c r="F20" s="25"/>
     </row>
-    <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
@@ -1067,7 +1107,7 @@
       <c r="E21" s="27"/>
       <c r="F21" s="28"/>
     </row>
-    <row r="22" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29"/>
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
@@ -1075,5863 +1115,5863 @@
       <c r="E22" s="30"/>
       <c r="F22" s="31"/>
     </row>
-    <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="C23" s="14"/>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
     </row>
-    <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="C24" s="14"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
     </row>
-    <row r="25" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="C25" s="14"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
     </row>
-    <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="C26" s="14"/>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
     </row>
-    <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="C27" s="14"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
     </row>
-    <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="C28" s="14"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
     </row>
-    <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="C29" s="14"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
     </row>
-    <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="C30" s="14"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
     </row>
-    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="C31" s="14"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
     </row>
-    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="C32" s="14"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
     </row>
-    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="C33" s="14"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
     </row>
-    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="C34" s="14"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
     </row>
-    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="C35" s="14"/>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
     </row>
-    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="C36" s="14"/>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
     </row>
-    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="C37" s="14"/>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
     </row>
-    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="C38" s="14"/>
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
     </row>
-    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="C39" s="14"/>
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
     </row>
-    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="C40" s="14"/>
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
     </row>
-    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="C41" s="14"/>
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
     </row>
-    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="C42" s="14"/>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
     </row>
-    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="C43" s="14"/>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
     </row>
-    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="C44" s="14"/>
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
     </row>
-    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="C45" s="14"/>
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
     </row>
-    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="C46" s="14"/>
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
     </row>
-    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="C47" s="14"/>
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
     </row>
-    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="C48" s="14"/>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
     </row>
-    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="C49" s="14"/>
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
     </row>
-    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="C50" s="14"/>
       <c r="E50" s="15"/>
       <c r="F50" s="15"/>
     </row>
-    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="C51" s="14"/>
       <c r="E51" s="15"/>
       <c r="F51" s="15"/>
     </row>
-    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="C52" s="14"/>
       <c r="E52" s="15"/>
       <c r="F52" s="15"/>
     </row>
-    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="C53" s="14"/>
       <c r="E53" s="15"/>
       <c r="F53" s="15"/>
     </row>
-    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="C54" s="14"/>
       <c r="E54" s="15"/>
       <c r="F54" s="15"/>
     </row>
-    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="C55" s="14"/>
       <c r="E55" s="15"/>
       <c r="F55" s="15"/>
     </row>
-    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="C56" s="14"/>
       <c r="E56" s="15"/>
       <c r="F56" s="15"/>
     </row>
-    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="C57" s="14"/>
       <c r="E57" s="15"/>
       <c r="F57" s="15"/>
     </row>
-    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="C58" s="14"/>
       <c r="E58" s="15"/>
       <c r="F58" s="15"/>
     </row>
-    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="C59" s="14"/>
       <c r="E59" s="15"/>
       <c r="F59" s="15"/>
     </row>
-    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="C60" s="14"/>
       <c r="E60" s="15"/>
       <c r="F60" s="15"/>
     </row>
-    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="C61" s="14"/>
       <c r="E61" s="15"/>
       <c r="F61" s="15"/>
     </row>
-    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="C62" s="14"/>
       <c r="E62" s="15"/>
       <c r="F62" s="15"/>
     </row>
-    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="C63" s="14"/>
       <c r="E63" s="15"/>
       <c r="F63" s="15"/>
     </row>
-    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="C64" s="14"/>
       <c r="E64" s="15"/>
       <c r="F64" s="15"/>
     </row>
-    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="C65" s="14"/>
       <c r="E65" s="15"/>
       <c r="F65" s="15"/>
     </row>
-    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="C66" s="14"/>
       <c r="E66" s="15"/>
       <c r="F66" s="15"/>
     </row>
-    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="C67" s="14"/>
       <c r="E67" s="15"/>
       <c r="F67" s="15"/>
     </row>
-    <row r="68" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="C68" s="14"/>
       <c r="E68" s="15"/>
       <c r="F68" s="15"/>
     </row>
-    <row r="69" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="C69" s="14"/>
       <c r="E69" s="15"/>
       <c r="F69" s="15"/>
     </row>
-    <row r="70" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="C70" s="14"/>
       <c r="E70" s="15"/>
       <c r="F70" s="15"/>
     </row>
-    <row r="71" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="C71" s="14"/>
       <c r="E71" s="15"/>
       <c r="F71" s="15"/>
     </row>
-    <row r="72" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="C72" s="14"/>
       <c r="E72" s="15"/>
       <c r="F72" s="15"/>
     </row>
-    <row r="73" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="C73" s="14"/>
       <c r="E73" s="15"/>
       <c r="F73" s="15"/>
     </row>
-    <row r="74" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="C74" s="14"/>
       <c r="E74" s="15"/>
       <c r="F74" s="15"/>
     </row>
-    <row r="75" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="C75" s="14"/>
       <c r="E75" s="15"/>
       <c r="F75" s="15"/>
     </row>
-    <row r="76" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="C76" s="14"/>
       <c r="E76" s="15"/>
       <c r="F76" s="15"/>
     </row>
-    <row r="77" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="C77" s="14"/>
       <c r="E77" s="15"/>
       <c r="F77" s="15"/>
     </row>
-    <row r="78" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="C78" s="14"/>
       <c r="E78" s="15"/>
       <c r="F78" s="15"/>
     </row>
-    <row r="79" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="C79" s="14"/>
       <c r="E79" s="15"/>
       <c r="F79" s="15"/>
     </row>
-    <row r="80" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="C80" s="14"/>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
     </row>
-    <row r="81" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="C81" s="14"/>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
     </row>
-    <row r="82" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="C82" s="14"/>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
     </row>
-    <row r="83" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="C83" s="14"/>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
     </row>
-    <row r="84" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="C84" s="14"/>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
     </row>
-    <row r="85" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="C85" s="14"/>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
     </row>
-    <row r="86" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="C86" s="14"/>
       <c r="E86" s="15"/>
       <c r="F86" s="15"/>
     </row>
-    <row r="87" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="C87" s="14"/>
       <c r="E87" s="15"/>
       <c r="F87" s="15"/>
     </row>
-    <row r="88" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="C88" s="14"/>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
     </row>
-    <row r="89" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="C89" s="14"/>
       <c r="E89" s="15"/>
       <c r="F89" s="15"/>
     </row>
-    <row r="90" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="C90" s="14"/>
       <c r="E90" s="15"/>
       <c r="F90" s="15"/>
     </row>
-    <row r="91" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="C91" s="14"/>
       <c r="E91" s="15"/>
       <c r="F91" s="15"/>
     </row>
-    <row r="92" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="C92" s="14"/>
       <c r="E92" s="15"/>
       <c r="F92" s="15"/>
     </row>
-    <row r="93" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="C93" s="14"/>
       <c r="E93" s="15"/>
       <c r="F93" s="15"/>
     </row>
-    <row r="94" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="C94" s="14"/>
       <c r="E94" s="15"/>
       <c r="F94" s="15"/>
     </row>
-    <row r="95" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="C95" s="14"/>
       <c r="E95" s="15"/>
       <c r="F95" s="15"/>
     </row>
-    <row r="96" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="C96" s="14"/>
       <c r="E96" s="15"/>
       <c r="F96" s="15"/>
     </row>
-    <row r="97" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="C97" s="14"/>
       <c r="E97" s="15"/>
       <c r="F97" s="15"/>
     </row>
-    <row r="98" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="C98" s="14"/>
       <c r="E98" s="15"/>
       <c r="F98" s="15"/>
     </row>
-    <row r="99" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="C99" s="14"/>
       <c r="E99" s="15"/>
       <c r="F99" s="15"/>
     </row>
-    <row r="100" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="C100" s="14"/>
       <c r="E100" s="15"/>
       <c r="F100" s="15"/>
     </row>
-    <row r="101" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="C101" s="14"/>
       <c r="E101" s="15"/>
       <c r="F101" s="15"/>
     </row>
-    <row r="102" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="C102" s="14"/>
       <c r="E102" s="15"/>
       <c r="F102" s="15"/>
     </row>
-    <row r="103" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="C103" s="14"/>
       <c r="E103" s="15"/>
       <c r="F103" s="15"/>
     </row>
-    <row r="104" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="C104" s="14"/>
       <c r="E104" s="15"/>
       <c r="F104" s="15"/>
     </row>
-    <row r="105" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="C105" s="14"/>
       <c r="E105" s="15"/>
       <c r="F105" s="15"/>
     </row>
-    <row r="106" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="C106" s="14"/>
       <c r="E106" s="15"/>
       <c r="F106" s="15"/>
     </row>
-    <row r="107" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="C107" s="14"/>
       <c r="E107" s="15"/>
       <c r="F107" s="15"/>
     </row>
-    <row r="108" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="C108" s="14"/>
       <c r="E108" s="15"/>
       <c r="F108" s="15"/>
     </row>
-    <row r="109" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="C109" s="14"/>
       <c r="E109" s="15"/>
       <c r="F109" s="15"/>
     </row>
-    <row r="110" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="C110" s="14"/>
       <c r="E110" s="15"/>
       <c r="F110" s="15"/>
     </row>
-    <row r="111" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="C111" s="14"/>
       <c r="E111" s="15"/>
       <c r="F111" s="15"/>
     </row>
-    <row r="112" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="C112" s="14"/>
       <c r="E112" s="15"/>
       <c r="F112" s="15"/>
     </row>
-    <row r="113" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="C113" s="14"/>
       <c r="E113" s="15"/>
       <c r="F113" s="15"/>
     </row>
-    <row r="114" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="C114" s="14"/>
       <c r="E114" s="15"/>
       <c r="F114" s="15"/>
     </row>
-    <row r="115" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="C115" s="14"/>
       <c r="E115" s="15"/>
       <c r="F115" s="15"/>
     </row>
-    <row r="116" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="C116" s="14"/>
       <c r="E116" s="15"/>
       <c r="F116" s="15"/>
     </row>
-    <row r="117" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="C117" s="14"/>
       <c r="E117" s="15"/>
       <c r="F117" s="15"/>
     </row>
-    <row r="118" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="C118" s="14"/>
       <c r="E118" s="15"/>
       <c r="F118" s="15"/>
     </row>
-    <row r="119" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="C119" s="14"/>
       <c r="E119" s="15"/>
       <c r="F119" s="15"/>
     </row>
-    <row r="120" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="C120" s="14"/>
       <c r="E120" s="15"/>
       <c r="F120" s="15"/>
     </row>
-    <row r="121" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="C121" s="14"/>
       <c r="E121" s="15"/>
       <c r="F121" s="15"/>
     </row>
-    <row r="122" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="C122" s="14"/>
       <c r="E122" s="15"/>
       <c r="F122" s="15"/>
     </row>
-    <row r="123" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="C123" s="14"/>
       <c r="E123" s="15"/>
       <c r="F123" s="15"/>
     </row>
-    <row r="124" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="C124" s="14"/>
       <c r="E124" s="15"/>
       <c r="F124" s="15"/>
     </row>
-    <row r="125" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="C125" s="14"/>
       <c r="E125" s="15"/>
       <c r="F125" s="15"/>
     </row>
-    <row r="126" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="C126" s="14"/>
       <c r="E126" s="15"/>
       <c r="F126" s="15"/>
     </row>
-    <row r="127" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="C127" s="14"/>
       <c r="E127" s="15"/>
       <c r="F127" s="15"/>
     </row>
-    <row r="128" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="C128" s="14"/>
       <c r="E128" s="15"/>
       <c r="F128" s="15"/>
     </row>
-    <row r="129" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="C129" s="14"/>
       <c r="E129" s="15"/>
       <c r="F129" s="15"/>
     </row>
-    <row r="130" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="C130" s="14"/>
       <c r="E130" s="15"/>
       <c r="F130" s="15"/>
     </row>
-    <row r="131" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="C131" s="14"/>
       <c r="E131" s="15"/>
       <c r="F131" s="15"/>
     </row>
-    <row r="132" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="C132" s="14"/>
       <c r="E132" s="15"/>
       <c r="F132" s="15"/>
     </row>
-    <row r="133" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="C133" s="14"/>
       <c r="E133" s="15"/>
       <c r="F133" s="15"/>
     </row>
-    <row r="134" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="C134" s="14"/>
       <c r="E134" s="15"/>
       <c r="F134" s="15"/>
     </row>
-    <row r="135" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="C135" s="14"/>
       <c r="E135" s="15"/>
       <c r="F135" s="15"/>
     </row>
-    <row r="136" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="C136" s="14"/>
       <c r="E136" s="15"/>
       <c r="F136" s="15"/>
     </row>
-    <row r="137" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="C137" s="14"/>
       <c r="E137" s="15"/>
       <c r="F137" s="15"/>
     </row>
-    <row r="138" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="C138" s="14"/>
       <c r="E138" s="15"/>
       <c r="F138" s="15"/>
     </row>
-    <row r="139" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="C139" s="14"/>
       <c r="E139" s="15"/>
       <c r="F139" s="15"/>
     </row>
-    <row r="140" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="C140" s="14"/>
       <c r="E140" s="15"/>
       <c r="F140" s="15"/>
     </row>
-    <row r="141" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="C141" s="14"/>
       <c r="E141" s="15"/>
       <c r="F141" s="15"/>
     </row>
-    <row r="142" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="C142" s="14"/>
       <c r="E142" s="15"/>
       <c r="F142" s="15"/>
     </row>
-    <row r="143" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="C143" s="14"/>
       <c r="E143" s="15"/>
       <c r="F143" s="15"/>
     </row>
-    <row r="144" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="C144" s="14"/>
       <c r="E144" s="15"/>
       <c r="F144" s="15"/>
     </row>
-    <row r="145" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="C145" s="14"/>
       <c r="E145" s="15"/>
       <c r="F145" s="15"/>
     </row>
-    <row r="146" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="C146" s="14"/>
       <c r="E146" s="15"/>
       <c r="F146" s="15"/>
     </row>
-    <row r="147" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="C147" s="14"/>
       <c r="E147" s="15"/>
       <c r="F147" s="15"/>
     </row>
-    <row r="148" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="C148" s="14"/>
       <c r="E148" s="15"/>
       <c r="F148" s="15"/>
     </row>
-    <row r="149" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="C149" s="14"/>
       <c r="E149" s="15"/>
       <c r="F149" s="15"/>
     </row>
-    <row r="150" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="C150" s="14"/>
       <c r="E150" s="15"/>
       <c r="F150" s="15"/>
     </row>
-    <row r="151" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="C151" s="14"/>
       <c r="E151" s="15"/>
       <c r="F151" s="15"/>
     </row>
-    <row r="152" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="C152" s="14"/>
       <c r="E152" s="15"/>
       <c r="F152" s="15"/>
     </row>
-    <row r="153" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="C153" s="14"/>
       <c r="E153" s="15"/>
       <c r="F153" s="15"/>
     </row>
-    <row r="154" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="C154" s="14"/>
       <c r="E154" s="15"/>
       <c r="F154" s="15"/>
     </row>
-    <row r="155" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="C155" s="14"/>
       <c r="E155" s="15"/>
       <c r="F155" s="15"/>
     </row>
-    <row r="156" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="C156" s="14"/>
       <c r="E156" s="15"/>
       <c r="F156" s="15"/>
     </row>
-    <row r="157" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="C157" s="14"/>
       <c r="E157" s="15"/>
       <c r="F157" s="15"/>
     </row>
-    <row r="158" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="C158" s="14"/>
       <c r="E158" s="15"/>
       <c r="F158" s="15"/>
     </row>
-    <row r="159" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="C159" s="14"/>
       <c r="E159" s="15"/>
       <c r="F159" s="15"/>
     </row>
-    <row r="160" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="C160" s="14"/>
       <c r="E160" s="15"/>
       <c r="F160" s="15"/>
     </row>
-    <row r="161" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="C161" s="14"/>
       <c r="E161" s="15"/>
       <c r="F161" s="15"/>
     </row>
-    <row r="162" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="C162" s="14"/>
       <c r="E162" s="15"/>
       <c r="F162" s="15"/>
     </row>
-    <row r="163" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="C163" s="14"/>
       <c r="E163" s="15"/>
       <c r="F163" s="15"/>
     </row>
-    <row r="164" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="C164" s="14"/>
       <c r="E164" s="15"/>
       <c r="F164" s="15"/>
     </row>
-    <row r="165" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="C165" s="14"/>
       <c r="E165" s="15"/>
       <c r="F165" s="15"/>
     </row>
-    <row r="166" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="C166" s="14"/>
       <c r="E166" s="15"/>
       <c r="F166" s="15"/>
     </row>
-    <row r="167" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="C167" s="14"/>
       <c r="E167" s="15"/>
       <c r="F167" s="15"/>
     </row>
-    <row r="168" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="C168" s="14"/>
       <c r="E168" s="15"/>
       <c r="F168" s="15"/>
     </row>
-    <row r="169" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="C169" s="14"/>
       <c r="E169" s="15"/>
       <c r="F169" s="15"/>
     </row>
-    <row r="170" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="C170" s="14"/>
       <c r="E170" s="15"/>
       <c r="F170" s="15"/>
     </row>
-    <row r="171" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="C171" s="14"/>
       <c r="E171" s="15"/>
       <c r="F171" s="15"/>
     </row>
-    <row r="172" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="C172" s="14"/>
       <c r="E172" s="15"/>
       <c r="F172" s="15"/>
     </row>
-    <row r="173" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="C173" s="14"/>
       <c r="E173" s="15"/>
       <c r="F173" s="15"/>
     </row>
-    <row r="174" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="C174" s="14"/>
       <c r="E174" s="15"/>
       <c r="F174" s="15"/>
     </row>
-    <row r="175" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="C175" s="14"/>
       <c r="E175" s="15"/>
       <c r="F175" s="15"/>
     </row>
-    <row r="176" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="C176" s="14"/>
       <c r="E176" s="15"/>
       <c r="F176" s="15"/>
     </row>
-    <row r="177" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="C177" s="14"/>
       <c r="E177" s="15"/>
       <c r="F177" s="15"/>
     </row>
-    <row r="178" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="C178" s="14"/>
       <c r="E178" s="15"/>
       <c r="F178" s="15"/>
     </row>
-    <row r="179" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="C179" s="14"/>
       <c r="E179" s="15"/>
       <c r="F179" s="15"/>
     </row>
-    <row r="180" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="C180" s="14"/>
       <c r="E180" s="15"/>
       <c r="F180" s="15"/>
     </row>
-    <row r="181" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="C181" s="14"/>
       <c r="E181" s="15"/>
       <c r="F181" s="15"/>
     </row>
-    <row r="182" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="C182" s="14"/>
       <c r="E182" s="15"/>
       <c r="F182" s="15"/>
     </row>
-    <row r="183" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="C183" s="14"/>
       <c r="E183" s="15"/>
       <c r="F183" s="15"/>
     </row>
-    <row r="184" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="C184" s="14"/>
       <c r="E184" s="15"/>
       <c r="F184" s="15"/>
     </row>
-    <row r="185" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="C185" s="14"/>
       <c r="E185" s="15"/>
       <c r="F185" s="15"/>
     </row>
-    <row r="186" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="C186" s="14"/>
       <c r="E186" s="15"/>
       <c r="F186" s="15"/>
     </row>
-    <row r="187" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="C187" s="14"/>
       <c r="E187" s="15"/>
       <c r="F187" s="15"/>
     </row>
-    <row r="188" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="C188" s="14"/>
       <c r="E188" s="15"/>
       <c r="F188" s="15"/>
     </row>
-    <row r="189" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="C189" s="14"/>
       <c r="E189" s="15"/>
       <c r="F189" s="15"/>
     </row>
-    <row r="190" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="C190" s="14"/>
       <c r="E190" s="15"/>
       <c r="F190" s="15"/>
     </row>
-    <row r="191" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="C191" s="14"/>
       <c r="E191" s="15"/>
       <c r="F191" s="15"/>
     </row>
-    <row r="192" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="C192" s="14"/>
       <c r="E192" s="15"/>
       <c r="F192" s="15"/>
     </row>
-    <row r="193" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="C193" s="14"/>
       <c r="E193" s="15"/>
       <c r="F193" s="15"/>
     </row>
-    <row r="194" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="C194" s="14"/>
       <c r="E194" s="15"/>
       <c r="F194" s="15"/>
     </row>
-    <row r="195" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="C195" s="14"/>
       <c r="E195" s="15"/>
       <c r="F195" s="15"/>
     </row>
-    <row r="196" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="C196" s="14"/>
       <c r="E196" s="15"/>
       <c r="F196" s="15"/>
     </row>
-    <row r="197" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="C197" s="14"/>
       <c r="E197" s="15"/>
       <c r="F197" s="15"/>
     </row>
-    <row r="198" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="C198" s="14"/>
       <c r="E198" s="15"/>
       <c r="F198" s="15"/>
     </row>
-    <row r="199" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="C199" s="14"/>
       <c r="E199" s="15"/>
       <c r="F199" s="15"/>
     </row>
-    <row r="200" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="C200" s="14"/>
       <c r="E200" s="15"/>
       <c r="F200" s="15"/>
     </row>
-    <row r="201" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="C201" s="14"/>
       <c r="E201" s="15"/>
       <c r="F201" s="15"/>
     </row>
-    <row r="202" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="C202" s="14"/>
       <c r="E202" s="15"/>
       <c r="F202" s="15"/>
     </row>
-    <row r="203" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="C203" s="14"/>
       <c r="E203" s="15"/>
       <c r="F203" s="15"/>
     </row>
-    <row r="204" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="C204" s="14"/>
       <c r="E204" s="15"/>
       <c r="F204" s="15"/>
     </row>
-    <row r="205" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="C205" s="14"/>
       <c r="E205" s="15"/>
       <c r="F205" s="15"/>
     </row>
-    <row r="206" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="C206" s="14"/>
       <c r="E206" s="15"/>
       <c r="F206" s="15"/>
     </row>
-    <row r="207" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="C207" s="14"/>
       <c r="E207" s="15"/>
       <c r="F207" s="15"/>
     </row>
-    <row r="208" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="C208" s="14"/>
       <c r="E208" s="15"/>
       <c r="F208" s="15"/>
     </row>
-    <row r="209" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="C209" s="14"/>
       <c r="E209" s="15"/>
       <c r="F209" s="15"/>
     </row>
-    <row r="210" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="C210" s="14"/>
       <c r="E210" s="15"/>
       <c r="F210" s="15"/>
     </row>
-    <row r="211" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="C211" s="14"/>
       <c r="E211" s="15"/>
       <c r="F211" s="15"/>
     </row>
-    <row r="212" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="C212" s="14"/>
       <c r="E212" s="15"/>
       <c r="F212" s="15"/>
     </row>
-    <row r="213" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="C213" s="14"/>
       <c r="E213" s="15"/>
       <c r="F213" s="15"/>
     </row>
-    <row r="214" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="C214" s="14"/>
       <c r="E214" s="15"/>
       <c r="F214" s="15"/>
     </row>
-    <row r="215" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="C215" s="14"/>
       <c r="E215" s="15"/>
       <c r="F215" s="15"/>
     </row>
-    <row r="216" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="C216" s="14"/>
       <c r="E216" s="15"/>
       <c r="F216" s="15"/>
     </row>
-    <row r="217" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="C217" s="14"/>
       <c r="E217" s="15"/>
       <c r="F217" s="15"/>
     </row>
-    <row r="218" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="C218" s="14"/>
       <c r="E218" s="15"/>
       <c r="F218" s="15"/>
     </row>
-    <row r="219" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="C219" s="14"/>
       <c r="E219" s="15"/>
       <c r="F219" s="15"/>
     </row>
-    <row r="220" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="C220" s="14"/>
       <c r="E220" s="15"/>
       <c r="F220" s="15"/>
     </row>
-    <row r="221" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="C221" s="14"/>
       <c r="E221" s="15"/>
       <c r="F221" s="15"/>
     </row>
-    <row r="222" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="C222" s="14"/>
       <c r="E222" s="15"/>
       <c r="F222" s="15"/>
     </row>
-    <row r="223" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="C223" s="14"/>
       <c r="E223" s="15"/>
       <c r="F223" s="15"/>
     </row>
-    <row r="224" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="C224" s="14"/>
       <c r="E224" s="15"/>
       <c r="F224" s="15"/>
     </row>
-    <row r="225" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="C225" s="14"/>
       <c r="E225" s="15"/>
       <c r="F225" s="15"/>
     </row>
-    <row r="226" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="C226" s="14"/>
       <c r="E226" s="15"/>
       <c r="F226" s="15"/>
     </row>
-    <row r="227" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="C227" s="14"/>
       <c r="E227" s="15"/>
       <c r="F227" s="15"/>
     </row>
-    <row r="228" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="C228" s="14"/>
       <c r="E228" s="15"/>
       <c r="F228" s="15"/>
     </row>
-    <row r="229" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="C229" s="14"/>
       <c r="E229" s="15"/>
       <c r="F229" s="15"/>
     </row>
-    <row r="230" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="C230" s="14"/>
       <c r="E230" s="15"/>
       <c r="F230" s="15"/>
     </row>
-    <row r="231" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="C231" s="14"/>
       <c r="E231" s="15"/>
       <c r="F231" s="15"/>
     </row>
-    <row r="232" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="C232" s="14"/>
       <c r="E232" s="15"/>
       <c r="F232" s="15"/>
     </row>
-    <row r="233" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="C233" s="14"/>
       <c r="E233" s="15"/>
       <c r="F233" s="15"/>
     </row>
-    <row r="234" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="C234" s="14"/>
       <c r="E234" s="15"/>
       <c r="F234" s="15"/>
     </row>
-    <row r="235" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="C235" s="14"/>
       <c r="E235" s="15"/>
       <c r="F235" s="15"/>
     </row>
-    <row r="236" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="C236" s="14"/>
       <c r="E236" s="15"/>
       <c r="F236" s="15"/>
     </row>
-    <row r="237" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="C237" s="14"/>
       <c r="E237" s="15"/>
       <c r="F237" s="15"/>
     </row>
-    <row r="238" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="C238" s="14"/>
       <c r="E238" s="15"/>
       <c r="F238" s="15"/>
     </row>
-    <row r="239" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="C239" s="14"/>
       <c r="E239" s="15"/>
       <c r="F239" s="15"/>
     </row>
-    <row r="240" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="C240" s="14"/>
       <c r="E240" s="15"/>
       <c r="F240" s="15"/>
     </row>
-    <row r="241" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="C241" s="14"/>
       <c r="E241" s="15"/>
       <c r="F241" s="15"/>
     </row>
-    <row r="242" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="C242" s="14"/>
       <c r="E242" s="15"/>
       <c r="F242" s="15"/>
     </row>
-    <row r="243" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="C243" s="14"/>
       <c r="E243" s="15"/>
       <c r="F243" s="15"/>
     </row>
-    <row r="244" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="C244" s="14"/>
       <c r="E244" s="15"/>
       <c r="F244" s="15"/>
     </row>
-    <row r="245" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="C245" s="14"/>
       <c r="E245" s="15"/>
       <c r="F245" s="15"/>
     </row>
-    <row r="246" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="C246" s="14"/>
       <c r="E246" s="15"/>
       <c r="F246" s="15"/>
     </row>
-    <row r="247" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="C247" s="14"/>
       <c r="E247" s="15"/>
       <c r="F247" s="15"/>
     </row>
-    <row r="248" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="C248" s="14"/>
       <c r="E248" s="15"/>
       <c r="F248" s="15"/>
     </row>
-    <row r="249" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="C249" s="14"/>
       <c r="E249" s="15"/>
       <c r="F249" s="15"/>
     </row>
-    <row r="250" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="C250" s="14"/>
       <c r="E250" s="15"/>
       <c r="F250" s="15"/>
     </row>
-    <row r="251" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="C251" s="14"/>
       <c r="E251" s="15"/>
       <c r="F251" s="15"/>
     </row>
-    <row r="252" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="C252" s="14"/>
       <c r="E252" s="15"/>
       <c r="F252" s="15"/>
     </row>
-    <row r="253" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="C253" s="14"/>
       <c r="E253" s="15"/>
       <c r="F253" s="15"/>
     </row>
-    <row r="254" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="C254" s="14"/>
       <c r="E254" s="15"/>
       <c r="F254" s="15"/>
     </row>
-    <row r="255" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="C255" s="14"/>
       <c r="E255" s="15"/>
       <c r="F255" s="15"/>
     </row>
-    <row r="256" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="C256" s="14"/>
       <c r="E256" s="15"/>
       <c r="F256" s="15"/>
     </row>
-    <row r="257" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="C257" s="14"/>
       <c r="E257" s="15"/>
       <c r="F257" s="15"/>
     </row>
-    <row r="258" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="C258" s="14"/>
       <c r="E258" s="15"/>
       <c r="F258" s="15"/>
     </row>
-    <row r="259" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="C259" s="14"/>
       <c r="E259" s="15"/>
       <c r="F259" s="15"/>
     </row>
-    <row r="260" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="C260" s="14"/>
       <c r="E260" s="15"/>
       <c r="F260" s="15"/>
     </row>
-    <row r="261" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="C261" s="14"/>
       <c r="E261" s="15"/>
       <c r="F261" s="15"/>
     </row>
-    <row r="262" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="C262" s="14"/>
       <c r="E262" s="15"/>
       <c r="F262" s="15"/>
     </row>
-    <row r="263" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
       <c r="C263" s="14"/>
       <c r="E263" s="15"/>
       <c r="F263" s="15"/>
     </row>
-    <row r="264" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="C264" s="14"/>
       <c r="E264" s="15"/>
       <c r="F264" s="15"/>
     </row>
-    <row r="265" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="C265" s="14"/>
       <c r="E265" s="15"/>
       <c r="F265" s="15"/>
     </row>
-    <row r="266" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="C266" s="14"/>
       <c r="E266" s="15"/>
       <c r="F266" s="15"/>
     </row>
-    <row r="267" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="C267" s="14"/>
       <c r="E267" s="15"/>
       <c r="F267" s="15"/>
     </row>
-    <row r="268" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="C268" s="14"/>
       <c r="E268" s="15"/>
       <c r="F268" s="15"/>
     </row>
-    <row r="269" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="C269" s="14"/>
       <c r="E269" s="15"/>
       <c r="F269" s="15"/>
     </row>
-    <row r="270" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="C270" s="14"/>
       <c r="E270" s="15"/>
       <c r="F270" s="15"/>
     </row>
-    <row r="271" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="C271" s="14"/>
       <c r="E271" s="15"/>
       <c r="F271" s="15"/>
     </row>
-    <row r="272" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="C272" s="14"/>
       <c r="E272" s="15"/>
       <c r="F272" s="15"/>
     </row>
-    <row r="273" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="C273" s="14"/>
       <c r="E273" s="15"/>
       <c r="F273" s="15"/>
     </row>
-    <row r="274" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="C274" s="14"/>
       <c r="E274" s="15"/>
       <c r="F274" s="15"/>
     </row>
-    <row r="275" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="C275" s="14"/>
       <c r="E275" s="15"/>
       <c r="F275" s="15"/>
     </row>
-    <row r="276" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="C276" s="14"/>
       <c r="E276" s="15"/>
       <c r="F276" s="15"/>
     </row>
-    <row r="277" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="C277" s="14"/>
       <c r="E277" s="15"/>
       <c r="F277" s="15"/>
     </row>
-    <row r="278" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="C278" s="14"/>
       <c r="E278" s="15"/>
       <c r="F278" s="15"/>
     </row>
-    <row r="279" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="C279" s="14"/>
       <c r="E279" s="15"/>
       <c r="F279" s="15"/>
     </row>
-    <row r="280" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="C280" s="14"/>
       <c r="E280" s="15"/>
       <c r="F280" s="15"/>
     </row>
-    <row r="281" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="C281" s="14"/>
       <c r="E281" s="15"/>
       <c r="F281" s="15"/>
     </row>
-    <row r="282" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="C282" s="14"/>
       <c r="E282" s="15"/>
       <c r="F282" s="15"/>
     </row>
-    <row r="283" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="C283" s="14"/>
       <c r="E283" s="15"/>
       <c r="F283" s="15"/>
     </row>
-    <row r="284" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="C284" s="14"/>
       <c r="E284" s="15"/>
       <c r="F284" s="15"/>
     </row>
-    <row r="285" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
       <c r="C285" s="14"/>
       <c r="E285" s="15"/>
       <c r="F285" s="15"/>
     </row>
-    <row r="286" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
       <c r="C286" s="14"/>
       <c r="E286" s="15"/>
       <c r="F286" s="15"/>
     </row>
-    <row r="287" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
       <c r="C287" s="14"/>
       <c r="E287" s="15"/>
       <c r="F287" s="15"/>
     </row>
-    <row r="288" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="C288" s="14"/>
       <c r="E288" s="15"/>
       <c r="F288" s="15"/>
     </row>
-    <row r="289" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
       <c r="C289" s="14"/>
       <c r="E289" s="15"/>
       <c r="F289" s="15"/>
     </row>
-    <row r="290" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
       <c r="C290" s="14"/>
       <c r="E290" s="15"/>
       <c r="F290" s="15"/>
     </row>
-    <row r="291" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="C291" s="14"/>
       <c r="E291" s="15"/>
       <c r="F291" s="15"/>
     </row>
-    <row r="292" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
       <c r="C292" s="14"/>
       <c r="E292" s="15"/>
       <c r="F292" s="15"/>
     </row>
-    <row r="293" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
       <c r="C293" s="14"/>
       <c r="E293" s="15"/>
       <c r="F293" s="15"/>
     </row>
-    <row r="294" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
       <c r="C294" s="14"/>
       <c r="E294" s="15"/>
       <c r="F294" s="15"/>
     </row>
-    <row r="295" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
       <c r="C295" s="14"/>
       <c r="E295" s="15"/>
       <c r="F295" s="15"/>
     </row>
-    <row r="296" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="C296" s="14"/>
       <c r="E296" s="15"/>
       <c r="F296" s="15"/>
     </row>
-    <row r="297" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
       <c r="C297" s="14"/>
       <c r="E297" s="15"/>
       <c r="F297" s="15"/>
     </row>
-    <row r="298" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="C298" s="14"/>
       <c r="E298" s="15"/>
       <c r="F298" s="15"/>
     </row>
-    <row r="299" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="C299" s="14"/>
       <c r="E299" s="15"/>
       <c r="F299" s="15"/>
     </row>
-    <row r="300" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="C300" s="14"/>
       <c r="E300" s="15"/>
       <c r="F300" s="15"/>
     </row>
-    <row r="301" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="C301" s="14"/>
       <c r="E301" s="15"/>
       <c r="F301" s="15"/>
     </row>
-    <row r="302" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
       <c r="C302" s="14"/>
       <c r="E302" s="15"/>
       <c r="F302" s="15"/>
     </row>
-    <row r="303" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="C303" s="14"/>
       <c r="E303" s="15"/>
       <c r="F303" s="15"/>
     </row>
-    <row r="304" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
       <c r="C304" s="14"/>
       <c r="E304" s="15"/>
       <c r="F304" s="15"/>
     </row>
-    <row r="305" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
       <c r="C305" s="14"/>
       <c r="E305" s="15"/>
       <c r="F305" s="15"/>
     </row>
-    <row r="306" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1"/>
       <c r="C306" s="14"/>
       <c r="E306" s="15"/>
       <c r="F306" s="15"/>
     </row>
-    <row r="307" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
       <c r="C307" s="14"/>
       <c r="E307" s="15"/>
       <c r="F307" s="15"/>
     </row>
-    <row r="308" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
       <c r="C308" s="14"/>
       <c r="E308" s="15"/>
       <c r="F308" s="15"/>
     </row>
-    <row r="309" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
       <c r="C309" s="14"/>
       <c r="E309" s="15"/>
       <c r="F309" s="15"/>
     </row>
-    <row r="310" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
       <c r="C310" s="14"/>
       <c r="E310" s="15"/>
       <c r="F310" s="15"/>
     </row>
-    <row r="311" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
       <c r="C311" s="14"/>
       <c r="E311" s="15"/>
       <c r="F311" s="15"/>
     </row>
-    <row r="312" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="C312" s="14"/>
       <c r="E312" s="15"/>
       <c r="F312" s="15"/>
     </row>
-    <row r="313" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
       <c r="C313" s="14"/>
       <c r="E313" s="15"/>
       <c r="F313" s="15"/>
     </row>
-    <row r="314" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="C314" s="14"/>
       <c r="E314" s="15"/>
       <c r="F314" s="15"/>
     </row>
-    <row r="315" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="C315" s="14"/>
       <c r="E315" s="15"/>
       <c r="F315" s="15"/>
     </row>
-    <row r="316" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="C316" s="14"/>
       <c r="E316" s="15"/>
       <c r="F316" s="15"/>
     </row>
-    <row r="317" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="C317" s="14"/>
       <c r="E317" s="15"/>
       <c r="F317" s="15"/>
     </row>
-    <row r="318" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="C318" s="14"/>
       <c r="E318" s="15"/>
       <c r="F318" s="15"/>
     </row>
-    <row r="319" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="C319" s="14"/>
       <c r="E319" s="15"/>
       <c r="F319" s="15"/>
     </row>
-    <row r="320" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
       <c r="C320" s="14"/>
       <c r="E320" s="15"/>
       <c r="F320" s="15"/>
     </row>
-    <row r="321" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
       <c r="C321" s="14"/>
       <c r="E321" s="15"/>
       <c r="F321" s="15"/>
     </row>
-    <row r="322" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1"/>
       <c r="C322" s="14"/>
       <c r="E322" s="15"/>
       <c r="F322" s="15"/>
     </row>
-    <row r="323" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1"/>
       <c r="C323" s="14"/>
       <c r="E323" s="15"/>
       <c r="F323" s="15"/>
     </row>
-    <row r="324" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="C324" s="14"/>
       <c r="E324" s="15"/>
       <c r="F324" s="15"/>
     </row>
-    <row r="325" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="C325" s="14"/>
       <c r="E325" s="15"/>
       <c r="F325" s="15"/>
     </row>
-    <row r="326" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="C326" s="14"/>
       <c r="E326" s="15"/>
       <c r="F326" s="15"/>
     </row>
-    <row r="327" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="C327" s="14"/>
       <c r="E327" s="15"/>
       <c r="F327" s="15"/>
     </row>
-    <row r="328" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="C328" s="14"/>
       <c r="E328" s="15"/>
       <c r="F328" s="15"/>
     </row>
-    <row r="329" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
       <c r="C329" s="14"/>
       <c r="E329" s="15"/>
       <c r="F329" s="15"/>
     </row>
-    <row r="330" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="C330" s="14"/>
       <c r="E330" s="15"/>
       <c r="F330" s="15"/>
     </row>
-    <row r="331" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
       <c r="C331" s="14"/>
       <c r="E331" s="15"/>
       <c r="F331" s="15"/>
     </row>
-    <row r="332" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1"/>
       <c r="C332" s="14"/>
       <c r="E332" s="15"/>
       <c r="F332" s="15"/>
     </row>
-    <row r="333" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
       <c r="C333" s="14"/>
       <c r="E333" s="15"/>
       <c r="F333" s="15"/>
     </row>
-    <row r="334" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1"/>
       <c r="C334" s="14"/>
       <c r="E334" s="15"/>
       <c r="F334" s="15"/>
     </row>
-    <row r="335" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
       <c r="C335" s="14"/>
       <c r="E335" s="15"/>
       <c r="F335" s="15"/>
     </row>
-    <row r="336" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1"/>
       <c r="C336" s="14"/>
       <c r="E336" s="15"/>
       <c r="F336" s="15"/>
     </row>
-    <row r="337" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
       <c r="C337" s="14"/>
       <c r="E337" s="15"/>
       <c r="F337" s="15"/>
     </row>
-    <row r="338" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
       <c r="C338" s="14"/>
       <c r="E338" s="15"/>
       <c r="F338" s="15"/>
     </row>
-    <row r="339" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
       <c r="C339" s="14"/>
       <c r="E339" s="15"/>
       <c r="F339" s="15"/>
     </row>
-    <row r="340" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
       <c r="C340" s="14"/>
       <c r="E340" s="15"/>
       <c r="F340" s="15"/>
     </row>
-    <row r="341" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
       <c r="C341" s="14"/>
       <c r="E341" s="15"/>
       <c r="F341" s="15"/>
     </row>
-    <row r="342" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="C342" s="14"/>
       <c r="E342" s="15"/>
       <c r="F342" s="15"/>
     </row>
-    <row r="343" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="C343" s="14"/>
       <c r="E343" s="15"/>
       <c r="F343" s="15"/>
     </row>
-    <row r="344" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
       <c r="C344" s="14"/>
       <c r="E344" s="15"/>
       <c r="F344" s="15"/>
     </row>
-    <row r="345" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1"/>
       <c r="C345" s="14"/>
       <c r="E345" s="15"/>
       <c r="F345" s="15"/>
     </row>
-    <row r="346" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
       <c r="C346" s="14"/>
       <c r="E346" s="15"/>
       <c r="F346" s="15"/>
     </row>
-    <row r="347" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>
       <c r="C347" s="14"/>
       <c r="E347" s="15"/>
       <c r="F347" s="15"/>
     </row>
-    <row r="348" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
       <c r="C348" s="14"/>
       <c r="E348" s="15"/>
       <c r="F348" s="15"/>
     </row>
-    <row r="349" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
       <c r="C349" s="14"/>
       <c r="E349" s="15"/>
       <c r="F349" s="15"/>
     </row>
-    <row r="350" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
       <c r="C350" s="14"/>
       <c r="E350" s="15"/>
       <c r="F350" s="15"/>
     </row>
-    <row r="351" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
       <c r="C351" s="14"/>
       <c r="E351" s="15"/>
       <c r="F351" s="15"/>
     </row>
-    <row r="352" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
       <c r="C352" s="14"/>
       <c r="E352" s="15"/>
       <c r="F352" s="15"/>
     </row>
-    <row r="353" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1"/>
       <c r="C353" s="14"/>
       <c r="E353" s="15"/>
       <c r="F353" s="15"/>
     </row>
-    <row r="354" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1"/>
       <c r="C354" s="14"/>
       <c r="E354" s="15"/>
       <c r="F354" s="15"/>
     </row>
-    <row r="355" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1"/>
       <c r="C355" s="14"/>
       <c r="E355" s="15"/>
       <c r="F355" s="15"/>
     </row>
-    <row r="356" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
       <c r="C356" s="14"/>
       <c r="E356" s="15"/>
       <c r="F356" s="15"/>
     </row>
-    <row r="357" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1"/>
       <c r="C357" s="14"/>
       <c r="E357" s="15"/>
       <c r="F357" s="15"/>
     </row>
-    <row r="358" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
       <c r="C358" s="14"/>
       <c r="E358" s="15"/>
       <c r="F358" s="15"/>
     </row>
-    <row r="359" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1"/>
       <c r="C359" s="14"/>
       <c r="E359" s="15"/>
       <c r="F359" s="15"/>
     </row>
-    <row r="360" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1"/>
       <c r="C360" s="14"/>
       <c r="E360" s="15"/>
       <c r="F360" s="15"/>
     </row>
-    <row r="361" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1"/>
       <c r="C361" s="14"/>
       <c r="E361" s="15"/>
       <c r="F361" s="15"/>
     </row>
-    <row r="362" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
       <c r="C362" s="14"/>
       <c r="E362" s="15"/>
       <c r="F362" s="15"/>
     </row>
-    <row r="363" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1"/>
       <c r="C363" s="14"/>
       <c r="E363" s="15"/>
       <c r="F363" s="15"/>
     </row>
-    <row r="364" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1"/>
       <c r="C364" s="14"/>
       <c r="E364" s="15"/>
       <c r="F364" s="15"/>
     </row>
-    <row r="365" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
       <c r="C365" s="14"/>
       <c r="E365" s="15"/>
       <c r="F365" s="15"/>
     </row>
-    <row r="366" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1"/>
       <c r="C366" s="14"/>
       <c r="E366" s="15"/>
       <c r="F366" s="15"/>
     </row>
-    <row r="367" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
       <c r="C367" s="14"/>
       <c r="E367" s="15"/>
       <c r="F367" s="15"/>
     </row>
-    <row r="368" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1"/>
       <c r="C368" s="14"/>
       <c r="E368" s="15"/>
       <c r="F368" s="15"/>
     </row>
-    <row r="369" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1"/>
       <c r="C369" s="14"/>
       <c r="E369" s="15"/>
       <c r="F369" s="15"/>
     </row>
-    <row r="370" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1"/>
       <c r="C370" s="14"/>
       <c r="E370" s="15"/>
       <c r="F370" s="15"/>
     </row>
-    <row r="371" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1"/>
       <c r="C371" s="14"/>
       <c r="E371" s="15"/>
       <c r="F371" s="15"/>
     </row>
-    <row r="372" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
       <c r="C372" s="14"/>
       <c r="E372" s="15"/>
       <c r="F372" s="15"/>
     </row>
-    <row r="373" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1"/>
       <c r="C373" s="14"/>
       <c r="E373" s="15"/>
       <c r="F373" s="15"/>
     </row>
-    <row r="374" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1"/>
       <c r="C374" s="14"/>
       <c r="E374" s="15"/>
       <c r="F374" s="15"/>
     </row>
-    <row r="375" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="C375" s="14"/>
       <c r="E375" s="15"/>
       <c r="F375" s="15"/>
     </row>
-    <row r="376" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="C376" s="14"/>
       <c r="E376" s="15"/>
       <c r="F376" s="15"/>
     </row>
-    <row r="377" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1"/>
       <c r="C377" s="14"/>
       <c r="E377" s="15"/>
       <c r="F377" s="15"/>
     </row>
-    <row r="378" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1"/>
       <c r="C378" s="14"/>
       <c r="E378" s="15"/>
       <c r="F378" s="15"/>
     </row>
-    <row r="379" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1"/>
       <c r="C379" s="14"/>
       <c r="E379" s="15"/>
       <c r="F379" s="15"/>
     </row>
-    <row r="380" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1"/>
       <c r="C380" s="14"/>
       <c r="E380" s="15"/>
       <c r="F380" s="15"/>
     </row>
-    <row r="381" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1"/>
       <c r="C381" s="14"/>
       <c r="E381" s="15"/>
       <c r="F381" s="15"/>
     </row>
-    <row r="382" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1"/>
       <c r="C382" s="14"/>
       <c r="E382" s="15"/>
       <c r="F382" s="15"/>
     </row>
-    <row r="383" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1"/>
       <c r="C383" s="14"/>
       <c r="E383" s="15"/>
       <c r="F383" s="15"/>
     </row>
-    <row r="384" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1"/>
       <c r="C384" s="14"/>
       <c r="E384" s="15"/>
       <c r="F384" s="15"/>
     </row>
-    <row r="385" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
       <c r="C385" s="14"/>
       <c r="E385" s="15"/>
       <c r="F385" s="15"/>
     </row>
-    <row r="386" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1"/>
       <c r="C386" s="14"/>
       <c r="E386" s="15"/>
       <c r="F386" s="15"/>
     </row>
-    <row r="387" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1"/>
       <c r="C387" s="14"/>
       <c r="E387" s="15"/>
       <c r="F387" s="15"/>
     </row>
-    <row r="388" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1"/>
       <c r="C388" s="14"/>
       <c r="E388" s="15"/>
       <c r="F388" s="15"/>
     </row>
-    <row r="389" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1"/>
       <c r="C389" s="14"/>
       <c r="E389" s="15"/>
       <c r="F389" s="15"/>
     </row>
-    <row r="390" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1"/>
       <c r="C390" s="14"/>
       <c r="E390" s="15"/>
       <c r="F390" s="15"/>
     </row>
-    <row r="391" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1"/>
       <c r="C391" s="14"/>
       <c r="E391" s="15"/>
       <c r="F391" s="15"/>
     </row>
-    <row r="392" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1"/>
       <c r="C392" s="14"/>
       <c r="E392" s="15"/>
       <c r="F392" s="15"/>
     </row>
-    <row r="393" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1"/>
       <c r="C393" s="14"/>
       <c r="E393" s="15"/>
       <c r="F393" s="15"/>
     </row>
-    <row r="394" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1"/>
       <c r="C394" s="14"/>
       <c r="E394" s="15"/>
       <c r="F394" s="15"/>
     </row>
-    <row r="395" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1"/>
       <c r="C395" s="14"/>
       <c r="E395" s="15"/>
       <c r="F395" s="15"/>
     </row>
-    <row r="396" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1"/>
       <c r="C396" s="14"/>
       <c r="E396" s="15"/>
       <c r="F396" s="15"/>
     </row>
-    <row r="397" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1"/>
       <c r="C397" s="14"/>
       <c r="E397" s="15"/>
       <c r="F397" s="15"/>
     </row>
-    <row r="398" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1"/>
       <c r="C398" s="14"/>
       <c r="E398" s="15"/>
       <c r="F398" s="15"/>
     </row>
-    <row r="399" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1"/>
       <c r="C399" s="14"/>
       <c r="E399" s="15"/>
       <c r="F399" s="15"/>
     </row>
-    <row r="400" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1"/>
       <c r="C400" s="14"/>
       <c r="E400" s="15"/>
       <c r="F400" s="15"/>
     </row>
-    <row r="401" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1"/>
       <c r="C401" s="14"/>
       <c r="E401" s="15"/>
       <c r="F401" s="15"/>
     </row>
-    <row r="402" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1"/>
       <c r="C402" s="14"/>
       <c r="E402" s="15"/>
       <c r="F402" s="15"/>
     </row>
-    <row r="403" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1"/>
       <c r="C403" s="14"/>
       <c r="E403" s="15"/>
       <c r="F403" s="15"/>
     </row>
-    <row r="404" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1"/>
       <c r="C404" s="14"/>
       <c r="E404" s="15"/>
       <c r="F404" s="15"/>
     </row>
-    <row r="405" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1"/>
       <c r="C405" s="14"/>
       <c r="E405" s="15"/>
       <c r="F405" s="15"/>
     </row>
-    <row r="406" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1"/>
       <c r="C406" s="14"/>
       <c r="E406" s="15"/>
       <c r="F406" s="15"/>
     </row>
-    <row r="407" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="1"/>
       <c r="C407" s="14"/>
       <c r="E407" s="15"/>
       <c r="F407" s="15"/>
     </row>
-    <row r="408" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1"/>
       <c r="C408" s="14"/>
       <c r="E408" s="15"/>
       <c r="F408" s="15"/>
     </row>
-    <row r="409" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="1"/>
       <c r="C409" s="14"/>
       <c r="E409" s="15"/>
       <c r="F409" s="15"/>
     </row>
-    <row r="410" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1"/>
       <c r="C410" s="14"/>
       <c r="E410" s="15"/>
       <c r="F410" s="15"/>
     </row>
-    <row r="411" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1"/>
       <c r="C411" s="14"/>
       <c r="E411" s="15"/>
       <c r="F411" s="15"/>
     </row>
-    <row r="412" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1"/>
       <c r="C412" s="14"/>
       <c r="E412" s="15"/>
       <c r="F412" s="15"/>
     </row>
-    <row r="413" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1"/>
       <c r="C413" s="14"/>
       <c r="E413" s="15"/>
       <c r="F413" s="15"/>
     </row>
-    <row r="414" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1"/>
       <c r="C414" s="14"/>
       <c r="E414" s="15"/>
       <c r="F414" s="15"/>
     </row>
-    <row r="415" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1"/>
       <c r="C415" s="14"/>
       <c r="E415" s="15"/>
       <c r="F415" s="15"/>
     </row>
-    <row r="416" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1"/>
       <c r="C416" s="14"/>
       <c r="E416" s="15"/>
       <c r="F416" s="15"/>
     </row>
-    <row r="417" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="1"/>
       <c r="C417" s="14"/>
       <c r="E417" s="15"/>
       <c r="F417" s="15"/>
     </row>
-    <row r="418" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="1"/>
       <c r="C418" s="14"/>
       <c r="E418" s="15"/>
       <c r="F418" s="15"/>
     </row>
-    <row r="419" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="1"/>
       <c r="C419" s="14"/>
       <c r="E419" s="15"/>
       <c r="F419" s="15"/>
     </row>
-    <row r="420" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1"/>
       <c r="C420" s="14"/>
       <c r="E420" s="15"/>
       <c r="F420" s="15"/>
     </row>
-    <row r="421" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1"/>
       <c r="C421" s="14"/>
       <c r="E421" s="15"/>
       <c r="F421" s="15"/>
     </row>
-    <row r="422" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="1"/>
       <c r="C422" s="14"/>
       <c r="E422" s="15"/>
       <c r="F422" s="15"/>
     </row>
-    <row r="423" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="1"/>
       <c r="C423" s="14"/>
       <c r="E423" s="15"/>
       <c r="F423" s="15"/>
     </row>
-    <row r="424" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="1"/>
       <c r="C424" s="14"/>
       <c r="E424" s="15"/>
       <c r="F424" s="15"/>
     </row>
-    <row r="425" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="1"/>
       <c r="C425" s="14"/>
       <c r="E425" s="15"/>
       <c r="F425" s="15"/>
     </row>
-    <row r="426" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="1"/>
       <c r="C426" s="14"/>
       <c r="E426" s="15"/>
       <c r="F426" s="15"/>
     </row>
-    <row r="427" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="1"/>
       <c r="C427" s="14"/>
       <c r="E427" s="15"/>
       <c r="F427" s="15"/>
     </row>
-    <row r="428" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="1"/>
       <c r="C428" s="14"/>
       <c r="E428" s="15"/>
       <c r="F428" s="15"/>
     </row>
-    <row r="429" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="1"/>
       <c r="C429" s="14"/>
       <c r="E429" s="15"/>
       <c r="F429" s="15"/>
     </row>
-    <row r="430" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="1"/>
       <c r="C430" s="14"/>
       <c r="E430" s="15"/>
       <c r="F430" s="15"/>
     </row>
-    <row r="431" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="1"/>
       <c r="C431" s="14"/>
       <c r="E431" s="15"/>
       <c r="F431" s="15"/>
     </row>
-    <row r="432" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="1"/>
       <c r="C432" s="14"/>
       <c r="E432" s="15"/>
       <c r="F432" s="15"/>
     </row>
-    <row r="433" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="1"/>
       <c r="C433" s="14"/>
       <c r="E433" s="15"/>
       <c r="F433" s="15"/>
     </row>
-    <row r="434" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="1"/>
       <c r="C434" s="14"/>
       <c r="E434" s="15"/>
       <c r="F434" s="15"/>
     </row>
-    <row r="435" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="1"/>
       <c r="C435" s="14"/>
       <c r="E435" s="15"/>
       <c r="F435" s="15"/>
     </row>
-    <row r="436" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="1"/>
       <c r="C436" s="14"/>
       <c r="E436" s="15"/>
       <c r="F436" s="15"/>
     </row>
-    <row r="437" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="1"/>
       <c r="C437" s="14"/>
       <c r="E437" s="15"/>
       <c r="F437" s="15"/>
     </row>
-    <row r="438" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="1"/>
       <c r="C438" s="14"/>
       <c r="E438" s="15"/>
       <c r="F438" s="15"/>
     </row>
-    <row r="439" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="1"/>
       <c r="C439" s="14"/>
       <c r="E439" s="15"/>
       <c r="F439" s="15"/>
     </row>
-    <row r="440" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="1"/>
       <c r="C440" s="14"/>
       <c r="E440" s="15"/>
       <c r="F440" s="15"/>
     </row>
-    <row r="441" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="1"/>
       <c r="C441" s="14"/>
       <c r="E441" s="15"/>
       <c r="F441" s="15"/>
     </row>
-    <row r="442" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="1"/>
       <c r="C442" s="14"/>
       <c r="E442" s="15"/>
       <c r="F442" s="15"/>
     </row>
-    <row r="443" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="1"/>
       <c r="C443" s="14"/>
       <c r="E443" s="15"/>
       <c r="F443" s="15"/>
     </row>
-    <row r="444" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="1"/>
       <c r="C444" s="14"/>
       <c r="E444" s="15"/>
       <c r="F444" s="15"/>
     </row>
-    <row r="445" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="1"/>
       <c r="C445" s="14"/>
       <c r="E445" s="15"/>
       <c r="F445" s="15"/>
     </row>
-    <row r="446" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="1"/>
       <c r="C446" s="14"/>
       <c r="E446" s="15"/>
       <c r="F446" s="15"/>
     </row>
-    <row r="447" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="1"/>
       <c r="C447" s="14"/>
       <c r="E447" s="15"/>
       <c r="F447" s="15"/>
     </row>
-    <row r="448" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="1"/>
       <c r="C448" s="14"/>
       <c r="E448" s="15"/>
       <c r="F448" s="15"/>
     </row>
-    <row r="449" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="1"/>
       <c r="C449" s="14"/>
       <c r="E449" s="15"/>
       <c r="F449" s="15"/>
     </row>
-    <row r="450" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="1"/>
       <c r="C450" s="14"/>
       <c r="E450" s="15"/>
       <c r="F450" s="15"/>
     </row>
-    <row r="451" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="1"/>
       <c r="C451" s="14"/>
       <c r="E451" s="15"/>
       <c r="F451" s="15"/>
     </row>
-    <row r="452" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="1"/>
       <c r="C452" s="14"/>
       <c r="E452" s="15"/>
       <c r="F452" s="15"/>
     </row>
-    <row r="453" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="1"/>
       <c r="C453" s="14"/>
       <c r="E453" s="15"/>
       <c r="F453" s="15"/>
     </row>
-    <row r="454" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="1"/>
       <c r="C454" s="14"/>
       <c r="E454" s="15"/>
       <c r="F454" s="15"/>
     </row>
-    <row r="455" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="1"/>
       <c r="C455" s="14"/>
       <c r="E455" s="15"/>
       <c r="F455" s="15"/>
     </row>
-    <row r="456" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="1"/>
       <c r="C456" s="14"/>
       <c r="E456" s="15"/>
       <c r="F456" s="15"/>
     </row>
-    <row r="457" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="1"/>
       <c r="C457" s="14"/>
       <c r="E457" s="15"/>
       <c r="F457" s="15"/>
     </row>
-    <row r="458" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="1"/>
       <c r="C458" s="14"/>
       <c r="E458" s="15"/>
       <c r="F458" s="15"/>
     </row>
-    <row r="459" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="1"/>
       <c r="C459" s="14"/>
       <c r="E459" s="15"/>
       <c r="F459" s="15"/>
     </row>
-    <row r="460" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="1"/>
       <c r="C460" s="14"/>
       <c r="E460" s="15"/>
       <c r="F460" s="15"/>
     </row>
-    <row r="461" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="1"/>
       <c r="C461" s="14"/>
       <c r="E461" s="15"/>
       <c r="F461" s="15"/>
     </row>
-    <row r="462" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="1"/>
       <c r="C462" s="14"/>
       <c r="E462" s="15"/>
       <c r="F462" s="15"/>
     </row>
-    <row r="463" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="1"/>
       <c r="C463" s="14"/>
       <c r="E463" s="15"/>
       <c r="F463" s="15"/>
     </row>
-    <row r="464" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="1"/>
       <c r="C464" s="14"/>
       <c r="E464" s="15"/>
       <c r="F464" s="15"/>
     </row>
-    <row r="465" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="1"/>
       <c r="C465" s="14"/>
       <c r="E465" s="15"/>
       <c r="F465" s="15"/>
     </row>
-    <row r="466" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="1"/>
       <c r="C466" s="14"/>
       <c r="E466" s="15"/>
       <c r="F466" s="15"/>
     </row>
-    <row r="467" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="1"/>
       <c r="C467" s="14"/>
       <c r="E467" s="15"/>
       <c r="F467" s="15"/>
     </row>
-    <row r="468" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="1"/>
       <c r="C468" s="14"/>
       <c r="E468" s="15"/>
       <c r="F468" s="15"/>
     </row>
-    <row r="469" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="1"/>
       <c r="C469" s="14"/>
       <c r="E469" s="15"/>
       <c r="F469" s="15"/>
     </row>
-    <row r="470" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="1"/>
       <c r="C470" s="14"/>
       <c r="E470" s="15"/>
       <c r="F470" s="15"/>
     </row>
-    <row r="471" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="1"/>
       <c r="C471" s="14"/>
       <c r="E471" s="15"/>
       <c r="F471" s="15"/>
     </row>
-    <row r="472" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="1"/>
       <c r="C472" s="14"/>
       <c r="E472" s="15"/>
       <c r="F472" s="15"/>
     </row>
-    <row r="473" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="1"/>
       <c r="C473" s="14"/>
       <c r="E473" s="15"/>
       <c r="F473" s="15"/>
     </row>
-    <row r="474" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="1"/>
       <c r="C474" s="14"/>
       <c r="E474" s="15"/>
       <c r="F474" s="15"/>
     </row>
-    <row r="475" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="1"/>
       <c r="C475" s="14"/>
       <c r="E475" s="15"/>
       <c r="F475" s="15"/>
     </row>
-    <row r="476" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="1"/>
       <c r="C476" s="14"/>
       <c r="E476" s="15"/>
       <c r="F476" s="15"/>
     </row>
-    <row r="477" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="1"/>
       <c r="C477" s="14"/>
       <c r="E477" s="15"/>
       <c r="F477" s="15"/>
     </row>
-    <row r="478" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="1"/>
       <c r="C478" s="14"/>
       <c r="E478" s="15"/>
       <c r="F478" s="15"/>
     </row>
-    <row r="479" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="1"/>
       <c r="C479" s="14"/>
       <c r="E479" s="15"/>
       <c r="F479" s="15"/>
     </row>
-    <row r="480" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="1"/>
       <c r="C480" s="14"/>
       <c r="E480" s="15"/>
       <c r="F480" s="15"/>
     </row>
-    <row r="481" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="1"/>
       <c r="C481" s="14"/>
       <c r="E481" s="15"/>
       <c r="F481" s="15"/>
     </row>
-    <row r="482" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="1"/>
       <c r="C482" s="14"/>
       <c r="E482" s="15"/>
       <c r="F482" s="15"/>
     </row>
-    <row r="483" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="1"/>
       <c r="C483" s="14"/>
       <c r="E483" s="15"/>
       <c r="F483" s="15"/>
     </row>
-    <row r="484" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="1"/>
       <c r="C484" s="14"/>
       <c r="E484" s="15"/>
       <c r="F484" s="15"/>
     </row>
-    <row r="485" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="1"/>
       <c r="C485" s="14"/>
       <c r="E485" s="15"/>
       <c r="F485" s="15"/>
     </row>
-    <row r="486" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="1"/>
       <c r="C486" s="14"/>
       <c r="E486" s="15"/>
       <c r="F486" s="15"/>
     </row>
-    <row r="487" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="1"/>
       <c r="C487" s="14"/>
       <c r="E487" s="15"/>
       <c r="F487" s="15"/>
     </row>
-    <row r="488" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="1"/>
       <c r="C488" s="14"/>
       <c r="E488" s="15"/>
       <c r="F488" s="15"/>
     </row>
-    <row r="489" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="1"/>
       <c r="C489" s="14"/>
       <c r="E489" s="15"/>
       <c r="F489" s="15"/>
     </row>
-    <row r="490" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="1"/>
       <c r="C490" s="14"/>
       <c r="E490" s="15"/>
       <c r="F490" s="15"/>
     </row>
-    <row r="491" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="1"/>
       <c r="C491" s="14"/>
       <c r="E491" s="15"/>
       <c r="F491" s="15"/>
     </row>
-    <row r="492" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="1"/>
       <c r="C492" s="14"/>
       <c r="E492" s="15"/>
       <c r="F492" s="15"/>
     </row>
-    <row r="493" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="1"/>
       <c r="C493" s="14"/>
       <c r="E493" s="15"/>
       <c r="F493" s="15"/>
     </row>
-    <row r="494" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="1"/>
       <c r="C494" s="14"/>
       <c r="E494" s="15"/>
       <c r="F494" s="15"/>
     </row>
-    <row r="495" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="1"/>
       <c r="C495" s="14"/>
       <c r="E495" s="15"/>
       <c r="F495" s="15"/>
     </row>
-    <row r="496" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="1"/>
       <c r="C496" s="14"/>
       <c r="E496" s="15"/>
       <c r="F496" s="15"/>
     </row>
-    <row r="497" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="1"/>
       <c r="C497" s="14"/>
       <c r="E497" s="15"/>
       <c r="F497" s="15"/>
     </row>
-    <row r="498" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="1"/>
       <c r="C498" s="14"/>
       <c r="E498" s="15"/>
       <c r="F498" s="15"/>
     </row>
-    <row r="499" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="1"/>
       <c r="C499" s="14"/>
       <c r="E499" s="15"/>
       <c r="F499" s="15"/>
     </row>
-    <row r="500" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="1"/>
       <c r="C500" s="14"/>
       <c r="E500" s="15"/>
       <c r="F500" s="15"/>
     </row>
-    <row r="501" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="1"/>
       <c r="C501" s="14"/>
       <c r="E501" s="15"/>
       <c r="F501" s="15"/>
     </row>
-    <row r="502" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="1"/>
       <c r="C502" s="14"/>
       <c r="E502" s="15"/>
       <c r="F502" s="15"/>
     </row>
-    <row r="503" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="1"/>
       <c r="C503" s="14"/>
       <c r="E503" s="15"/>
       <c r="F503" s="15"/>
     </row>
-    <row r="504" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="1"/>
       <c r="C504" s="14"/>
       <c r="E504" s="15"/>
       <c r="F504" s="15"/>
     </row>
-    <row r="505" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="1"/>
       <c r="C505" s="14"/>
       <c r="E505" s="15"/>
       <c r="F505" s="15"/>
     </row>
-    <row r="506" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="1"/>
       <c r="C506" s="14"/>
       <c r="E506" s="15"/>
       <c r="F506" s="15"/>
     </row>
-    <row r="507" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="1"/>
       <c r="C507" s="14"/>
       <c r="E507" s="15"/>
       <c r="F507" s="15"/>
     </row>
-    <row r="508" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="1"/>
       <c r="C508" s="14"/>
       <c r="E508" s="15"/>
       <c r="F508" s="15"/>
     </row>
-    <row r="509" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="1"/>
       <c r="C509" s="14"/>
       <c r="E509" s="15"/>
       <c r="F509" s="15"/>
     </row>
-    <row r="510" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="1"/>
       <c r="C510" s="14"/>
       <c r="E510" s="15"/>
       <c r="F510" s="15"/>
     </row>
-    <row r="511" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="1"/>
       <c r="C511" s="14"/>
       <c r="E511" s="15"/>
       <c r="F511" s="15"/>
     </row>
-    <row r="512" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="1"/>
       <c r="C512" s="14"/>
       <c r="E512" s="15"/>
       <c r="F512" s="15"/>
     </row>
-    <row r="513" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="1"/>
       <c r="C513" s="14"/>
       <c r="E513" s="15"/>
       <c r="F513" s="15"/>
     </row>
-    <row r="514" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="1"/>
       <c r="C514" s="14"/>
       <c r="E514" s="15"/>
       <c r="F514" s="15"/>
     </row>
-    <row r="515" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="1"/>
       <c r="C515" s="14"/>
       <c r="E515" s="15"/>
       <c r="F515" s="15"/>
     </row>
-    <row r="516" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="1"/>
       <c r="C516" s="14"/>
       <c r="E516" s="15"/>
       <c r="F516" s="15"/>
     </row>
-    <row r="517" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="1"/>
       <c r="C517" s="14"/>
       <c r="E517" s="15"/>
       <c r="F517" s="15"/>
     </row>
-    <row r="518" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="1"/>
       <c r="C518" s="14"/>
       <c r="E518" s="15"/>
       <c r="F518" s="15"/>
     </row>
-    <row r="519" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="1"/>
       <c r="C519" s="14"/>
       <c r="E519" s="15"/>
       <c r="F519" s="15"/>
     </row>
-    <row r="520" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="1"/>
       <c r="C520" s="14"/>
       <c r="E520" s="15"/>
       <c r="F520" s="15"/>
     </row>
-    <row r="521" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="1"/>
       <c r="C521" s="14"/>
       <c r="E521" s="15"/>
       <c r="F521" s="15"/>
     </row>
-    <row r="522" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="1"/>
       <c r="C522" s="14"/>
       <c r="E522" s="15"/>
       <c r="F522" s="15"/>
     </row>
-    <row r="523" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="1"/>
       <c r="C523" s="14"/>
       <c r="E523" s="15"/>
       <c r="F523" s="15"/>
     </row>
-    <row r="524" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="1"/>
       <c r="C524" s="14"/>
       <c r="E524" s="15"/>
       <c r="F524" s="15"/>
     </row>
-    <row r="525" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="1"/>
       <c r="C525" s="14"/>
       <c r="E525" s="15"/>
       <c r="F525" s="15"/>
     </row>
-    <row r="526" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="1"/>
       <c r="C526" s="14"/>
       <c r="E526" s="15"/>
       <c r="F526" s="15"/>
     </row>
-    <row r="527" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="1"/>
       <c r="C527" s="14"/>
       <c r="E527" s="15"/>
       <c r="F527" s="15"/>
     </row>
-    <row r="528" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="1"/>
       <c r="C528" s="14"/>
       <c r="E528" s="15"/>
       <c r="F528" s="15"/>
     </row>
-    <row r="529" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="1"/>
       <c r="C529" s="14"/>
       <c r="E529" s="15"/>
       <c r="F529" s="15"/>
     </row>
-    <row r="530" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="1"/>
       <c r="C530" s="14"/>
       <c r="E530" s="15"/>
       <c r="F530" s="15"/>
     </row>
-    <row r="531" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="1"/>
       <c r="C531" s="14"/>
       <c r="E531" s="15"/>
       <c r="F531" s="15"/>
     </row>
-    <row r="532" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="1"/>
       <c r="C532" s="14"/>
       <c r="E532" s="15"/>
       <c r="F532" s="15"/>
     </row>
-    <row r="533" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="1"/>
       <c r="C533" s="14"/>
       <c r="E533" s="15"/>
       <c r="F533" s="15"/>
     </row>
-    <row r="534" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="1"/>
       <c r="C534" s="14"/>
       <c r="E534" s="15"/>
       <c r="F534" s="15"/>
     </row>
-    <row r="535" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="1"/>
       <c r="C535" s="14"/>
       <c r="E535" s="15"/>
       <c r="F535" s="15"/>
     </row>
-    <row r="536" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="1"/>
       <c r="C536" s="14"/>
       <c r="E536" s="15"/>
       <c r="F536" s="15"/>
     </row>
-    <row r="537" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="1"/>
       <c r="C537" s="14"/>
       <c r="E537" s="15"/>
       <c r="F537" s="15"/>
     </row>
-    <row r="538" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="1"/>
       <c r="C538" s="14"/>
       <c r="E538" s="15"/>
       <c r="F538" s="15"/>
     </row>
-    <row r="539" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="1"/>
       <c r="C539" s="14"/>
       <c r="E539" s="15"/>
       <c r="F539" s="15"/>
     </row>
-    <row r="540" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="1"/>
       <c r="C540" s="14"/>
       <c r="E540" s="15"/>
       <c r="F540" s="15"/>
     </row>
-    <row r="541" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="1"/>
       <c r="C541" s="14"/>
       <c r="E541" s="15"/>
       <c r="F541" s="15"/>
     </row>
-    <row r="542" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="1"/>
       <c r="C542" s="14"/>
       <c r="E542" s="15"/>
       <c r="F542" s="15"/>
     </row>
-    <row r="543" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="1"/>
       <c r="C543" s="14"/>
       <c r="E543" s="15"/>
       <c r="F543" s="15"/>
     </row>
-    <row r="544" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="1"/>
       <c r="C544" s="14"/>
       <c r="E544" s="15"/>
       <c r="F544" s="15"/>
     </row>
-    <row r="545" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="1"/>
       <c r="C545" s="14"/>
       <c r="E545" s="15"/>
       <c r="F545" s="15"/>
     </row>
-    <row r="546" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="1"/>
       <c r="C546" s="14"/>
       <c r="E546" s="15"/>
       <c r="F546" s="15"/>
     </row>
-    <row r="547" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="1"/>
       <c r="C547" s="14"/>
       <c r="E547" s="15"/>
       <c r="F547" s="15"/>
     </row>
-    <row r="548" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="1"/>
       <c r="C548" s="14"/>
       <c r="E548" s="15"/>
       <c r="F548" s="15"/>
     </row>
-    <row r="549" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="1"/>
       <c r="C549" s="14"/>
       <c r="E549" s="15"/>
       <c r="F549" s="15"/>
     </row>
-    <row r="550" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="1"/>
       <c r="C550" s="14"/>
       <c r="E550" s="15"/>
       <c r="F550" s="15"/>
     </row>
-    <row r="551" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="1"/>
       <c r="C551" s="14"/>
       <c r="E551" s="15"/>
       <c r="F551" s="15"/>
     </row>
-    <row r="552" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="1"/>
       <c r="C552" s="14"/>
       <c r="E552" s="15"/>
       <c r="F552" s="15"/>
     </row>
-    <row r="553" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="1"/>
       <c r="C553" s="14"/>
       <c r="E553" s="15"/>
       <c r="F553" s="15"/>
     </row>
-    <row r="554" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="1"/>
       <c r="C554" s="14"/>
       <c r="E554" s="15"/>
       <c r="F554" s="15"/>
     </row>
-    <row r="555" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="1"/>
       <c r="C555" s="14"/>
       <c r="E555" s="15"/>
       <c r="F555" s="15"/>
     </row>
-    <row r="556" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="1"/>
       <c r="C556" s="14"/>
       <c r="E556" s="15"/>
       <c r="F556" s="15"/>
     </row>
-    <row r="557" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="1"/>
       <c r="C557" s="14"/>
       <c r="E557" s="15"/>
       <c r="F557" s="15"/>
     </row>
-    <row r="558" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="1"/>
       <c r="C558" s="14"/>
       <c r="E558" s="15"/>
       <c r="F558" s="15"/>
     </row>
-    <row r="559" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="1"/>
       <c r="C559" s="14"/>
       <c r="E559" s="15"/>
       <c r="F559" s="15"/>
     </row>
-    <row r="560" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="1"/>
       <c r="C560" s="14"/>
       <c r="E560" s="15"/>
       <c r="F560" s="15"/>
     </row>
-    <row r="561" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="1"/>
       <c r="C561" s="14"/>
       <c r="E561" s="15"/>
       <c r="F561" s="15"/>
     </row>
-    <row r="562" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="1"/>
       <c r="C562" s="14"/>
       <c r="E562" s="15"/>
       <c r="F562" s="15"/>
     </row>
-    <row r="563" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="1"/>
       <c r="C563" s="14"/>
       <c r="E563" s="15"/>
       <c r="F563" s="15"/>
     </row>
-    <row r="564" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="1"/>
       <c r="C564" s="14"/>
       <c r="E564" s="15"/>
       <c r="F564" s="15"/>
     </row>
-    <row r="565" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="1"/>
       <c r="C565" s="14"/>
       <c r="E565" s="15"/>
       <c r="F565" s="15"/>
     </row>
-    <row r="566" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="1"/>
       <c r="C566" s="14"/>
       <c r="E566" s="15"/>
       <c r="F566" s="15"/>
     </row>
-    <row r="567" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="1"/>
       <c r="C567" s="14"/>
       <c r="E567" s="15"/>
       <c r="F567" s="15"/>
     </row>
-    <row r="568" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="1"/>
       <c r="C568" s="14"/>
       <c r="E568" s="15"/>
       <c r="F568" s="15"/>
     </row>
-    <row r="569" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="1"/>
       <c r="C569" s="14"/>
       <c r="E569" s="15"/>
       <c r="F569" s="15"/>
     </row>
-    <row r="570" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="1"/>
       <c r="C570" s="14"/>
       <c r="E570" s="15"/>
       <c r="F570" s="15"/>
     </row>
-    <row r="571" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="1"/>
       <c r="C571" s="14"/>
       <c r="E571" s="15"/>
       <c r="F571" s="15"/>
     </row>
-    <row r="572" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="1"/>
       <c r="C572" s="14"/>
       <c r="E572" s="15"/>
       <c r="F572" s="15"/>
     </row>
-    <row r="573" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="1"/>
       <c r="C573" s="14"/>
       <c r="E573" s="15"/>
       <c r="F573" s="15"/>
     </row>
-    <row r="574" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="1"/>
       <c r="C574" s="14"/>
       <c r="E574" s="15"/>
       <c r="F574" s="15"/>
     </row>
-    <row r="575" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="1"/>
       <c r="C575" s="14"/>
       <c r="E575" s="15"/>
       <c r="F575" s="15"/>
     </row>
-    <row r="576" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="1"/>
       <c r="C576" s="14"/>
       <c r="E576" s="15"/>
       <c r="F576" s="15"/>
     </row>
-    <row r="577" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="1"/>
       <c r="C577" s="14"/>
       <c r="E577" s="15"/>
       <c r="F577" s="15"/>
     </row>
-    <row r="578" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="1"/>
       <c r="C578" s="14"/>
       <c r="E578" s="15"/>
       <c r="F578" s="15"/>
     </row>
-    <row r="579" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="1"/>
       <c r="C579" s="14"/>
       <c r="E579" s="15"/>
       <c r="F579" s="15"/>
     </row>
-    <row r="580" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="1"/>
       <c r="C580" s="14"/>
       <c r="E580" s="15"/>
       <c r="F580" s="15"/>
     </row>
-    <row r="581" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="1"/>
       <c r="C581" s="14"/>
       <c r="E581" s="15"/>
       <c r="F581" s="15"/>
     </row>
-    <row r="582" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="1"/>
       <c r="C582" s="14"/>
       <c r="E582" s="15"/>
       <c r="F582" s="15"/>
     </row>
-    <row r="583" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="1"/>
       <c r="C583" s="14"/>
       <c r="E583" s="15"/>
       <c r="F583" s="15"/>
     </row>
-    <row r="584" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="1"/>
       <c r="C584" s="14"/>
       <c r="E584" s="15"/>
       <c r="F584" s="15"/>
     </row>
-    <row r="585" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="1"/>
       <c r="C585" s="14"/>
       <c r="E585" s="15"/>
       <c r="F585" s="15"/>
     </row>
-    <row r="586" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="1"/>
       <c r="C586" s="14"/>
       <c r="E586" s="15"/>
       <c r="F586" s="15"/>
     </row>
-    <row r="587" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="1"/>
       <c r="C587" s="14"/>
       <c r="E587" s="15"/>
       <c r="F587" s="15"/>
     </row>
-    <row r="588" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="1"/>
       <c r="C588" s="14"/>
       <c r="E588" s="15"/>
       <c r="F588" s="15"/>
     </row>
-    <row r="589" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="1"/>
       <c r="C589" s="14"/>
       <c r="E589" s="15"/>
       <c r="F589" s="15"/>
     </row>
-    <row r="590" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="1"/>
       <c r="C590" s="14"/>
       <c r="E590" s="15"/>
       <c r="F590" s="15"/>
     </row>
-    <row r="591" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="1"/>
       <c r="C591" s="14"/>
       <c r="E591" s="15"/>
       <c r="F591" s="15"/>
     </row>
-    <row r="592" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="1"/>
       <c r="C592" s="14"/>
       <c r="E592" s="15"/>
       <c r="F592" s="15"/>
     </row>
-    <row r="593" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="1"/>
       <c r="C593" s="14"/>
       <c r="E593" s="15"/>
       <c r="F593" s="15"/>
     </row>
-    <row r="594" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="1"/>
       <c r="C594" s="14"/>
       <c r="E594" s="15"/>
       <c r="F594" s="15"/>
     </row>
-    <row r="595" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="1"/>
       <c r="C595" s="14"/>
       <c r="E595" s="15"/>
       <c r="F595" s="15"/>
     </row>
-    <row r="596" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="1"/>
       <c r="C596" s="14"/>
       <c r="E596" s="15"/>
       <c r="F596" s="15"/>
     </row>
-    <row r="597" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="1"/>
       <c r="C597" s="14"/>
       <c r="E597" s="15"/>
       <c r="F597" s="15"/>
     </row>
-    <row r="598" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="1"/>
       <c r="C598" s="14"/>
       <c r="E598" s="15"/>
       <c r="F598" s="15"/>
     </row>
-    <row r="599" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="1"/>
       <c r="C599" s="14"/>
       <c r="E599" s="15"/>
       <c r="F599" s="15"/>
     </row>
-    <row r="600" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="1"/>
       <c r="C600" s="14"/>
       <c r="E600" s="15"/>
       <c r="F600" s="15"/>
     </row>
-    <row r="601" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="1"/>
       <c r="C601" s="14"/>
       <c r="E601" s="15"/>
       <c r="F601" s="15"/>
     </row>
-    <row r="602" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="1"/>
       <c r="C602" s="14"/>
       <c r="E602" s="15"/>
       <c r="F602" s="15"/>
     </row>
-    <row r="603" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="1"/>
       <c r="C603" s="14"/>
       <c r="E603" s="15"/>
       <c r="F603" s="15"/>
     </row>
-    <row r="604" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="1"/>
       <c r="C604" s="14"/>
       <c r="E604" s="15"/>
       <c r="F604" s="15"/>
     </row>
-    <row r="605" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="1"/>
       <c r="C605" s="14"/>
       <c r="E605" s="15"/>
       <c r="F605" s="15"/>
     </row>
-    <row r="606" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="1"/>
       <c r="C606" s="14"/>
       <c r="E606" s="15"/>
       <c r="F606" s="15"/>
     </row>
-    <row r="607" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="1"/>
       <c r="C607" s="14"/>
       <c r="E607" s="15"/>
       <c r="F607" s="15"/>
     </row>
-    <row r="608" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="1"/>
       <c r="C608" s="14"/>
       <c r="E608" s="15"/>
       <c r="F608" s="15"/>
     </row>
-    <row r="609" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="1"/>
       <c r="C609" s="14"/>
       <c r="E609" s="15"/>
       <c r="F609" s="15"/>
     </row>
-    <row r="610" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="1"/>
       <c r="C610" s="14"/>
       <c r="E610" s="15"/>
       <c r="F610" s="15"/>
     </row>
-    <row r="611" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="1"/>
       <c r="C611" s="14"/>
       <c r="E611" s="15"/>
       <c r="F611" s="15"/>
     </row>
-    <row r="612" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="1"/>
       <c r="C612" s="14"/>
       <c r="E612" s="15"/>
       <c r="F612" s="15"/>
     </row>
-    <row r="613" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="1"/>
       <c r="C613" s="14"/>
       <c r="E613" s="15"/>
       <c r="F613" s="15"/>
     </row>
-    <row r="614" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="1"/>
       <c r="C614" s="14"/>
       <c r="E614" s="15"/>
       <c r="F614" s="15"/>
     </row>
-    <row r="615" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="1"/>
       <c r="C615" s="14"/>
       <c r="E615" s="15"/>
       <c r="F615" s="15"/>
     </row>
-    <row r="616" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="1"/>
       <c r="C616" s="14"/>
       <c r="E616" s="15"/>
       <c r="F616" s="15"/>
     </row>
-    <row r="617" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="1"/>
       <c r="C617" s="14"/>
       <c r="E617" s="15"/>
       <c r="F617" s="15"/>
     </row>
-    <row r="618" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="1"/>
       <c r="C618" s="14"/>
       <c r="E618" s="15"/>
       <c r="F618" s="15"/>
     </row>
-    <row r="619" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="1"/>
       <c r="C619" s="14"/>
       <c r="E619" s="15"/>
       <c r="F619" s="15"/>
     </row>
-    <row r="620" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="1"/>
       <c r="C620" s="14"/>
       <c r="E620" s="15"/>
       <c r="F620" s="15"/>
     </row>
-    <row r="621" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="1"/>
       <c r="C621" s="14"/>
       <c r="E621" s="15"/>
       <c r="F621" s="15"/>
     </row>
-    <row r="622" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="1"/>
       <c r="C622" s="14"/>
       <c r="E622" s="15"/>
       <c r="F622" s="15"/>
     </row>
-    <row r="623" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="1"/>
       <c r="C623" s="14"/>
       <c r="E623" s="15"/>
       <c r="F623" s="15"/>
     </row>
-    <row r="624" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="1"/>
       <c r="C624" s="14"/>
       <c r="E624" s="15"/>
       <c r="F624" s="15"/>
     </row>
-    <row r="625" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="1"/>
       <c r="C625" s="14"/>
       <c r="E625" s="15"/>
       <c r="F625" s="15"/>
     </row>
-    <row r="626" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="1"/>
       <c r="C626" s="14"/>
       <c r="E626" s="15"/>
       <c r="F626" s="15"/>
     </row>
-    <row r="627" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="1"/>
       <c r="C627" s="14"/>
       <c r="E627" s="15"/>
       <c r="F627" s="15"/>
     </row>
-    <row r="628" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="1"/>
       <c r="C628" s="14"/>
       <c r="E628" s="15"/>
       <c r="F628" s="15"/>
     </row>
-    <row r="629" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="1"/>
       <c r="C629" s="14"/>
       <c r="E629" s="15"/>
       <c r="F629" s="15"/>
     </row>
-    <row r="630" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="1"/>
       <c r="C630" s="14"/>
       <c r="E630" s="15"/>
       <c r="F630" s="15"/>
     </row>
-    <row r="631" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="1"/>
       <c r="C631" s="14"/>
       <c r="E631" s="15"/>
       <c r="F631" s="15"/>
     </row>
-    <row r="632" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="1"/>
       <c r="C632" s="14"/>
       <c r="E632" s="15"/>
       <c r="F632" s="15"/>
     </row>
-    <row r="633" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="1"/>
       <c r="C633" s="14"/>
       <c r="E633" s="15"/>
       <c r="F633" s="15"/>
     </row>
-    <row r="634" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="1"/>
       <c r="C634" s="14"/>
       <c r="E634" s="15"/>
       <c r="F634" s="15"/>
     </row>
-    <row r="635" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="1"/>
       <c r="C635" s="14"/>
       <c r="E635" s="15"/>
       <c r="F635" s="15"/>
     </row>
-    <row r="636" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="1"/>
       <c r="C636" s="14"/>
       <c r="E636" s="15"/>
       <c r="F636" s="15"/>
     </row>
-    <row r="637" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="1"/>
       <c r="C637" s="14"/>
       <c r="E637" s="15"/>
       <c r="F637" s="15"/>
     </row>
-    <row r="638" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="1"/>
       <c r="C638" s="14"/>
       <c r="E638" s="15"/>
       <c r="F638" s="15"/>
     </row>
-    <row r="639" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="1"/>
       <c r="C639" s="14"/>
       <c r="E639" s="15"/>
       <c r="F639" s="15"/>
     </row>
-    <row r="640" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="1"/>
       <c r="C640" s="14"/>
       <c r="E640" s="15"/>
       <c r="F640" s="15"/>
     </row>
-    <row r="641" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="1"/>
       <c r="C641" s="14"/>
       <c r="E641" s="15"/>
       <c r="F641" s="15"/>
     </row>
-    <row r="642" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="1"/>
       <c r="C642" s="14"/>
       <c r="E642" s="15"/>
       <c r="F642" s="15"/>
     </row>
-    <row r="643" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="1"/>
       <c r="C643" s="14"/>
       <c r="E643" s="15"/>
       <c r="F643" s="15"/>
     </row>
-    <row r="644" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="1"/>
       <c r="C644" s="14"/>
       <c r="E644" s="15"/>
       <c r="F644" s="15"/>
     </row>
-    <row r="645" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="1"/>
       <c r="C645" s="14"/>
       <c r="E645" s="15"/>
       <c r="F645" s="15"/>
     </row>
-    <row r="646" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="1"/>
       <c r="C646" s="14"/>
       <c r="E646" s="15"/>
       <c r="F646" s="15"/>
     </row>
-    <row r="647" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="1"/>
       <c r="C647" s="14"/>
       <c r="E647" s="15"/>
       <c r="F647" s="15"/>
     </row>
-    <row r="648" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="1"/>
       <c r="C648" s="14"/>
       <c r="E648" s="15"/>
       <c r="F648" s="15"/>
     </row>
-    <row r="649" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="1"/>
       <c r="C649" s="14"/>
       <c r="E649" s="15"/>
       <c r="F649" s="15"/>
     </row>
-    <row r="650" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="1"/>
       <c r="C650" s="14"/>
       <c r="E650" s="15"/>
       <c r="F650" s="15"/>
     </row>
-    <row r="651" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="1"/>
       <c r="C651" s="14"/>
       <c r="E651" s="15"/>
       <c r="F651" s="15"/>
     </row>
-    <row r="652" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="1"/>
       <c r="C652" s="14"/>
       <c r="E652" s="15"/>
       <c r="F652" s="15"/>
     </row>
-    <row r="653" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="1"/>
       <c r="C653" s="14"/>
       <c r="E653" s="15"/>
       <c r="F653" s="15"/>
     </row>
-    <row r="654" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="1"/>
       <c r="C654" s="14"/>
       <c r="E654" s="15"/>
       <c r="F654" s="15"/>
     </row>
-    <row r="655" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="1"/>
       <c r="C655" s="14"/>
       <c r="E655" s="15"/>
       <c r="F655" s="15"/>
     </row>
-    <row r="656" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="1"/>
       <c r="C656" s="14"/>
       <c r="E656" s="15"/>
       <c r="F656" s="15"/>
     </row>
-    <row r="657" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="1"/>
       <c r="C657" s="14"/>
       <c r="E657" s="15"/>
       <c r="F657" s="15"/>
     </row>
-    <row r="658" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="1"/>
       <c r="C658" s="14"/>
       <c r="E658" s="15"/>
       <c r="F658" s="15"/>
     </row>
-    <row r="659" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="1"/>
       <c r="C659" s="14"/>
       <c r="E659" s="15"/>
       <c r="F659" s="15"/>
     </row>
-    <row r="660" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="1"/>
       <c r="C660" s="14"/>
       <c r="E660" s="15"/>
       <c r="F660" s="15"/>
     </row>
-    <row r="661" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="1"/>
       <c r="C661" s="14"/>
       <c r="E661" s="15"/>
       <c r="F661" s="15"/>
     </row>
-    <row r="662" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="1"/>
       <c r="C662" s="14"/>
       <c r="E662" s="15"/>
       <c r="F662" s="15"/>
     </row>
-    <row r="663" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="1"/>
       <c r="C663" s="14"/>
       <c r="E663" s="15"/>
       <c r="F663" s="15"/>
     </row>
-    <row r="664" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="1"/>
       <c r="C664" s="14"/>
       <c r="E664" s="15"/>
       <c r="F664" s="15"/>
     </row>
-    <row r="665" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="1"/>
       <c r="C665" s="14"/>
       <c r="E665" s="15"/>
       <c r="F665" s="15"/>
     </row>
-    <row r="666" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="1"/>
       <c r="C666" s="14"/>
       <c r="E666" s="15"/>
       <c r="F666" s="15"/>
     </row>
-    <row r="667" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="1"/>
       <c r="C667" s="14"/>
       <c r="E667" s="15"/>
       <c r="F667" s="15"/>
     </row>
-    <row r="668" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="1"/>
       <c r="C668" s="14"/>
       <c r="E668" s="15"/>
       <c r="F668" s="15"/>
     </row>
-    <row r="669" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="1"/>
       <c r="C669" s="14"/>
       <c r="E669" s="15"/>
       <c r="F669" s="15"/>
     </row>
-    <row r="670" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="1"/>
       <c r="C670" s="14"/>
       <c r="E670" s="15"/>
       <c r="F670" s="15"/>
     </row>
-    <row r="671" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="1"/>
       <c r="C671" s="14"/>
       <c r="E671" s="15"/>
       <c r="F671" s="15"/>
     </row>
-    <row r="672" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="1"/>
       <c r="C672" s="14"/>
       <c r="E672" s="15"/>
       <c r="F672" s="15"/>
     </row>
-    <row r="673" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="1"/>
       <c r="C673" s="14"/>
       <c r="E673" s="15"/>
       <c r="F673" s="15"/>
     </row>
-    <row r="674" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="1"/>
       <c r="C674" s="14"/>
       <c r="E674" s="15"/>
       <c r="F674" s="15"/>
     </row>
-    <row r="675" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="1"/>
       <c r="C675" s="14"/>
       <c r="E675" s="15"/>
       <c r="F675" s="15"/>
     </row>
-    <row r="676" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="1"/>
       <c r="C676" s="14"/>
       <c r="E676" s="15"/>
       <c r="F676" s="15"/>
     </row>
-    <row r="677" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="1"/>
       <c r="C677" s="14"/>
       <c r="E677" s="15"/>
       <c r="F677" s="15"/>
     </row>
-    <row r="678" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="1"/>
       <c r="C678" s="14"/>
       <c r="E678" s="15"/>
       <c r="F678" s="15"/>
     </row>
-    <row r="679" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="1"/>
       <c r="C679" s="14"/>
       <c r="E679" s="15"/>
       <c r="F679" s="15"/>
     </row>
-    <row r="680" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="1"/>
       <c r="C680" s="14"/>
       <c r="E680" s="15"/>
       <c r="F680" s="15"/>
     </row>
-    <row r="681" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="1"/>
       <c r="C681" s="14"/>
       <c r="E681" s="15"/>
       <c r="F681" s="15"/>
     </row>
-    <row r="682" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="1"/>
       <c r="C682" s="14"/>
       <c r="E682" s="15"/>
       <c r="F682" s="15"/>
     </row>
-    <row r="683" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="1"/>
       <c r="C683" s="14"/>
       <c r="E683" s="15"/>
       <c r="F683" s="15"/>
     </row>
-    <row r="684" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="1"/>
       <c r="C684" s="14"/>
       <c r="E684" s="15"/>
       <c r="F684" s="15"/>
     </row>
-    <row r="685" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="1"/>
       <c r="C685" s="14"/>
       <c r="E685" s="15"/>
       <c r="F685" s="15"/>
     </row>
-    <row r="686" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="1"/>
       <c r="C686" s="14"/>
       <c r="E686" s="15"/>
       <c r="F686" s="15"/>
     </row>
-    <row r="687" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="1"/>
       <c r="C687" s="14"/>
       <c r="E687" s="15"/>
       <c r="F687" s="15"/>
     </row>
-    <row r="688" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="1"/>
       <c r="C688" s="14"/>
       <c r="E688" s="15"/>
       <c r="F688" s="15"/>
     </row>
-    <row r="689" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="1"/>
       <c r="C689" s="14"/>
       <c r="E689" s="15"/>
       <c r="F689" s="15"/>
     </row>
-    <row r="690" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="1"/>
       <c r="C690" s="14"/>
       <c r="E690" s="15"/>
       <c r="F690" s="15"/>
     </row>
-    <row r="691" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="1"/>
       <c r="C691" s="14"/>
       <c r="E691" s="15"/>
       <c r="F691" s="15"/>
     </row>
-    <row r="692" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="1"/>
       <c r="C692" s="14"/>
       <c r="E692" s="15"/>
       <c r="F692" s="15"/>
     </row>
-    <row r="693" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="1"/>
       <c r="C693" s="14"/>
       <c r="E693" s="15"/>
       <c r="F693" s="15"/>
     </row>
-    <row r="694" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="1"/>
       <c r="C694" s="14"/>
       <c r="E694" s="15"/>
       <c r="F694" s="15"/>
     </row>
-    <row r="695" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="1"/>
       <c r="C695" s="14"/>
       <c r="E695" s="15"/>
       <c r="F695" s="15"/>
     </row>
-    <row r="696" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="1"/>
       <c r="C696" s="14"/>
       <c r="E696" s="15"/>
       <c r="F696" s="15"/>
     </row>
-    <row r="697" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="1"/>
       <c r="C697" s="14"/>
       <c r="E697" s="15"/>
       <c r="F697" s="15"/>
     </row>
-    <row r="698" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="1"/>
       <c r="C698" s="14"/>
       <c r="E698" s="15"/>
       <c r="F698" s="15"/>
     </row>
-    <row r="699" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="1"/>
       <c r="C699" s="14"/>
       <c r="E699" s="15"/>
       <c r="F699" s="15"/>
     </row>
-    <row r="700" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="1"/>
       <c r="C700" s="14"/>
       <c r="E700" s="15"/>
       <c r="F700" s="15"/>
     </row>
-    <row r="701" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="1"/>
       <c r="C701" s="14"/>
       <c r="E701" s="15"/>
       <c r="F701" s="15"/>
     </row>
-    <row r="702" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="1"/>
       <c r="C702" s="14"/>
       <c r="E702" s="15"/>
       <c r="F702" s="15"/>
     </row>
-    <row r="703" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="1"/>
       <c r="C703" s="14"/>
       <c r="E703" s="15"/>
       <c r="F703" s="15"/>
     </row>
-    <row r="704" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="1"/>
       <c r="C704" s="14"/>
       <c r="E704" s="15"/>
       <c r="F704" s="15"/>
     </row>
-    <row r="705" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="1"/>
       <c r="C705" s="14"/>
       <c r="E705" s="15"/>
       <c r="F705" s="15"/>
     </row>
-    <row r="706" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="1"/>
       <c r="C706" s="14"/>
       <c r="E706" s="15"/>
       <c r="F706" s="15"/>
     </row>
-    <row r="707" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="1"/>
       <c r="C707" s="14"/>
       <c r="E707" s="15"/>
       <c r="F707" s="15"/>
     </row>
-    <row r="708" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="1"/>
       <c r="C708" s="14"/>
       <c r="E708" s="15"/>
       <c r="F708" s="15"/>
     </row>
-    <row r="709" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="1"/>
       <c r="C709" s="14"/>
       <c r="E709" s="15"/>
       <c r="F709" s="15"/>
     </row>
-    <row r="710" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="1"/>
       <c r="C710" s="14"/>
       <c r="E710" s="15"/>
       <c r="F710" s="15"/>
     </row>
-    <row r="711" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="1"/>
       <c r="C711" s="14"/>
       <c r="E711" s="15"/>
       <c r="F711" s="15"/>
     </row>
-    <row r="712" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="1"/>
       <c r="C712" s="14"/>
       <c r="E712" s="15"/>
       <c r="F712" s="15"/>
     </row>
-    <row r="713" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="1"/>
       <c r="C713" s="14"/>
       <c r="E713" s="15"/>
       <c r="F713" s="15"/>
     </row>
-    <row r="714" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="1"/>
       <c r="C714" s="14"/>
       <c r="E714" s="15"/>
       <c r="F714" s="15"/>
     </row>
-    <row r="715" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="1"/>
       <c r="C715" s="14"/>
       <c r="E715" s="15"/>
       <c r="F715" s="15"/>
     </row>
-    <row r="716" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="1"/>
       <c r="C716" s="14"/>
       <c r="E716" s="15"/>
       <c r="F716" s="15"/>
     </row>
-    <row r="717" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="1"/>
       <c r="C717" s="14"/>
       <c r="E717" s="15"/>
       <c r="F717" s="15"/>
     </row>
-    <row r="718" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="1"/>
       <c r="C718" s="14"/>
       <c r="E718" s="15"/>
       <c r="F718" s="15"/>
     </row>
-    <row r="719" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="1"/>
       <c r="C719" s="14"/>
       <c r="E719" s="15"/>
       <c r="F719" s="15"/>
     </row>
-    <row r="720" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="1"/>
       <c r="C720" s="14"/>
       <c r="E720" s="15"/>
       <c r="F720" s="15"/>
     </row>
-    <row r="721" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="1"/>
       <c r="C721" s="14"/>
       <c r="E721" s="15"/>
       <c r="F721" s="15"/>
     </row>
-    <row r="722" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="1"/>
       <c r="C722" s="14"/>
       <c r="E722" s="15"/>
       <c r="F722" s="15"/>
     </row>
-    <row r="723" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="1"/>
       <c r="C723" s="14"/>
       <c r="E723" s="15"/>
       <c r="F723" s="15"/>
     </row>
-    <row r="724" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="1"/>
       <c r="C724" s="14"/>
       <c r="E724" s="15"/>
       <c r="F724" s="15"/>
     </row>
-    <row r="725" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="1"/>
       <c r="C725" s="14"/>
       <c r="E725" s="15"/>
       <c r="F725" s="15"/>
     </row>
-    <row r="726" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="1"/>
       <c r="C726" s="14"/>
       <c r="E726" s="15"/>
       <c r="F726" s="15"/>
     </row>
-    <row r="727" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="1"/>
       <c r="C727" s="14"/>
       <c r="E727" s="15"/>
       <c r="F727" s="15"/>
     </row>
-    <row r="728" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="1"/>
       <c r="C728" s="14"/>
       <c r="E728" s="15"/>
       <c r="F728" s="15"/>
     </row>
-    <row r="729" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="1"/>
       <c r="C729" s="14"/>
       <c r="E729" s="15"/>
       <c r="F729" s="15"/>
     </row>
-    <row r="730" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="1"/>
       <c r="C730" s="14"/>
       <c r="E730" s="15"/>
       <c r="F730" s="15"/>
     </row>
-    <row r="731" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="1"/>
       <c r="C731" s="14"/>
       <c r="E731" s="15"/>
       <c r="F731" s="15"/>
     </row>
-    <row r="732" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="1"/>
       <c r="C732" s="14"/>
       <c r="E732" s="15"/>
       <c r="F732" s="15"/>
     </row>
-    <row r="733" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="1"/>
       <c r="C733" s="14"/>
       <c r="E733" s="15"/>
       <c r="F733" s="15"/>
     </row>
-    <row r="734" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="1"/>
       <c r="C734" s="14"/>
       <c r="E734" s="15"/>
       <c r="F734" s="15"/>
     </row>
-    <row r="735" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="1"/>
       <c r="C735" s="14"/>
       <c r="E735" s="15"/>
       <c r="F735" s="15"/>
     </row>
-    <row r="736" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="1"/>
       <c r="C736" s="14"/>
       <c r="E736" s="15"/>
       <c r="F736" s="15"/>
     </row>
-    <row r="737" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="1"/>
       <c r="C737" s="14"/>
       <c r="E737" s="15"/>
       <c r="F737" s="15"/>
     </row>
-    <row r="738" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="1"/>
       <c r="C738" s="14"/>
       <c r="E738" s="15"/>
       <c r="F738" s="15"/>
     </row>
-    <row r="739" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="1"/>
       <c r="C739" s="14"/>
       <c r="E739" s="15"/>
       <c r="F739" s="15"/>
     </row>
-    <row r="740" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="1"/>
       <c r="C740" s="14"/>
       <c r="E740" s="15"/>
       <c r="F740" s="15"/>
     </row>
-    <row r="741" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="1"/>
       <c r="C741" s="14"/>
       <c r="E741" s="15"/>
       <c r="F741" s="15"/>
     </row>
-    <row r="742" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="1"/>
       <c r="C742" s="14"/>
       <c r="E742" s="15"/>
       <c r="F742" s="15"/>
     </row>
-    <row r="743" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="1"/>
       <c r="C743" s="14"/>
       <c r="E743" s="15"/>
       <c r="F743" s="15"/>
     </row>
-    <row r="744" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="1"/>
       <c r="C744" s="14"/>
       <c r="E744" s="15"/>
       <c r="F744" s="15"/>
     </row>
-    <row r="745" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="1"/>
       <c r="C745" s="14"/>
       <c r="E745" s="15"/>
       <c r="F745" s="15"/>
     </row>
-    <row r="746" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="1"/>
       <c r="C746" s="14"/>
       <c r="E746" s="15"/>
       <c r="F746" s="15"/>
     </row>
-    <row r="747" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="1"/>
       <c r="C747" s="14"/>
       <c r="E747" s="15"/>
       <c r="F747" s="15"/>
     </row>
-    <row r="748" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="1"/>
       <c r="C748" s="14"/>
       <c r="E748" s="15"/>
       <c r="F748" s="15"/>
     </row>
-    <row r="749" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="1"/>
       <c r="C749" s="14"/>
       <c r="E749" s="15"/>
       <c r="F749" s="15"/>
     </row>
-    <row r="750" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="1"/>
       <c r="C750" s="14"/>
       <c r="E750" s="15"/>
       <c r="F750" s="15"/>
     </row>
-    <row r="751" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="1"/>
       <c r="C751" s="14"/>
       <c r="E751" s="15"/>
       <c r="F751" s="15"/>
     </row>
-    <row r="752" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="1"/>
       <c r="C752" s="14"/>
       <c r="E752" s="15"/>
       <c r="F752" s="15"/>
     </row>
-    <row r="753" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="1"/>
       <c r="C753" s="14"/>
       <c r="E753" s="15"/>
       <c r="F753" s="15"/>
     </row>
-    <row r="754" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="1"/>
       <c r="C754" s="14"/>
       <c r="E754" s="15"/>
       <c r="F754" s="15"/>
     </row>
-    <row r="755" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="1"/>
       <c r="C755" s="14"/>
       <c r="E755" s="15"/>
       <c r="F755" s="15"/>
     </row>
-    <row r="756" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="1"/>
       <c r="C756" s="14"/>
       <c r="E756" s="15"/>
       <c r="F756" s="15"/>
     </row>
-    <row r="757" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="1"/>
       <c r="C757" s="14"/>
       <c r="E757" s="15"/>
       <c r="F757" s="15"/>
     </row>
-    <row r="758" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="1"/>
       <c r="C758" s="14"/>
       <c r="E758" s="15"/>
       <c r="F758" s="15"/>
     </row>
-    <row r="759" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="1"/>
       <c r="C759" s="14"/>
       <c r="E759" s="15"/>
       <c r="F759" s="15"/>
     </row>
-    <row r="760" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="1"/>
       <c r="C760" s="14"/>
       <c r="E760" s="15"/>
       <c r="F760" s="15"/>
     </row>
-    <row r="761" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="1"/>
       <c r="C761" s="14"/>
       <c r="E761" s="15"/>
       <c r="F761" s="15"/>
     </row>
-    <row r="762" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="1"/>
       <c r="C762" s="14"/>
       <c r="E762" s="15"/>
       <c r="F762" s="15"/>
     </row>
-    <row r="763" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="1"/>
       <c r="C763" s="14"/>
       <c r="E763" s="15"/>
       <c r="F763" s="15"/>
     </row>
-    <row r="764" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="1"/>
       <c r="C764" s="14"/>
       <c r="E764" s="15"/>
       <c r="F764" s="15"/>
     </row>
-    <row r="765" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="1"/>
       <c r="C765" s="14"/>
       <c r="E765" s="15"/>
       <c r="F765" s="15"/>
     </row>
-    <row r="766" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="1"/>
       <c r="C766" s="14"/>
       <c r="E766" s="15"/>
       <c r="F766" s="15"/>
     </row>
-    <row r="767" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="1"/>
       <c r="C767" s="14"/>
       <c r="E767" s="15"/>
       <c r="F767" s="15"/>
     </row>
-    <row r="768" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="1"/>
       <c r="C768" s="14"/>
       <c r="E768" s="15"/>
       <c r="F768" s="15"/>
     </row>
-    <row r="769" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="1"/>
       <c r="C769" s="14"/>
       <c r="E769" s="15"/>
       <c r="F769" s="15"/>
     </row>
-    <row r="770" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="1"/>
       <c r="C770" s="14"/>
       <c r="E770" s="15"/>
       <c r="F770" s="15"/>
     </row>
-    <row r="771" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="1"/>
       <c r="C771" s="14"/>
       <c r="E771" s="15"/>
       <c r="F771" s="15"/>
     </row>
-    <row r="772" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="1"/>
       <c r="C772" s="14"/>
       <c r="E772" s="15"/>
       <c r="F772" s="15"/>
     </row>
-    <row r="773" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="1"/>
       <c r="C773" s="14"/>
       <c r="E773" s="15"/>
       <c r="F773" s="15"/>
     </row>
-    <row r="774" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="1"/>
       <c r="C774" s="14"/>
       <c r="E774" s="15"/>
       <c r="F774" s="15"/>
     </row>
-    <row r="775" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="1"/>
       <c r="C775" s="14"/>
       <c r="E775" s="15"/>
       <c r="F775" s="15"/>
     </row>
-    <row r="776" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="1"/>
       <c r="C776" s="14"/>
       <c r="E776" s="15"/>
       <c r="F776" s="15"/>
     </row>
-    <row r="777" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="1"/>
       <c r="C777" s="14"/>
       <c r="E777" s="15"/>
       <c r="F777" s="15"/>
     </row>
-    <row r="778" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="1"/>
       <c r="C778" s="14"/>
       <c r="E778" s="15"/>
       <c r="F778" s="15"/>
     </row>
-    <row r="779" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="1"/>
       <c r="C779" s="14"/>
       <c r="E779" s="15"/>
       <c r="F779" s="15"/>
     </row>
-    <row r="780" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="1"/>
       <c r="C780" s="14"/>
       <c r="E780" s="15"/>
       <c r="F780" s="15"/>
     </row>
-    <row r="781" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="1"/>
       <c r="C781" s="14"/>
       <c r="E781" s="15"/>
       <c r="F781" s="15"/>
     </row>
-    <row r="782" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="1"/>
       <c r="C782" s="14"/>
       <c r="E782" s="15"/>
       <c r="F782" s="15"/>
     </row>
-    <row r="783" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="1"/>
       <c r="C783" s="14"/>
       <c r="E783" s="15"/>
       <c r="F783" s="15"/>
     </row>
-    <row r="784" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="1"/>
       <c r="C784" s="14"/>
       <c r="E784" s="15"/>
       <c r="F784" s="15"/>
     </row>
-    <row r="785" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="1"/>
       <c r="C785" s="14"/>
       <c r="E785" s="15"/>
       <c r="F785" s="15"/>
     </row>
-    <row r="786" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="1"/>
       <c r="C786" s="14"/>
       <c r="E786" s="15"/>
       <c r="F786" s="15"/>
     </row>
-    <row r="787" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="1"/>
       <c r="C787" s="14"/>
       <c r="E787" s="15"/>
       <c r="F787" s="15"/>
     </row>
-    <row r="788" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="1"/>
       <c r="C788" s="14"/>
       <c r="E788" s="15"/>
       <c r="F788" s="15"/>
     </row>
-    <row r="789" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="1"/>
       <c r="C789" s="14"/>
       <c r="E789" s="15"/>
       <c r="F789" s="15"/>
     </row>
-    <row r="790" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="1"/>
       <c r="C790" s="14"/>
       <c r="E790" s="15"/>
       <c r="F790" s="15"/>
     </row>
-    <row r="791" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="1"/>
       <c r="C791" s="14"/>
       <c r="E791" s="15"/>
       <c r="F791" s="15"/>
     </row>
-    <row r="792" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="1"/>
       <c r="C792" s="14"/>
       <c r="E792" s="15"/>
       <c r="F792" s="15"/>
     </row>
-    <row r="793" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="1"/>
       <c r="C793" s="14"/>
       <c r="E793" s="15"/>
       <c r="F793" s="15"/>
     </row>
-    <row r="794" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="1"/>
       <c r="C794" s="14"/>
       <c r="E794" s="15"/>
       <c r="F794" s="15"/>
     </row>
-    <row r="795" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="1"/>
       <c r="C795" s="14"/>
       <c r="E795" s="15"/>
       <c r="F795" s="15"/>
     </row>
-    <row r="796" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="1"/>
       <c r="C796" s="14"/>
       <c r="E796" s="15"/>
       <c r="F796" s="15"/>
     </row>
-    <row r="797" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="1"/>
       <c r="C797" s="14"/>
       <c r="E797" s="15"/>
       <c r="F797" s="15"/>
     </row>
-    <row r="798" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="1"/>
       <c r="C798" s="14"/>
       <c r="E798" s="15"/>
       <c r="F798" s="15"/>
     </row>
-    <row r="799" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="1"/>
       <c r="C799" s="14"/>
       <c r="E799" s="15"/>
       <c r="F799" s="15"/>
     </row>
-    <row r="800" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="1"/>
       <c r="C800" s="14"/>
       <c r="E800" s="15"/>
       <c r="F800" s="15"/>
     </row>
-    <row r="801" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="1"/>
       <c r="C801" s="14"/>
       <c r="E801" s="15"/>
       <c r="F801" s="15"/>
     </row>
-    <row r="802" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="1"/>
       <c r="C802" s="14"/>
       <c r="E802" s="15"/>
       <c r="F802" s="15"/>
     </row>
-    <row r="803" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="1"/>
       <c r="C803" s="14"/>
       <c r="E803" s="15"/>
       <c r="F803" s="15"/>
     </row>
-    <row r="804" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="1"/>
       <c r="C804" s="14"/>
       <c r="E804" s="15"/>
       <c r="F804" s="15"/>
     </row>
-    <row r="805" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="1"/>
       <c r="C805" s="14"/>
       <c r="E805" s="15"/>
       <c r="F805" s="15"/>
     </row>
-    <row r="806" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="1"/>
       <c r="C806" s="14"/>
       <c r="E806" s="15"/>
       <c r="F806" s="15"/>
     </row>
-    <row r="807" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="1"/>
       <c r="C807" s="14"/>
       <c r="E807" s="15"/>
       <c r="F807" s="15"/>
     </row>
-    <row r="808" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="1"/>
       <c r="C808" s="14"/>
       <c r="E808" s="15"/>
       <c r="F808" s="15"/>
     </row>
-    <row r="809" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="1"/>
       <c r="C809" s="14"/>
       <c r="E809" s="15"/>
       <c r="F809" s="15"/>
     </row>
-    <row r="810" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="1"/>
       <c r="C810" s="14"/>
       <c r="E810" s="15"/>
       <c r="F810" s="15"/>
     </row>
-    <row r="811" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="1"/>
       <c r="C811" s="14"/>
       <c r="E811" s="15"/>
       <c r="F811" s="15"/>
     </row>
-    <row r="812" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="1"/>
       <c r="C812" s="14"/>
       <c r="E812" s="15"/>
       <c r="F812" s="15"/>
     </row>
-    <row r="813" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="1"/>
       <c r="C813" s="14"/>
       <c r="E813" s="15"/>
       <c r="F813" s="15"/>
     </row>
-    <row r="814" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="1"/>
       <c r="C814" s="14"/>
       <c r="E814" s="15"/>
       <c r="F814" s="15"/>
     </row>
-    <row r="815" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="1"/>
       <c r="C815" s="14"/>
       <c r="E815" s="15"/>
       <c r="F815" s="15"/>
     </row>
-    <row r="816" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="1"/>
       <c r="C816" s="14"/>
       <c r="E816" s="15"/>
       <c r="F816" s="15"/>
     </row>
-    <row r="817" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="1"/>
       <c r="C817" s="14"/>
       <c r="E817" s="15"/>
       <c r="F817" s="15"/>
     </row>
-    <row r="818" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="1"/>
       <c r="C818" s="14"/>
       <c r="E818" s="15"/>
       <c r="F818" s="15"/>
     </row>
-    <row r="819" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="1"/>
       <c r="C819" s="14"/>
       <c r="E819" s="15"/>
       <c r="F819" s="15"/>
     </row>
-    <row r="820" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="1"/>
       <c r="C820" s="14"/>
       <c r="E820" s="15"/>
       <c r="F820" s="15"/>
     </row>
-    <row r="821" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="1"/>
       <c r="C821" s="14"/>
       <c r="E821" s="15"/>
       <c r="F821" s="15"/>
     </row>
-    <row r="822" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="1"/>
       <c r="C822" s="14"/>
       <c r="E822" s="15"/>
       <c r="F822" s="15"/>
     </row>
-    <row r="823" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="1"/>
       <c r="C823" s="14"/>
       <c r="E823" s="15"/>
       <c r="F823" s="15"/>
     </row>
-    <row r="824" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="1"/>
       <c r="C824" s="14"/>
       <c r="E824" s="15"/>
       <c r="F824" s="15"/>
     </row>
-    <row r="825" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="1"/>
       <c r="C825" s="14"/>
       <c r="E825" s="15"/>
       <c r="F825" s="15"/>
     </row>
-    <row r="826" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="1"/>
       <c r="C826" s="14"/>
       <c r="E826" s="15"/>
       <c r="F826" s="15"/>
     </row>
-    <row r="827" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="1"/>
       <c r="C827" s="14"/>
       <c r="E827" s="15"/>
       <c r="F827" s="15"/>
     </row>
-    <row r="828" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="1"/>
       <c r="C828" s="14"/>
       <c r="E828" s="15"/>
       <c r="F828" s="15"/>
     </row>
-    <row r="829" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="1"/>
       <c r="C829" s="14"/>
       <c r="E829" s="15"/>
       <c r="F829" s="15"/>
     </row>
-    <row r="830" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="1"/>
       <c r="C830" s="14"/>
       <c r="E830" s="15"/>
       <c r="F830" s="15"/>
     </row>
-    <row r="831" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="1"/>
       <c r="C831" s="14"/>
       <c r="E831" s="15"/>
       <c r="F831" s="15"/>
     </row>
-    <row r="832" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="1"/>
       <c r="C832" s="14"/>
       <c r="E832" s="15"/>
       <c r="F832" s="15"/>
     </row>
-    <row r="833" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="1"/>
       <c r="C833" s="14"/>
       <c r="E833" s="15"/>
       <c r="F833" s="15"/>
     </row>
-    <row r="834" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="1"/>
       <c r="C834" s="14"/>
       <c r="E834" s="15"/>
       <c r="F834" s="15"/>
     </row>
-    <row r="835" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="1"/>
       <c r="C835" s="14"/>
       <c r="E835" s="15"/>
       <c r="F835" s="15"/>
     </row>
-    <row r="836" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="1"/>
       <c r="C836" s="14"/>
       <c r="E836" s="15"/>
       <c r="F836" s="15"/>
     </row>
-    <row r="837" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="1"/>
       <c r="C837" s="14"/>
       <c r="E837" s="15"/>
       <c r="F837" s="15"/>
     </row>
-    <row r="838" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="1"/>
       <c r="C838" s="14"/>
       <c r="E838" s="15"/>
       <c r="F838" s="15"/>
     </row>
-    <row r="839" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="1"/>
       <c r="C839" s="14"/>
       <c r="E839" s="15"/>
       <c r="F839" s="15"/>
     </row>
-    <row r="840" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="1"/>
       <c r="C840" s="14"/>
       <c r="E840" s="15"/>
       <c r="F840" s="15"/>
     </row>
-    <row r="841" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="1"/>
       <c r="C841" s="14"/>
       <c r="E841" s="15"/>
       <c r="F841" s="15"/>
     </row>
-    <row r="842" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="1"/>
       <c r="C842" s="14"/>
       <c r="E842" s="15"/>
       <c r="F842" s="15"/>
     </row>
-    <row r="843" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="1"/>
       <c r="C843" s="14"/>
       <c r="E843" s="15"/>
       <c r="F843" s="15"/>
     </row>
-    <row r="844" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="1"/>
       <c r="C844" s="14"/>
       <c r="E844" s="15"/>
       <c r="F844" s="15"/>
     </row>
-    <row r="845" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="1"/>
       <c r="C845" s="14"/>
       <c r="E845" s="15"/>
       <c r="F845" s="15"/>
     </row>
-    <row r="846" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="1"/>
       <c r="C846" s="14"/>
       <c r="E846" s="15"/>
       <c r="F846" s="15"/>
     </row>
-    <row r="847" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="1"/>
       <c r="C847" s="14"/>
       <c r="E847" s="15"/>
       <c r="F847" s="15"/>
     </row>
-    <row r="848" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="1"/>
       <c r="C848" s="14"/>
       <c r="E848" s="15"/>
       <c r="F848" s="15"/>
     </row>
-    <row r="849" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="1"/>
       <c r="C849" s="14"/>
       <c r="E849" s="15"/>
       <c r="F849" s="15"/>
     </row>
-    <row r="850" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="1"/>
       <c r="C850" s="14"/>
       <c r="E850" s="15"/>
       <c r="F850" s="15"/>
     </row>
-    <row r="851" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="1"/>
       <c r="C851" s="14"/>
       <c r="E851" s="15"/>
       <c r="F851" s="15"/>
     </row>
-    <row r="852" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="1"/>
       <c r="C852" s="14"/>
       <c r="E852" s="15"/>
       <c r="F852" s="15"/>
     </row>
-    <row r="853" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="1"/>
       <c r="C853" s="14"/>
       <c r="E853" s="15"/>
       <c r="F853" s="15"/>
     </row>
-    <row r="854" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="1"/>
       <c r="C854" s="14"/>
       <c r="E854" s="15"/>
       <c r="F854" s="15"/>
     </row>
-    <row r="855" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="1"/>
       <c r="C855" s="14"/>
       <c r="E855" s="15"/>
       <c r="F855" s="15"/>
     </row>
-    <row r="856" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="1"/>
       <c r="C856" s="14"/>
       <c r="E856" s="15"/>
       <c r="F856" s="15"/>
     </row>
-    <row r="857" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="1"/>
       <c r="C857" s="14"/>
       <c r="E857" s="15"/>
       <c r="F857" s="15"/>
     </row>
-    <row r="858" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="1"/>
       <c r="C858" s="14"/>
       <c r="E858" s="15"/>
       <c r="F858" s="15"/>
     </row>
-    <row r="859" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="1"/>
       <c r="C859" s="14"/>
       <c r="E859" s="15"/>
       <c r="F859" s="15"/>
     </row>
-    <row r="860" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="1"/>
       <c r="C860" s="14"/>
       <c r="E860" s="15"/>
       <c r="F860" s="15"/>
     </row>
-    <row r="861" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="1"/>
       <c r="C861" s="14"/>
       <c r="E861" s="15"/>
       <c r="F861" s="15"/>
     </row>
-    <row r="862" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="1"/>
       <c r="C862" s="14"/>
       <c r="E862" s="15"/>
       <c r="F862" s="15"/>
     </row>
-    <row r="863" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="1"/>
       <c r="C863" s="14"/>
       <c r="E863" s="15"/>
       <c r="F863" s="15"/>
     </row>
-    <row r="864" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="1"/>
       <c r="C864" s="14"/>
       <c r="E864" s="15"/>
       <c r="F864" s="15"/>
     </row>
-    <row r="865" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="1"/>
       <c r="C865" s="14"/>
       <c r="E865" s="15"/>
       <c r="F865" s="15"/>
     </row>
-    <row r="866" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="1"/>
       <c r="C866" s="14"/>
       <c r="E866" s="15"/>
       <c r="F866" s="15"/>
     </row>
-    <row r="867" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="1"/>
       <c r="C867" s="14"/>
       <c r="E867" s="15"/>
       <c r="F867" s="15"/>
     </row>
-    <row r="868" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="1"/>
       <c r="C868" s="14"/>
       <c r="E868" s="15"/>
       <c r="F868" s="15"/>
     </row>
-    <row r="869" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="1"/>
       <c r="C869" s="14"/>
       <c r="E869" s="15"/>
       <c r="F869" s="15"/>
     </row>
-    <row r="870" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="1"/>
       <c r="C870" s="14"/>
       <c r="E870" s="15"/>
       <c r="F870" s="15"/>
     </row>
-    <row r="871" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="1"/>
       <c r="C871" s="14"/>
       <c r="E871" s="15"/>
       <c r="F871" s="15"/>
     </row>
-    <row r="872" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="1"/>
       <c r="C872" s="14"/>
       <c r="E872" s="15"/>
       <c r="F872" s="15"/>
     </row>
-    <row r="873" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="1"/>
       <c r="C873" s="14"/>
       <c r="E873" s="15"/>
       <c r="F873" s="15"/>
     </row>
-    <row r="874" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="1"/>
       <c r="C874" s="14"/>
       <c r="E874" s="15"/>
       <c r="F874" s="15"/>
     </row>
-    <row r="875" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="1"/>
       <c r="C875" s="14"/>
       <c r="E875" s="15"/>
       <c r="F875" s="15"/>
     </row>
-    <row r="876" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="1"/>
       <c r="C876" s="14"/>
       <c r="E876" s="15"/>
       <c r="F876" s="15"/>
     </row>
-    <row r="877" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="1"/>
       <c r="C877" s="14"/>
       <c r="E877" s="15"/>
       <c r="F877" s="15"/>
     </row>
-    <row r="878" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="1"/>
       <c r="C878" s="14"/>
       <c r="E878" s="15"/>
       <c r="F878" s="15"/>
     </row>
-    <row r="879" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="1"/>
       <c r="C879" s="14"/>
       <c r="E879" s="15"/>
       <c r="F879" s="15"/>
     </row>
-    <row r="880" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="1"/>
       <c r="C880" s="14"/>
       <c r="E880" s="15"/>
       <c r="F880" s="15"/>
     </row>
-    <row r="881" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="1"/>
       <c r="C881" s="14"/>
       <c r="E881" s="15"/>
       <c r="F881" s="15"/>
     </row>
-    <row r="882" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="1"/>
       <c r="C882" s="14"/>
       <c r="E882" s="15"/>
       <c r="F882" s="15"/>
     </row>
-    <row r="883" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="1"/>
       <c r="C883" s="14"/>
       <c r="E883" s="15"/>
       <c r="F883" s="15"/>
     </row>
-    <row r="884" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="1"/>
       <c r="C884" s="14"/>
       <c r="E884" s="15"/>
       <c r="F884" s="15"/>
     </row>
-    <row r="885" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="1"/>
       <c r="C885" s="14"/>
       <c r="E885" s="15"/>
       <c r="F885" s="15"/>
     </row>
-    <row r="886" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="1"/>
       <c r="C886" s="14"/>
       <c r="E886" s="15"/>
       <c r="F886" s="15"/>
     </row>
-    <row r="887" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="1"/>
       <c r="C887" s="14"/>
       <c r="E887" s="15"/>
       <c r="F887" s="15"/>
     </row>
-    <row r="888" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="1"/>
       <c r="C888" s="14"/>
       <c r="E888" s="15"/>
       <c r="F888" s="15"/>
     </row>
-    <row r="889" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="1"/>
       <c r="C889" s="14"/>
       <c r="E889" s="15"/>
       <c r="F889" s="15"/>
     </row>
-    <row r="890" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="1"/>
       <c r="C890" s="14"/>
       <c r="E890" s="15"/>
       <c r="F890" s="15"/>
     </row>
-    <row r="891" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="1"/>
       <c r="C891" s="14"/>
       <c r="E891" s="15"/>
       <c r="F891" s="15"/>
     </row>
-    <row r="892" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="1"/>
       <c r="C892" s="14"/>
       <c r="E892" s="15"/>
       <c r="F892" s="15"/>
     </row>
-    <row r="893" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="1"/>
       <c r="C893" s="14"/>
       <c r="E893" s="15"/>
       <c r="F893" s="15"/>
     </row>
-    <row r="894" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="1"/>
       <c r="C894" s="14"/>
       <c r="E894" s="15"/>
       <c r="F894" s="15"/>
     </row>
-    <row r="895" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="1"/>
       <c r="C895" s="14"/>
       <c r="E895" s="15"/>
       <c r="F895" s="15"/>
     </row>
-    <row r="896" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="1"/>
       <c r="C896" s="14"/>
       <c r="E896" s="15"/>
       <c r="F896" s="15"/>
     </row>
-    <row r="897" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="1"/>
       <c r="C897" s="14"/>
       <c r="E897" s="15"/>
       <c r="F897" s="15"/>
     </row>
-    <row r="898" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="1"/>
       <c r="C898" s="14"/>
       <c r="E898" s="15"/>
       <c r="F898" s="15"/>
     </row>
-    <row r="899" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="1"/>
       <c r="C899" s="14"/>
       <c r="E899" s="15"/>
       <c r="F899" s="15"/>
     </row>
-    <row r="900" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="1"/>
       <c r="C900" s="14"/>
       <c r="E900" s="15"/>
       <c r="F900" s="15"/>
     </row>
-    <row r="901" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="1"/>
       <c r="C901" s="14"/>
       <c r="E901" s="15"/>
       <c r="F901" s="15"/>
     </row>
-    <row r="902" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="1"/>
       <c r="C902" s="14"/>
       <c r="E902" s="15"/>
       <c r="F902" s="15"/>
     </row>
-    <row r="903" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="1"/>
       <c r="C903" s="14"/>
       <c r="E903" s="15"/>
       <c r="F903" s="15"/>
     </row>
-    <row r="904" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="1"/>
       <c r="C904" s="14"/>
       <c r="E904" s="15"/>
       <c r="F904" s="15"/>
     </row>
-    <row r="905" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="1"/>
       <c r="C905" s="14"/>
       <c r="E905" s="15"/>
       <c r="F905" s="15"/>
     </row>
-    <row r="906" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="1"/>
       <c r="C906" s="14"/>
       <c r="E906" s="15"/>
       <c r="F906" s="15"/>
     </row>
-    <row r="907" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="1"/>
       <c r="C907" s="14"/>
       <c r="E907" s="15"/>
       <c r="F907" s="15"/>
     </row>
-    <row r="908" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="1"/>
       <c r="C908" s="14"/>
       <c r="E908" s="15"/>
       <c r="F908" s="15"/>
     </row>
-    <row r="909" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="1"/>
       <c r="C909" s="14"/>
       <c r="E909" s="15"/>
       <c r="F909" s="15"/>
     </row>
-    <row r="910" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="1"/>
       <c r="C910" s="14"/>
       <c r="E910" s="15"/>
       <c r="F910" s="15"/>
     </row>
-    <row r="911" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="1"/>
       <c r="C911" s="14"/>
       <c r="E911" s="15"/>
       <c r="F911" s="15"/>
     </row>
-    <row r="912" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="1"/>
       <c r="C912" s="14"/>
       <c r="E912" s="15"/>
       <c r="F912" s="15"/>
     </row>
-    <row r="913" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="1"/>
       <c r="C913" s="14"/>
       <c r="E913" s="15"/>
       <c r="F913" s="15"/>
     </row>
-    <row r="914" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="1"/>
       <c r="C914" s="14"/>
       <c r="E914" s="15"/>
       <c r="F914" s="15"/>
     </row>
-    <row r="915" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="1"/>
       <c r="C915" s="14"/>
       <c r="E915" s="15"/>
       <c r="F915" s="15"/>
     </row>
-    <row r="916" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="1"/>
       <c r="C916" s="14"/>
       <c r="E916" s="15"/>
       <c r="F916" s="15"/>
     </row>
-    <row r="917" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="1"/>
       <c r="C917" s="14"/>
       <c r="E917" s="15"/>
       <c r="F917" s="15"/>
     </row>
-    <row r="918" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="1"/>
       <c r="C918" s="14"/>
       <c r="E918" s="15"/>
       <c r="F918" s="15"/>
     </row>
-    <row r="919" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="1"/>
       <c r="C919" s="14"/>
       <c r="E919" s="15"/>
       <c r="F919" s="15"/>
     </row>
-    <row r="920" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="1"/>
       <c r="C920" s="14"/>
       <c r="E920" s="15"/>
       <c r="F920" s="15"/>
     </row>
-    <row r="921" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="1"/>
       <c r="C921" s="14"/>
       <c r="E921" s="15"/>
       <c r="F921" s="15"/>
     </row>
-    <row r="922" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="1"/>
       <c r="C922" s="14"/>
       <c r="E922" s="15"/>
       <c r="F922" s="15"/>
     </row>
-    <row r="923" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="1"/>
       <c r="C923" s="14"/>
       <c r="E923" s="15"/>
       <c r="F923" s="15"/>
     </row>
-    <row r="924" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="1"/>
       <c r="C924" s="14"/>
       <c r="E924" s="15"/>
       <c r="F924" s="15"/>
     </row>
-    <row r="925" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="1"/>
       <c r="C925" s="14"/>
       <c r="E925" s="15"/>
       <c r="F925" s="15"/>
     </row>
-    <row r="926" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="1"/>
       <c r="C926" s="14"/>
       <c r="E926" s="15"/>
       <c r="F926" s="15"/>
     </row>
-    <row r="927" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="1"/>
       <c r="C927" s="14"/>
       <c r="E927" s="15"/>
       <c r="F927" s="15"/>
     </row>
-    <row r="928" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="1"/>
       <c r="C928" s="14"/>
       <c r="E928" s="15"/>
       <c r="F928" s="15"/>
     </row>
-    <row r="929" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="1"/>
       <c r="C929" s="14"/>
       <c r="E929" s="15"/>
       <c r="F929" s="15"/>
     </row>
-    <row r="930" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="1"/>
       <c r="C930" s="14"/>
       <c r="E930" s="15"/>
       <c r="F930" s="15"/>
     </row>
-    <row r="931" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="1"/>
       <c r="C931" s="14"/>
       <c r="E931" s="15"/>
       <c r="F931" s="15"/>
     </row>
-    <row r="932" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="1"/>
       <c r="C932" s="14"/>
       <c r="E932" s="15"/>
       <c r="F932" s="15"/>
     </row>
-    <row r="933" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="1"/>
       <c r="C933" s="14"/>
       <c r="E933" s="15"/>
       <c r="F933" s="15"/>
     </row>
-    <row r="934" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="1"/>
       <c r="C934" s="14"/>
       <c r="E934" s="15"/>
       <c r="F934" s="15"/>
     </row>
-    <row r="935" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="1"/>
       <c r="C935" s="14"/>
       <c r="E935" s="15"/>
       <c r="F935" s="15"/>
     </row>
-    <row r="936" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="1"/>
       <c r="C936" s="14"/>
       <c r="E936" s="15"/>
       <c r="F936" s="15"/>
     </row>
-    <row r="937" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="1"/>
       <c r="C937" s="14"/>
       <c r="E937" s="15"/>
       <c r="F937" s="15"/>
     </row>
-    <row r="938" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="1"/>
       <c r="C938" s="14"/>
       <c r="E938" s="15"/>
       <c r="F938" s="15"/>
     </row>
-    <row r="939" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="1"/>
       <c r="C939" s="14"/>
       <c r="E939" s="15"/>
       <c r="F939" s="15"/>
     </row>
-    <row r="940" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="1"/>
       <c r="C940" s="14"/>
       <c r="E940" s="15"/>
       <c r="F940" s="15"/>
     </row>
-    <row r="941" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="1"/>
       <c r="C941" s="14"/>
       <c r="E941" s="15"/>
       <c r="F941" s="15"/>
     </row>
-    <row r="942" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="1"/>
       <c r="C942" s="14"/>
       <c r="E942" s="15"/>
       <c r="F942" s="15"/>
     </row>
-    <row r="943" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="1"/>
       <c r="C943" s="14"/>
       <c r="E943" s="15"/>
       <c r="F943" s="15"/>
     </row>
-    <row r="944" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="1"/>
       <c r="C944" s="14"/>
       <c r="E944" s="15"/>
       <c r="F944" s="15"/>
     </row>
-    <row r="945" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="1"/>
       <c r="C945" s="14"/>
       <c r="E945" s="15"/>
       <c r="F945" s="15"/>
     </row>
-    <row r="946" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="1"/>
       <c r="C946" s="14"/>
       <c r="E946" s="15"/>
       <c r="F946" s="15"/>
     </row>
-    <row r="947" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="1"/>
       <c r="C947" s="14"/>
       <c r="E947" s="15"/>
       <c r="F947" s="15"/>
     </row>
-    <row r="948" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="1"/>
       <c r="C948" s="14"/>
       <c r="E948" s="15"/>
       <c r="F948" s="15"/>
     </row>
-    <row r="949" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="1"/>
       <c r="C949" s="14"/>
       <c r="E949" s="15"/>
       <c r="F949" s="15"/>
     </row>
-    <row r="950" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="1"/>
       <c r="C950" s="14"/>
       <c r="E950" s="15"/>
       <c r="F950" s="15"/>
     </row>
-    <row r="951" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A951" s="1"/>
       <c r="C951" s="14"/>
       <c r="E951" s="15"/>
       <c r="F951" s="15"/>
     </row>
-    <row r="952" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A952" s="1"/>
       <c r="C952" s="14"/>
       <c r="E952" s="15"/>
       <c r="F952" s="15"/>
     </row>
-    <row r="953" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A953" s="1"/>
       <c r="C953" s="14"/>
       <c r="E953" s="15"/>
       <c r="F953" s="15"/>
     </row>
-    <row r="954" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="1"/>
       <c r="C954" s="14"/>
       <c r="E954" s="15"/>
       <c r="F954" s="15"/>
     </row>
-    <row r="955" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="1"/>
       <c r="C955" s="14"/>
       <c r="E955" s="15"/>
       <c r="F955" s="15"/>
     </row>
-    <row r="956" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="1"/>
       <c r="C956" s="14"/>
       <c r="E956" s="15"/>
       <c r="F956" s="15"/>
     </row>
-    <row r="957" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="1"/>
       <c r="C957" s="14"/>
       <c r="E957" s="15"/>
       <c r="F957" s="15"/>
     </row>
-    <row r="958" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958" s="1"/>
       <c r="C958" s="14"/>
       <c r="E958" s="15"/>
       <c r="F958" s="15"/>
     </row>
-    <row r="959" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959" s="1"/>
       <c r="C959" s="14"/>
       <c r="E959" s="15"/>
       <c r="F959" s="15"/>
     </row>
-    <row r="960" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960" s="1"/>
       <c r="C960" s="14"/>
       <c r="E960" s="15"/>
       <c r="F960" s="15"/>
     </row>
-    <row r="961" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="1"/>
       <c r="C961" s="14"/>
       <c r="E961" s="15"/>
       <c r="F961" s="15"/>
     </row>
-    <row r="962" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="1"/>
       <c r="C962" s="14"/>
       <c r="E962" s="15"/>
       <c r="F962" s="15"/>
     </row>
-    <row r="963" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="1"/>
       <c r="C963" s="14"/>
       <c r="E963" s="15"/>
       <c r="F963" s="15"/>
     </row>
-    <row r="964" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="1"/>
       <c r="C964" s="14"/>
       <c r="E964" s="15"/>
       <c r="F964" s="15"/>
     </row>
-    <row r="965" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="1"/>
       <c r="C965" s="14"/>
       <c r="E965" s="15"/>
       <c r="F965" s="15"/>
     </row>
-    <row r="966" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="1"/>
       <c r="C966" s="14"/>
       <c r="E966" s="15"/>
       <c r="F966" s="15"/>
     </row>
-    <row r="967" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="1"/>
       <c r="C967" s="14"/>
       <c r="E967" s="15"/>
       <c r="F967" s="15"/>
     </row>
-    <row r="968" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="1"/>
       <c r="C968" s="14"/>
       <c r="E968" s="15"/>
       <c r="F968" s="15"/>
     </row>
-    <row r="969" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="1"/>
       <c r="C969" s="14"/>
       <c r="E969" s="15"/>
       <c r="F969" s="15"/>
     </row>
-    <row r="970" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="1"/>
       <c r="C970" s="14"/>
       <c r="E970" s="15"/>
       <c r="F970" s="15"/>
     </row>
-    <row r="971" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="1"/>
       <c r="C971" s="14"/>
       <c r="E971" s="15"/>
       <c r="F971" s="15"/>
     </row>
-    <row r="972" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972" s="1"/>
       <c r="C972" s="14"/>
       <c r="E972" s="15"/>
       <c r="F972" s="15"/>
     </row>
-    <row r="973" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A973" s="1"/>
       <c r="C973" s="14"/>
       <c r="E973" s="15"/>
       <c r="F973" s="15"/>
     </row>
-    <row r="974" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A974" s="1"/>
       <c r="C974" s="14"/>
       <c r="E974" s="15"/>
       <c r="F974" s="15"/>
     </row>
-    <row r="975" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975" s="1"/>
       <c r="C975" s="14"/>
       <c r="E975" s="15"/>
       <c r="F975" s="15"/>
     </row>
-    <row r="976" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976" s="1"/>
       <c r="C976" s="14"/>
       <c r="E976" s="15"/>
       <c r="F976" s="15"/>
     </row>
-    <row r="977" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977" s="1"/>
       <c r="C977" s="14"/>
       <c r="E977" s="15"/>
       <c r="F977" s="15"/>
     </row>
-    <row r="978" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978" s="1"/>
       <c r="C978" s="14"/>
       <c r="E978" s="15"/>
       <c r="F978" s="15"/>
     </row>
-    <row r="979" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A979" s="1"/>
       <c r="C979" s="14"/>
       <c r="E979" s="15"/>
       <c r="F979" s="15"/>
     </row>
-    <row r="980" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A980" s="1"/>
       <c r="C980" s="14"/>
       <c r="E980" s="15"/>
       <c r="F980" s="15"/>
     </row>
-    <row r="981" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A981" s="1"/>
       <c r="C981" s="14"/>
       <c r="E981" s="15"/>
       <c r="F981" s="15"/>
     </row>
-    <row r="982" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982" s="1"/>
       <c r="C982" s="14"/>
       <c r="E982" s="15"/>
       <c r="F982" s="15"/>
     </row>
-    <row r="983" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A983" s="1"/>
       <c r="C983" s="14"/>
       <c r="E983" s="15"/>
       <c r="F983" s="15"/>
     </row>
-    <row r="984" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A984" s="1"/>
       <c r="C984" s="14"/>
       <c r="E984" s="15"/>
       <c r="F984" s="15"/>
     </row>
-    <row r="985" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985" s="1"/>
       <c r="C985" s="14"/>
       <c r="E985" s="15"/>
       <c r="F985" s="15"/>
     </row>
-    <row r="986" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A986" s="1"/>
       <c r="C986" s="14"/>
       <c r="E986" s="15"/>
       <c r="F986" s="15"/>
     </row>
-    <row r="987" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A987" s="1"/>
       <c r="C987" s="14"/>
       <c r="E987" s="15"/>
       <c r="F987" s="15"/>
     </row>
-    <row r="988" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A988" s="1"/>
       <c r="C988" s="14"/>
       <c r="E988" s="15"/>
       <c r="F988" s="15"/>
     </row>
-    <row r="989" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989" s="1"/>
       <c r="C989" s="14"/>
       <c r="E989" s="15"/>
       <c r="F989" s="15"/>
     </row>
-    <row r="990" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990" s="1"/>
       <c r="C990" s="14"/>
       <c r="E990" s="15"/>
       <c r="F990" s="15"/>
     </row>
-    <row r="991" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A991" s="1"/>
       <c r="C991" s="14"/>
       <c r="E991" s="15"/>
       <c r="F991" s="15"/>
     </row>
-    <row r="992" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A992" s="1"/>
       <c r="C992" s="14"/>
       <c r="E992" s="15"/>
       <c r="F992" s="15"/>
     </row>
-    <row r="993" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A993" s="1"/>
       <c r="C993" s="14"/>
       <c r="E993" s="15"/>
       <c r="F993" s="15"/>
     </row>
-    <row r="994" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A994" s="1"/>
       <c r="C994" s="14"/>
       <c r="E994" s="15"/>
       <c r="F994" s="15"/>
     </row>
-    <row r="995" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A995" s="1"/>
       <c r="C995" s="14"/>
       <c r="E995" s="15"/>
       <c r="F995" s="15"/>
     </row>
-    <row r="996" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A996" s="1"/>
       <c r="C996" s="14"/>
       <c r="E996" s="15"/>
       <c r="F996" s="15"/>
     </row>
-    <row r="997" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A997" s="1"/>
       <c r="C997" s="14"/>
       <c r="E997" s="15"/>
       <c r="F997" s="15"/>
     </row>
-    <row r="998" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A998" s="1"/>
       <c r="C998" s="14"/>
       <c r="E998" s="15"/>
       <c r="F998" s="15"/>
     </row>
-    <row r="999" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A999" s="1"/>
       <c r="C999" s="14"/>
       <c r="E999" s="15"/>
@@ -6943,21 +6983,22 @@
     <mergeCell ref="A20:F22"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="https://tr.aliexpress.com/item/1005002001651339.html?spm=a2g0o.productlist.0.0.2b747162veodEz&amp;algo_pvid=2f9df431-817a-4ca4-a0cb-67106812d41f&amp;algo_exp_id=2f9df431-817a-4ca4-a0cb-67106812d41f-25&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000018372797400%22%7D&amp;pdp_pi=-1%3B1729.67%3B-1%3B17125%40salePrice%3BTRY%3Bsearch-mainSearch" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId1" display="https://tr.aliexpress.com/item/32972733396.html?srcSns=sns_Copy&amp;spreadType=socialShare&amp;bizType=ProductDetail&amp;social_params=60142782045&amp;aff_fcid=e5de18573eb24f4fb95687407413d5c7-1645962552684-03910-_uzOlLV&amp;tt=MG&amp;aff_fsk=_uzOlLV&amp;aff_platform=default&amp;sk=_uzOlLV&amp;aff_trace_key=e5de18573eb24f4fb95687407413d5c7-1645962552684-03910-_uzOlLV&amp;shareId=60142782045&amp;businessType=ProductDetail&amp;platform=AE&amp;terminal_id=bbdb96ebd8ef42e0996c8f6077033052&amp;afSmartRedirect=y" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="D5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="D6" r:id="rId3" display="https://tr.aliexpress.com/item/1005002433089452.html?spm=a2g0o.productlist.0.0.6df4339dj4oS1S&amp;algo_pvid=eef124f3-aa1b-4b96-89e0-ad25bf102b57&amp;algo_exp_id=eef124f3-aa1b-4b96-89e0-ad25bf102b57-1&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000020637330225%22%7D&amp;pdp_pi=-1%3B229.88%3B-1%3B-1%40salePrice%3BTRY%3Bsearch-mainSearch" xr:uid="{16AA3ECD-71CB-49FD-866B-93CDBCEF4137}"/>
     <hyperlink ref="D11" r:id="rId4" xr:uid="{95FFB78C-EA5E-46A1-B6FD-9F43B2DAF773}"/>
-    <hyperlink ref="D7" r:id="rId5" display="https://tr.aliexpress.com/item/1005002091320352.html?spm=a2g0o.productlist.0.0.6b434734jrg0UW&amp;algo_pvid=4204bc8e-aea8-425b-ba4c-1e81517e3476&amp;aem_p4p_detail=202202251157521922757826983800005938282&amp;algo_exp_id=4204bc8e-aea8-425b-ba4c-1e81517e3476-14&amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000018711741545%22%7D&amp;pdp_pi=-1%3B71.26%3B-1%3B5407%40salePrice%3BTRY%3Bsearch-mainSearch" xr:uid="{027DDC9B-BE54-4DC5-B958-BF7A4283758B}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{027DDC9B-BE54-4DC5-B958-BF7A4283758B}"/>
     <hyperlink ref="D8" r:id="rId6" display="https://tr.aliexpress.com/item/1708771731.html?srcSns=sns_Copy&amp;spreadType=socialShare&amp;bizType=ProductDetail&amp;social_params=60126720893&amp;aff_fcid=d949310bedbd458b9e26562ffe64d2a1-1645624201126-07754-_ufV0AX&amp;tt=MG&amp;aff_fsk=_ufV0AX&amp;aff_platform=default&amp;sk=_ufV0AX&amp;aff_trace_key=d949310bedbd458b9e26562ffe64d2a1-1645624201126-07754-_ufV0AX&amp;shareId=60126720893&amp;businessType=ProductDetail&amp;platform=AE&amp;terminal_id=049bd3b5c15345dfb6e0fe1b4af8a5dc&amp;afSmartRedirect=n" xr:uid="{534F16AA-D542-415A-BB98-7541DF6C72CB}"/>
     <hyperlink ref="D9" r:id="rId7" xr:uid="{92F5E79F-55A1-40D0-A89E-D2AD5CA2889B}"/>
     <hyperlink ref="D10" r:id="rId8" xr:uid="{55AEEE80-2C6E-4E53-ACE4-B6FCD979C937}"/>
-    <hyperlink ref="D12" r:id="rId9" display="https://tr.aliexpress.com/item/1005001950159522.html?srcSns=sns_Copy&amp;spreadType=socialShare&amp;bizType=ProductDetail&amp;social_params=60141017997&amp;aff_fcid=cfd190b6eba34e66a47e07e0a7e333ef-1645625009909-00743-_voLUSG&amp;tt=MG&amp;aff_fsk=_voLUSG&amp;aff_platform=default&amp;sk=_voLUSG&amp;aff_trace_key=cfd190b6eba34e66a47e07e0a7e333ef-1645625009909-00743-_voLUSG&amp;shareId=60141017997&amp;businessType=ProductDetail&amp;platform=AE&amp;terminal_id=bbdb96ebd8ef42e0996c8f6077033052&amp;afSmartRedirect=y" xr:uid="{96A011A9-468C-40A7-94BF-9DE9F4BA957B}"/>
+    <hyperlink ref="D12" r:id="rId9" xr:uid="{96A011A9-468C-40A7-94BF-9DE9F4BA957B}"/>
     <hyperlink ref="D14" r:id="rId10" xr:uid="{FDEFEF70-2E2B-41DF-A2DC-FC88B57FEA2D}"/>
     <hyperlink ref="D16" r:id="rId11" xr:uid="{120B9B05-00C8-4508-99C0-65E9D1110D48}"/>
     <hyperlink ref="D15" r:id="rId12" xr:uid="{A66262DB-2314-4FD2-9339-25A2D6ED1E15}"/>
     <hyperlink ref="D13" r:id="rId13" xr:uid="{118E338D-5220-4779-82DE-75BF16BAC928}"/>
+    <hyperlink ref="D17" r:id="rId14" display="https://tr.aliexpress.com/item/4000009680144.html?srcSns=sns_Copy&amp;spreadType=socialShare&amp;bizType=ProductDetail&amp;social_params=60142267499&amp;aff_fcid=ba8db12c8eef493ebe06221d62f1b8ec-1645962743634-08386-_uvOWnt&amp;tt=MG&amp;aff_fsk=_uvOWnt&amp;aff_platform=default&amp;sk=_uvOWnt&amp;aff_trace_key=ba8db12c8eef493ebe06221d62f1b8ec-1645962743634-08386-_uvOWnt&amp;shareId=60142267499&amp;businessType=ProductDetail&amp;platform=AE&amp;terminal_id=bbdb96ebd8ef42e0996c8f6077033052&amp;afSmartRedirect=y" xr:uid="{399F720C-B9B8-487D-8558-CD4196968BB0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>